--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333EF057-7789-5846-93D2-721B80E93F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB771624-B59C-7740-9EA4-A402C1F7EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -3199,48 +3199,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">・ログイン画面が表示されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・「事前準備用SQL」シートのSQLが実施されていること
-・その後、「DROP TABLE employees」で従業員情報をすべて削除すること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ジュンb</t>
-    </rPh>
-    <rPh sb="37" eb="46">
-      <t>ジッs</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>g</t>
-    </rPh>
-    <rPh sb="75" eb="80">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>サクj</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>・従業員一覧画面に遷移すること
 ・</t>
     </r>
@@ -4330,10 +4288,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>山田太郎</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・従業員一覧画面に遷移すること
 ・ヘッダに「山田太郎さんこんにちは」と表示されていること</t>
     <rPh sb="1" eb="4">
@@ -4368,12 +4322,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>yamada@sample.co.jp</t>
-  </si>
-  <si>
-    <t>yamadasample.co.jp</t>
-  </si>
-  <si>
     <t>・管理者メニュー画面が表示されていること。
 ・DBのメールアドレスに'yamada@sample.co.jp'が、登録されていること</t>
     <rPh sb="1" eb="4">
@@ -4443,6 +4391,63 @@
   </si>
   <si>
     <t>insert into administrators(name,mail_address,password) values('山田太郎','yamada@sample.com','testtest');</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ログイン画面が表示されていること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「事前準備用SQL」シートのSQLが実施されていること
+・その後、「DELETE TABLE employees」で従業員情報をすべて削除すること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジュンb</t>
+    </rPh>
+    <rPh sb="37" eb="46">
+      <t>ジッs</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>g</t>
+    </rPh>
+    <rPh sb="77" eb="82">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>サクj</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>伊賀将之</t>
+    <rPh sb="0" eb="4">
+      <t>イガマサユキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iga@sample.co.jp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>igasample.co.jp</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -4604,7 +4609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -4979,6 +4984,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5312,7 +5337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5498,6 +5523,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -6030,7 +6073,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6285,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Y42" sqref="Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6314,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I1" s="47"/>
     </row>
@@ -6440,7 +6483,7 @@
         <v>61</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>211</v>
@@ -6455,7 +6498,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
@@ -6704,7 +6747,7 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="L15" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>26</v>
@@ -7540,7 +7583,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="L33" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>26</v>
@@ -7640,7 +7683,7 @@
         <v>48</v>
       </c>
       <c r="M36" s="55" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N36" s="55"/>
       <c r="O36" s="55"/>
@@ -7666,19 +7709,19 @@
       <c r="L37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="56"/>
+      <c r="M37" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="64"/>
     </row>
     <row r="38" spans="1:23" ht="20" customHeight="1">
       <c r="A38" s="25"/>
@@ -7760,7 +7803,7 @@
         <v>51</v>
       </c>
       <c r="M40" s="55" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N40" s="55"/>
       <c r="O40" s="55"/>
@@ -7786,19 +7829,19 @@
       <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="56"/>
+      <c r="M41" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="67"/>
     </row>
     <row r="42" spans="1:23" ht="20" customHeight="1">
       <c r="A42" s="25"/>
@@ -7865,7 +7908,7 @@
         <v>226</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>227</v>
@@ -7929,7 +7972,7 @@
         <v>182</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -8396,7 +8439,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="L61" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>27</v>
@@ -8513,7 +8556,7 @@
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
       <c r="L64" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>26</v>
@@ -8582,7 +8625,7 @@
       <c r="H67" s="36"/>
       <c r="I67" s="36"/>
       <c r="L67" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M67" s="40">
         <v>0</v>
@@ -8631,7 +8674,7 @@
         <v>237</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F69" s="29" t="s">
         <v>63</v>
@@ -8758,10 +8801,10 @@
         <v>237</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
@@ -8825,7 +8868,7 @@
         <v>237</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>238</v>
@@ -8959,7 +9002,7 @@
         <v>237</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F89" s="29" t="s">
         <v>240</v>
@@ -9026,7 +9069,7 @@
         <v>237</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F94" s="29" t="s">
         <v>241</v>
@@ -9227,7 +9270,7 @@
         <v>237</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>246</v>
@@ -9294,7 +9337,7 @@
         <v>237</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>247</v>
@@ -9559,13 +9602,13 @@
         <v>169</v>
       </c>
       <c r="D134" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F134" s="29" t="s">
         <v>250</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>251</v>
       </c>
       <c r="G134" s="36"/>
       <c r="H134" s="36"/>
@@ -9626,13 +9669,13 @@
         <v>177</v>
       </c>
       <c r="D139" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="F139" s="29" t="s">
         <v>253</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>254</v>
       </c>
       <c r="G139" s="36"/>
       <c r="H139" s="36"/>
@@ -9693,13 +9736,13 @@
         <v>173</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E144" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" s="29" t="s">
         <v>255</v>
-      </c>
-      <c r="F144" s="29" t="s">
-        <v>256</v>
       </c>
       <c r="G144" s="36"/>
       <c r="H144" s="36"/>
@@ -9771,13 +9814,13 @@
         <v>173</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E150" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F150" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="F150" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="G150" s="36"/>
       <c r="H150" s="36"/>
@@ -9852,10 +9895,10 @@
         <v>209</v>
       </c>
       <c r="E156" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F156" s="29" t="s">
         <v>259</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>260</v>
       </c>
       <c r="G156" s="36"/>
       <c r="H156" s="36"/>
@@ -9930,10 +9973,10 @@
         <v>209</v>
       </c>
       <c r="E162" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F162" s="29" t="s">
         <v>261</v>
-      </c>
-      <c r="F162" s="29" t="s">
-        <v>262</v>
       </c>
       <c r="G162" s="36"/>
       <c r="H162" s="36"/>
@@ -10002,16 +10045,16 @@
         <v>208</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D168" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E168" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F168" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="F168" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G168" s="36"/>
       <c r="H168" s="36"/>
@@ -10080,16 +10123,16 @@
         <v>208</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D174" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E174" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F174" s="29" t="s">
         <v>270</v>
-      </c>
-      <c r="F174" s="29" t="s">
-        <v>271</v>
       </c>
       <c r="G174" s="36"/>
       <c r="H174" s="36"/>
@@ -10158,16 +10201,16 @@
         <v>208</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D180" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E180" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F180" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>273</v>
       </c>
       <c r="G180" s="36"/>
       <c r="H180" s="36"/>
@@ -10236,16 +10279,16 @@
         <v>208</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D186" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E186" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F186" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="F186" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="G186" s="36"/>
       <c r="H186" s="36"/>
@@ -10314,16 +10357,16 @@
         <v>208</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D192" s="30" t="s">
         <v>209</v>
       </c>
       <c r="E192" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F192" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="F192" s="29" t="s">
-        <v>277</v>
       </c>
       <c r="G192" s="36"/>
       <c r="H192" s="36"/>
@@ -10389,19 +10432,19 @@
         <v>207</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C198" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D198" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="E198" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F198" s="29" t="s">
         <v>282</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="F198" s="29" t="s">
-        <v>283</v>
       </c>
       <c r="G198" s="36"/>
       <c r="H198" s="36"/>
@@ -10470,7 +10513,7 @@
         <v>64</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>242</v>
@@ -10537,7 +10580,7 @@
         <v>64</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D209" s="30" t="s">
         <v>242</v>

--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB771624-B59C-7740-9EA4-A402C1F7EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2480C4F-988C-F24A-8AF5-872DFDD4F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -4390,9 +4390,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>insert into administrators(name,mail_address,password) values('山田太郎','yamada@sample.com','testtest');</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">・ログイン画面が表示されていること
 </t>
@@ -4447,6 +4444,13 @@
   </si>
   <si>
     <t>igasample.co.jp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>insert into administrators(name,mail_address,password) values('伊賀将之','iga@sample.com','igaigaiga');</t>
+    <rPh sb="63" eb="67">
+      <t>イガマサユキ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5401,6 +5405,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5412,135 +5545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -5955,8 +5959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="242" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14"/>
@@ -6073,7 +6077,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6328,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="Y42" sqref="Y42"/>
+    <sheetView topLeftCell="F31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6345,36 +6349,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="I1" s="47"/>
+      <c r="H1" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:23" ht="20">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="40">
         <v>43869</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="17">
       <c r="A3" s="19" t="s">
@@ -6406,121 +6410,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:23" ht="20" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:23" ht="20" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:23" ht="20" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:23" ht="20" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="L9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" ht="20" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>190</v>
       </c>
@@ -6559,15 +6563,15 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6584,15 +6588,15 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="20" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="L12" s="2" t="s">
         <v>48</v>
       </c>
@@ -6631,15 +6635,15 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
@@ -6678,27 +6682,27 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
       <c r="L14" s="2" t="s">
         <v>56</v>
       </c>
@@ -6737,15 +6741,15 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
       <c r="L15" s="2" t="s">
         <v>287</v>
       </c>
@@ -6784,15 +6788,15 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
       <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
@@ -6831,15 +6835,15 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="20" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
       <c r="L17" s="2" t="s">
         <v>52</v>
       </c>
@@ -6878,15 +6882,15 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="20" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
       <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6925,27 +6929,27 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="20" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
       <c r="L19" s="2" t="s">
         <v>54</v>
       </c>
@@ -6984,15 +6988,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="20" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="L20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7031,15 +7035,15 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
@@ -7054,15 +7058,15 @@
       <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:23" ht="20" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
       <c r="L22" s="4" t="s">
         <v>12</v>
       </c>
@@ -7079,15 +7083,15 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" ht="20" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
       <c r="L23" s="2" t="s">
         <v>36</v>
       </c>
@@ -7126,27 +7130,27 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="20" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="L24" s="2" t="s">
         <v>37</v>
       </c>
@@ -7185,15 +7189,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="L25" s="2" t="s">
         <v>38</v>
       </c>
@@ -7232,15 +7236,15 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="20" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
       <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
@@ -7279,15 +7283,15 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="20" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="L27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7326,15 +7330,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="20" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
       <c r="L28" s="2" t="s">
         <v>43</v>
       </c>
@@ -7373,27 +7377,27 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
       <c r="L29" s="2" t="s">
         <v>14</v>
       </c>
@@ -7432,15 +7436,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
       <c r="L30" s="2" t="s">
         <v>39</v>
       </c>
@@ -7479,15 +7483,15 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="20" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="L31" s="4" t="s">
         <v>41</v>
       </c>
@@ -7526,15 +7530,15 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="20" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="L32" s="4" t="s">
         <v>42</v>
       </c>
@@ -7573,15 +7577,15 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="L33" s="9" t="s">
         <v>286</v>
       </c>
@@ -7620,377 +7624,377 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
       <c r="L35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="59" t="s">
+      <c r="M35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="60"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="34"/>
     </row>
     <row r="36" spans="1:23" ht="20" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="L36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="56"/>
+      <c r="M36" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="30"/>
     </row>
     <row r="37" spans="1:23" ht="20" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="L37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="64"/>
+      <c r="M37" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="28"/>
     </row>
     <row r="38" spans="1:23" ht="20" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
       <c r="L38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="55" t="s">
+      <c r="M38" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="56"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
     </row>
     <row r="39" spans="1:23" ht="20" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
       <c r="L39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="56"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="30"/>
     </row>
     <row r="40" spans="1:23" ht="20" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="L40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="56"/>
+      <c r="M40" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="30"/>
     </row>
     <row r="41" spans="1:23" ht="20" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="67"/>
+      <c r="M41" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="37"/>
     </row>
     <row r="42" spans="1:23" ht="20" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
       <c r="L42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="29">
         <v>1234567</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="55"/>
-      <c r="W42" s="56"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="30"/>
     </row>
     <row r="43" spans="1:23" ht="20" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
       <c r="L43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="55" t="s">
+      <c r="M43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="55"/>
-      <c r="W43" s="56"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="30"/>
     </row>
     <row r="44" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
       <c r="L44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="57">
+      <c r="M44" s="31">
         <v>87654321</v>
       </c>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="58"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="32"/>
     </row>
     <row r="45" spans="1:23" ht="20" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:23" ht="20" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
       <c r="L47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="24" t="s">
+      <c r="M47" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="23"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="66"/>
     </row>
     <row r="48" spans="1:23" ht="20" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="L48" s="2" t="s">
         <v>190</v>
       </c>
@@ -8017,27 +8021,27 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
       <c r="L49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8050,15 +8054,15 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
       <c r="L50" s="2" t="s">
         <v>191</v>
       </c>
@@ -8085,15 +8089,15 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
       <c r="L51" s="2" t="s">
         <v>192</v>
       </c>
@@ -8120,15 +8124,15 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="L52" s="2" t="s">
         <v>193</v>
       </c>
@@ -8155,15 +8159,15 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
       <c r="L53" s="2" t="s">
         <v>194</v>
       </c>
@@ -8190,27 +8194,27 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="20" customHeight="1">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
       <c r="L54" s="2" t="s">
         <v>195</v>
       </c>
@@ -8237,15 +8241,15 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
       <c r="L55" s="2" t="s">
         <v>200</v>
       </c>
@@ -8272,15 +8276,15 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
       <c r="L56" s="2" t="s">
         <v>201</v>
       </c>
@@ -8307,15 +8311,15 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="20" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -8326,15 +8330,15 @@
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
       <c r="L58" s="4" t="s">
         <v>12</v>
       </c>
@@ -8347,27 +8351,27 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19" ht="20" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
       <c r="L59" s="2" t="s">
         <v>204</v>
       </c>
@@ -8394,15 +8398,15 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
       <c r="L60" s="2" t="s">
         <v>205</v>
       </c>
@@ -8429,15 +8433,15 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
       <c r="L61" s="20" t="s">
         <v>284</v>
       </c>
@@ -8464,15 +8468,15 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="L62" s="4" t="s">
         <v>202</v>
       </c>
@@ -8499,15 +8503,15 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
       <c r="L63" s="4" t="s">
         <v>203</v>
       </c>
@@ -8534,27 +8538,27 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
       <c r="L64" s="9" t="s">
         <v>288</v>
       </c>
@@ -8581,2085 +8585,2406 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
     </row>
     <row r="66" spans="1:19" ht="20" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="L66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="37" t="s">
+      <c r="M66" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="39"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="57"/>
     </row>
     <row r="67" spans="1:19" ht="20" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
       <c r="L67" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="58">
         <v>0</v>
       </c>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="42"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="60"/>
     </row>
     <row r="68" spans="1:19" ht="20" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
       <c r="L68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="58">
         <v>10</v>
       </c>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="42"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="60"/>
     </row>
     <row r="69" spans="1:19" ht="20" customHeight="1">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
       <c r="L69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M69" s="40">
+      <c r="M69" s="58">
         <v>-1</v>
       </c>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="42"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="60"/>
     </row>
     <row r="70" spans="1:19" ht="20" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="58">
         <v>11</v>
       </c>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="42"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="60"/>
     </row>
     <row r="71" spans="1:19" ht="20" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="A71" s="47"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
       <c r="L71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M71" s="40" t="s">
+      <c r="M71" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="42"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="60"/>
     </row>
     <row r="72" spans="1:19" ht="20" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="A72" s="47"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
       <c r="L72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="42"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="60"/>
     </row>
     <row r="73" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
       <c r="L73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="61">
         <v>1</v>
       </c>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="45"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="63"/>
     </row>
     <row r="74" spans="1:19" ht="20" customHeight="1">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
     </row>
     <row r="75" spans="1:19" ht="20" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
     </row>
     <row r="76" spans="1:19" ht="20" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="A76" s="47"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
     </row>
     <row r="77" spans="1:19" ht="20" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
     </row>
     <row r="78" spans="1:19" ht="20" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="A78" s="47"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
     </row>
     <row r="79" spans="1:19" ht="20" customHeight="1">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
     </row>
     <row r="80" spans="1:19" ht="20" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
     </row>
     <row r="81" spans="1:9" ht="20" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="1:9" ht="20" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="A82" s="47"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
     </row>
     <row r="83" spans="1:9" ht="20" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
     </row>
     <row r="84" spans="1:9" ht="20" customHeight="1">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
     </row>
     <row r="85" spans="1:9" ht="20" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
     </row>
     <row r="86" spans="1:9" ht="20" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
     </row>
     <row r="87" spans="1:9" ht="20" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="A87" s="47"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
     </row>
     <row r="88" spans="1:9" ht="20" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="1:9" ht="20" customHeight="1">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E89" s="26" t="s">
+      <c r="E89" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F89" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
     </row>
     <row r="90" spans="1:9" ht="20" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
     </row>
     <row r="91" spans="1:9" ht="20" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
     </row>
     <row r="92" spans="1:9" ht="20" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
     </row>
     <row r="93" spans="1:9" ht="20" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
     </row>
     <row r="94" spans="1:9" ht="20" customHeight="1">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F94" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
     </row>
     <row r="95" spans="1:9" ht="20" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
     </row>
     <row r="96" spans="1:9" ht="20" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="1:9" ht="20" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
     </row>
     <row r="98" spans="1:9" ht="20" customHeight="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="A98" s="47"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
     </row>
     <row r="99" spans="1:9" ht="20" customHeight="1">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
     </row>
     <row r="100" spans="1:9" ht="20" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="A100" s="47"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
     </row>
     <row r="101" spans="1:9" ht="20" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="A101" s="47"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
     </row>
     <row r="102" spans="1:9" ht="20" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="A102" s="47"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
     </row>
     <row r="103" spans="1:9" ht="20" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="A103" s="47"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
     </row>
     <row r="104" spans="1:9" ht="20" customHeight="1">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="F104" s="29" t="s">
+      <c r="F104" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
     </row>
     <row r="105" spans="1:9" ht="20" customHeight="1">
-      <c r="A105" s="25"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
     </row>
     <row r="106" spans="1:9" ht="20" customHeight="1">
-      <c r="A106" s="25"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
+      <c r="A106" s="47"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
     </row>
     <row r="107" spans="1:9" ht="20" customHeight="1">
-      <c r="A107" s="25"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
+      <c r="A107" s="47"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
     </row>
     <row r="108" spans="1:9" ht="20" customHeight="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
+      <c r="A108" s="47"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
     </row>
     <row r="109" spans="1:9" ht="20" customHeight="1">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E109" s="26" t="s">
+      <c r="E109" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
     </row>
     <row r="110" spans="1:9" ht="20" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
+      <c r="A110" s="47"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
     </row>
     <row r="111" spans="1:9" ht="20" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
+      <c r="A111" s="47"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
     </row>
     <row r="112" spans="1:9" ht="20" customHeight="1">
-      <c r="A112" s="25"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
+      <c r="A112" s="47"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
     </row>
     <row r="113" spans="1:9" ht="20" customHeight="1">
-      <c r="A113" s="25"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="1:9" ht="20" customHeight="1">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E114" s="26" t="s">
+      <c r="E114" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
     </row>
     <row r="115" spans="1:9" ht="20" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
     </row>
     <row r="116" spans="1:9" ht="20" customHeight="1">
-      <c r="A116" s="25"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
     </row>
     <row r="117" spans="1:9" ht="20" customHeight="1">
-      <c r="A117" s="25"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
     </row>
     <row r="118" spans="1:9" ht="20" customHeight="1">
-      <c r="A118" s="25"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D119" s="30" t="s">
+      <c r="D119" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E119" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
     </row>
     <row r="120" spans="1:9" ht="20" customHeight="1">
-      <c r="A120" s="25"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
     </row>
     <row r="121" spans="1:9" ht="20" customHeight="1">
-      <c r="A121" s="25"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
     </row>
     <row r="122" spans="1:9" ht="20" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
+      <c r="A122" s="47"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
     </row>
     <row r="123" spans="1:9" ht="20" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
+      <c r="A123" s="47"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="E124" s="26" t="s">
+      <c r="E124" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
     </row>
     <row r="125" spans="1:9" ht="20" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
+      <c r="A125" s="47"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
     </row>
     <row r="126" spans="1:9" ht="20" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
+      <c r="A126" s="47"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
     </row>
     <row r="127" spans="1:9" ht="20" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
+      <c r="A127" s="47"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
     </row>
     <row r="128" spans="1:9" ht="20" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="A128" s="47"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="30" t="s">
+      <c r="D129" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
     </row>
     <row r="130" spans="1:9" ht="20" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
+      <c r="A130" s="47"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
     </row>
     <row r="131" spans="1:9" ht="20" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
+      <c r="A131" s="47"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
     </row>
     <row r="132" spans="1:9" ht="20" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
+      <c r="A132" s="47"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="1:9" ht="20" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
+      <c r="A133" s="47"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D134" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E134" s="26" t="s">
+      <c r="D134" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
     </row>
     <row r="135" spans="1:9" ht="20" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
+      <c r="A135" s="47"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
     </row>
     <row r="136" spans="1:9" ht="20" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
+      <c r="A136" s="47"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
     </row>
     <row r="137" spans="1:9" ht="20" customHeight="1">
-      <c r="A137" s="25"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
     </row>
     <row r="138" spans="1:9" ht="20" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
+      <c r="A138" s="47"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
     </row>
     <row r="139" spans="1:9" ht="20" customHeight="1">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="C139" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D139" s="30" t="s">
+      <c r="D139" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
     </row>
     <row r="140" spans="1:9" ht="20" customHeight="1">
-      <c r="A140" s="25"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
+      <c r="A140" s="47"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
     </row>
     <row r="141" spans="1:9" ht="20" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
+      <c r="A141" s="47"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
     </row>
     <row r="142" spans="1:9" ht="20" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
+      <c r="A142" s="47"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
     </row>
     <row r="143" spans="1:9" ht="20" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E144" s="26" t="s">
+      <c r="E144" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F144" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
     </row>
     <row r="145" spans="1:9" ht="20" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
+      <c r="I145" s="21"/>
     </row>
     <row r="146" spans="1:9" ht="20" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
+      <c r="A146" s="47"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
     </row>
     <row r="147" spans="1:9" ht="20" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
+      <c r="A147" s="47"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
     </row>
     <row r="148" spans="1:9" ht="20" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
     </row>
     <row r="149" spans="1:9" ht="20" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
+      <c r="A149" s="47"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
     </row>
     <row r="150" spans="1:9" ht="20" customHeight="1">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="F150" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
     </row>
     <row r="151" spans="1:9" ht="20" customHeight="1">
-      <c r="A151" s="25"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
+      <c r="A151" s="47"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="21"/>
     </row>
     <row r="152" spans="1:9" ht="20" customHeight="1">
-      <c r="A152" s="25"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="21"/>
     </row>
     <row r="153" spans="1:9" ht="20" customHeight="1">
-      <c r="A153" s="25"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="1:9" ht="20" customHeight="1">
-      <c r="A154" s="25"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
+      <c r="I154" s="21"/>
     </row>
     <row r="155" spans="1:9" ht="20" customHeight="1">
-      <c r="A155" s="25"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
+      <c r="A155" s="47"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
     </row>
     <row r="156" spans="1:9" ht="20" customHeight="1">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E156" s="26" t="s">
+      <c r="E156" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F156" s="29" t="s">
+      <c r="F156" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+      <c r="I156" s="21"/>
     </row>
     <row r="157" spans="1:9" ht="20" customHeight="1">
-      <c r="A157" s="25"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
+      <c r="A157" s="47"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+      <c r="I157" s="21"/>
     </row>
     <row r="158" spans="1:9" ht="20" customHeight="1">
-      <c r="A158" s="25"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
+      <c r="A158" s="47"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="49"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
+      <c r="I158" s="21"/>
     </row>
     <row r="159" spans="1:9" ht="20" customHeight="1">
-      <c r="A159" s="25"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
+      <c r="A159" s="47"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
+      <c r="I159" s="21"/>
     </row>
     <row r="160" spans="1:9" ht="20" customHeight="1">
-      <c r="A160" s="25"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
+      <c r="A160" s="47"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
     </row>
     <row r="161" spans="1:9" ht="20" customHeight="1">
-      <c r="A161" s="25"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
     </row>
     <row r="162" spans="1:9" ht="20" customHeight="1">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="D162" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="F162" s="29" t="s">
+      <c r="F162" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
     </row>
     <row r="163" spans="1:9" ht="20" customHeight="1">
-      <c r="A163" s="25"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
+      <c r="A163" s="47"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="1:9" ht="20" customHeight="1">
-      <c r="A164" s="25"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
+      <c r="A164" s="47"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
     </row>
     <row r="165" spans="1:9" ht="20" customHeight="1">
-      <c r="A165" s="25"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
     </row>
     <row r="166" spans="1:9" ht="20" customHeight="1">
-      <c r="A166" s="25"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
     </row>
     <row r="167" spans="1:9" ht="20" customHeight="1">
-      <c r="A167" s="25"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
     </row>
     <row r="168" spans="1:9" ht="20" customHeight="1">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D168" s="30" t="s">
+      <c r="D168" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F168" s="29" t="s">
+      <c r="F168" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
     </row>
     <row r="169" spans="1:9" ht="20" customHeight="1">
-      <c r="A169" s="25"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
     </row>
     <row r="170" spans="1:9" ht="20" customHeight="1">
-      <c r="A170" s="25"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
+      <c r="A170" s="47"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
     </row>
     <row r="171" spans="1:9" ht="20" customHeight="1">
-      <c r="A171" s="25"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
+      <c r="A171" s="47"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
     </row>
     <row r="172" spans="1:9" ht="20" customHeight="1">
-      <c r="A172" s="25"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
+      <c r="A172" s="47"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
     </row>
     <row r="173" spans="1:9" ht="20" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
+      <c r="A173" s="47"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
     </row>
     <row r="174" spans="1:9" ht="20" customHeight="1">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E174" s="26" t="s">
+      <c r="E174" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="F174" s="29" t="s">
+      <c r="F174" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
     </row>
     <row r="175" spans="1:9" ht="20" customHeight="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
+      <c r="A175" s="47"/>
+      <c r="B175" s="24"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
     </row>
     <row r="176" spans="1:9" ht="20" customHeight="1">
-      <c r="A176" s="25"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
+      <c r="A176" s="47"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
     </row>
     <row r="177" spans="1:9" ht="20" customHeight="1">
-      <c r="A177" s="25"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
+      <c r="A177" s="47"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
     </row>
     <row r="178" spans="1:9" ht="20" customHeight="1">
-      <c r="A178" s="25"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
+      <c r="A178" s="47"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
     </row>
     <row r="179" spans="1:9" ht="20" customHeight="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
+      <c r="A179" s="47"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
     </row>
     <row r="180" spans="1:9" ht="20" customHeight="1">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="26" t="s">
+      <c r="B180" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F180" s="29" t="s">
+      <c r="F180" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="1:9" ht="20" customHeight="1">
-      <c r="A181" s="25"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
+      <c r="A181" s="47"/>
+      <c r="B181" s="24"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
     </row>
     <row r="182" spans="1:9" ht="20" customHeight="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
+      <c r="A182" s="47"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
     </row>
     <row r="183" spans="1:9" ht="20" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="31"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
+      <c r="A183" s="47"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
     </row>
     <row r="184" spans="1:9" ht="20" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
+      <c r="A184" s="47"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
     </row>
     <row r="185" spans="1:9" ht="20" customHeight="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
+      <c r="A185" s="47"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
     </row>
     <row r="186" spans="1:9" ht="20" customHeight="1">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D186" s="30" t="s">
+      <c r="D186" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="F186" s="29" t="s">
+      <c r="F186" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
     </row>
     <row r="187" spans="1:9" ht="20" customHeight="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="31"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
+      <c r="A187" s="47"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
     </row>
     <row r="188" spans="1:9" ht="20" customHeight="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
+      <c r="A188" s="47"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
     </row>
     <row r="189" spans="1:9" ht="20" customHeight="1">
-      <c r="A189" s="25"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
+      <c r="A189" s="47"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
     </row>
     <row r="190" spans="1:9" ht="20" customHeight="1">
-      <c r="A190" s="25"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
+      <c r="A190" s="47"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
     </row>
     <row r="191" spans="1:9" ht="20" customHeight="1">
-      <c r="A191" s="25"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
+      <c r="A191" s="47"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="25"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
     </row>
     <row r="192" spans="1:9" ht="20" customHeight="1">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="29" t="s">
+      <c r="C192" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E192" s="26" t="s">
+      <c r="E192" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="F192" s="29" t="s">
+      <c r="F192" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
     </row>
     <row r="193" spans="1:9" ht="20" customHeight="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
+      <c r="A193" s="47"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
     </row>
     <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
+      <c r="A194" s="47"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="49"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
     </row>
     <row r="195" spans="1:9" ht="20" customHeight="1">
-      <c r="A195" s="25"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="31"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
+      <c r="A195" s="47"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="49"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
     </row>
     <row r="196" spans="1:9" ht="20" customHeight="1">
-      <c r="A196" s="25"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="31"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="36"/>
-      <c r="H196" s="36"/>
-      <c r="I196" s="36"/>
+      <c r="A196" s="47"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
     </row>
     <row r="197" spans="1:9" ht="20" customHeight="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="36"/>
+      <c r="A197" s="47"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
     </row>
     <row r="198" spans="1:9" ht="20" customHeight="1">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="C198" s="29" t="s">
+      <c r="C198" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="D198" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="E198" s="26" t="s">
+      <c r="E198" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="F198" s="29" t="s">
+      <c r="F198" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
     </row>
     <row r="199" spans="1:9" ht="20" customHeight="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="36"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="36"/>
+      <c r="A199" s="47"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
     </row>
     <row r="200" spans="1:9" ht="20" customHeight="1">
-      <c r="A200" s="25"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="36"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="36"/>
+      <c r="A200" s="47"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
     </row>
     <row r="201" spans="1:9" ht="20" customHeight="1">
-      <c r="A201" s="25"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
+      <c r="A201" s="47"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
     </row>
     <row r="202" spans="1:9" ht="20" customHeight="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="36"/>
-      <c r="H202" s="36"/>
-      <c r="I202" s="36"/>
+      <c r="A202" s="47"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
     </row>
     <row r="203" spans="1:9" ht="20" customHeight="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="36"/>
-      <c r="H203" s="36"/>
-      <c r="I203" s="36"/>
+      <c r="A203" s="47"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="1:9" ht="20" customHeight="1">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C204" s="29" t="s">
+      <c r="C204" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D204" s="30" t="s">
+      <c r="D204" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E204" s="33" t="s">
+      <c r="E204" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="F204" s="29" t="s">
+      <c r="F204" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G204" s="36"/>
-      <c r="H204" s="36"/>
-      <c r="I204" s="36"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
     </row>
     <row r="205" spans="1:9" ht="20" customHeight="1">
-      <c r="A205" s="25"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="36"/>
+      <c r="A205" s="47"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="52"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
     </row>
     <row r="206" spans="1:9" ht="20" customHeight="1">
-      <c r="A206" s="25"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="36"/>
-      <c r="H206" s="36"/>
-      <c r="I206" s="36"/>
+      <c r="A206" s="47"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="52"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
     </row>
     <row r="207" spans="1:9" ht="20" customHeight="1">
-      <c r="A207" s="25"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
+      <c r="A207" s="47"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="49"/>
+      <c r="E207" s="52"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
     </row>
     <row r="208" spans="1:9" ht="20" customHeight="1">
-      <c r="A208" s="25"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="36"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
+      <c r="A208" s="47"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
     </row>
     <row r="209" spans="1:9" ht="20" customHeight="1">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C209" s="29" t="s">
+      <c r="C209" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D209" s="30" t="s">
+      <c r="D209" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E209" s="33" t="s">
+      <c r="E209" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="F209" s="29" t="s">
+      <c r="F209" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="G209" s="36"/>
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
     </row>
     <row r="210" spans="1:9" ht="20" customHeight="1">
-      <c r="A210" s="25"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="36"/>
-      <c r="H210" s="36"/>
-      <c r="I210" s="36"/>
+      <c r="A210" s="47"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="52"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
     </row>
     <row r="211" spans="1:9" ht="20" customHeight="1">
-      <c r="A211" s="25"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="36"/>
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
+      <c r="A211" s="47"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
     </row>
     <row r="212" spans="1:9" ht="20" customHeight="1">
-      <c r="A212" s="25"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="31"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="36"/>
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
+      <c r="A212" s="47"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
     </row>
     <row r="213" spans="1:9" ht="20" customHeight="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="35"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
-      <c r="I213" s="36"/>
+      <c r="A213" s="47"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="383">
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="M9:W9"/>
+    <mergeCell ref="M47:S47"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="E209:E213"/>
+    <mergeCell ref="F209:F213"/>
+    <mergeCell ref="G209:G213"/>
+    <mergeCell ref="H209:H213"/>
+    <mergeCell ref="I209:I213"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C204:C208"/>
+    <mergeCell ref="D204:D208"/>
+    <mergeCell ref="E204:E208"/>
+    <mergeCell ref="F204:F208"/>
+    <mergeCell ref="G204:G208"/>
+    <mergeCell ref="H204:H208"/>
+    <mergeCell ref="I204:I208"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="C198:C203"/>
+    <mergeCell ref="D198:D203"/>
+    <mergeCell ref="E198:E203"/>
+    <mergeCell ref="F198:F203"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="I198:I203"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:D197"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="F192:F197"/>
+    <mergeCell ref="G192:G197"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I192:I197"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="E186:E191"/>
+    <mergeCell ref="F186:F191"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="M66:S66"/>
+    <mergeCell ref="M67:S67"/>
+    <mergeCell ref="M68:S68"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="M70:S70"/>
+    <mergeCell ref="M71:S71"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="M73:S73"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="E180:E185"/>
+    <mergeCell ref="F180:F185"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="I180:I185"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="I174:I179"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="E162:E167"/>
+    <mergeCell ref="F162:F167"/>
+    <mergeCell ref="G162:G167"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="I162:I167"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:D161"/>
+    <mergeCell ref="E156:E161"/>
+    <mergeCell ref="F156:F161"/>
+    <mergeCell ref="G156:G161"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="I156:I161"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
     <mergeCell ref="D59:D63"/>
     <mergeCell ref="M37:W37"/>
     <mergeCell ref="M38:W38"/>
@@ -10684,346 +11009,25 @@
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G34:G38"/>
     <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="E144:E149"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="G144:G149"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="I144:I149"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="G150:G155"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:D161"/>
-    <mergeCell ref="E156:E161"/>
-    <mergeCell ref="F156:F161"/>
-    <mergeCell ref="G156:G161"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="I156:I161"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="E162:E167"/>
-    <mergeCell ref="F162:F167"/>
-    <mergeCell ref="G162:G167"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="I162:I167"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="I174:I179"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="M66:S66"/>
-    <mergeCell ref="M67:S67"/>
-    <mergeCell ref="M68:S68"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="M70:S70"/>
-    <mergeCell ref="M71:S71"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="M73:S73"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="E180:E185"/>
-    <mergeCell ref="F180:F185"/>
-    <mergeCell ref="G180:G185"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="I180:I185"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="E186:E191"/>
-    <mergeCell ref="F186:F191"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="E198:E203"/>
-    <mergeCell ref="F198:F203"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="I198:I203"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="E192:E197"/>
-    <mergeCell ref="F192:F197"/>
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="M9:W9"/>
-    <mergeCell ref="M47:S47"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="C209:C213"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="E209:E213"/>
-    <mergeCell ref="F209:F213"/>
-    <mergeCell ref="G209:G213"/>
-    <mergeCell ref="H209:H213"/>
-    <mergeCell ref="I209:I213"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C204:C208"/>
-    <mergeCell ref="D204:D208"/>
-    <mergeCell ref="E204:E208"/>
-    <mergeCell ref="F204:F208"/>
-    <mergeCell ref="G204:G208"/>
-    <mergeCell ref="H204:H208"/>
-    <mergeCell ref="I204:I208"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="C198:C203"/>
-    <mergeCell ref="D198:D203"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2480C4F-988C-F24A-8AF5-872DFDD4F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB39A97-F661-9B42-A9D2-162074B76141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -2703,65 +2703,6 @@
   </si>
   <si>
     <r>
-      <t>・メールアドレス欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「test@sample.co.jp」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、パスワード欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「testtest」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と入力する
-・ログインボタンを押下する</t>
-    </r>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="62" eb="66">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t>・ログイン画面に戻ること
 ・</t>
     </r>
@@ -4288,91 +4229,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・従業員一覧画面に遷移すること
-・ヘッダに「山田太郎さんこんにちは」と表示されていること</t>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="35" eb="44">
-      <t>ヒョウj</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・管理者登録画面が表示されていること
-・DBのメールアドレスに'yamada@sample.co.jp"が登録されていないこと</t>
-    <rPh sb="1" eb="4">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・管理者メニュー画面が表示されていること。
-・DBのメールアドレスに'yamada@sample.co.jp'が、登録されていること</t>
-    <rPh sb="1" eb="4">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・メールアドレス欄に「yamada@sample.co.jp」、パスワード欄に「testtest」と入力する
-・ログインボタンを押下する</t>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="64" eb="68">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・メールアドレス欄に「yamada@sample.co.jp」、パスワード欄に「yamadayamada」と入力する
-・ログインボタンを押下する</t>
-    <rPh sb="8" eb="9">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="54" eb="58">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="68" eb="72">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・メールアドレス欄に「test@sample.co.jp」、パスワード欄に「yamadayamada」と入力する
 ・ログインボタンを押下する</t>
     <rPh sb="8" eb="9">
@@ -4450,6 +4306,111 @@
     <t>insert into administrators(name,mail_address,password) values('伊賀将之','iga@sample.com','igaigaiga');</t>
     <rPh sb="63" eb="67">
       <t>イガマサユキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・管理者登録画面が表示されていること
+・DBのメールアドレスに'iga@sample.co.jp"が登録されていないこと</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・管理者メニュー画面が表示されていること。
+・DBのメールアドレスに'iga@sample.co.jp'が、登録されていること</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・メールアドレス欄に「iga@sample.co.jp」、パスワード欄に「igaigaiga」と入力する
+・ログインボタンを押下する</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・従業員一覧画面に遷移すること
+・ヘッダに「伊賀将之さんこんにちは」と表示されていること</t>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>イガマサユキ</t>
+    </rPh>
+    <rPh sb="35" eb="44">
+      <t>ヒョウj</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・メールアドレス欄に「iga@sample.co.jp」、パスワード欄に「yamadayamada」と入力する
+・ログインボタンを押下する</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・メールアドレス欄に「test@sample.co.jp」、パスワード欄に「igaigaiga」と入力する
+・ログインボタンを押下する</t>
+    <rPh sb="8" eb="9">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>オウk</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5405,20 +5366,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5458,93 +5506,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -5959,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14"/>
@@ -6077,7 +6038,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6332,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6349,36 +6310,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" s="39"/>
+      <c r="H1" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="20">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="48">
         <v>43869</v>
       </c>
-      <c r="I2" s="40"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:23" ht="17">
       <c r="A3" s="19" t="s">
@@ -6410,121 +6371,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:23" ht="20" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:23" ht="20" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:23" ht="20" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="20" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="L9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
+      <c r="M9" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:23" ht="20" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
       <c r="L10" s="2" t="s">
         <v>190</v>
       </c>
@@ -6563,15 +6524,15 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6588,15 +6549,15 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="20" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="L12" s="2" t="s">
         <v>48</v>
       </c>
@@ -6635,15 +6596,15 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
@@ -6682,27 +6643,27 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="L14" s="2" t="s">
         <v>56</v>
       </c>
@@ -6741,17 +6702,17 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="L15" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>26</v>
@@ -6788,15 +6749,15 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
       <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
@@ -6835,15 +6796,15 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="20" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="L17" s="2" t="s">
         <v>52</v>
       </c>
@@ -6882,15 +6843,15 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="20" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
       <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6929,27 +6890,27 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="20" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
       <c r="L19" s="2" t="s">
         <v>54</v>
       </c>
@@ -6988,15 +6949,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="20" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
       <c r="L20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7035,15 +6996,15 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
@@ -7058,15 +7019,15 @@
       <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:23" ht="20" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
       <c r="L22" s="4" t="s">
         <v>12</v>
       </c>
@@ -7083,15 +7044,15 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" ht="20" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
       <c r="L23" s="2" t="s">
         <v>36</v>
       </c>
@@ -7130,27 +7091,27 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="20" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="L24" s="2" t="s">
         <v>37</v>
       </c>
@@ -7189,15 +7150,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="L25" s="2" t="s">
         <v>38</v>
       </c>
@@ -7236,15 +7197,15 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="20" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
       <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
@@ -7283,15 +7244,15 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="20" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
       <c r="L27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7330,15 +7291,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="20" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="L28" s="2" t="s">
         <v>43</v>
       </c>
@@ -7377,27 +7338,27 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
       <c r="L29" s="2" t="s">
         <v>14</v>
       </c>
@@ -7436,15 +7397,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
       <c r="L30" s="2" t="s">
         <v>39</v>
       </c>
@@ -7483,15 +7444,15 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="20" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
       <c r="L31" s="4" t="s">
         <v>41</v>
       </c>
@@ -7530,15 +7491,15 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="20" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
       <c r="L32" s="4" t="s">
         <v>42</v>
       </c>
@@ -7577,17 +7538,17 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="L33" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>26</v>
@@ -7624,377 +7585,377 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
       <c r="L35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="34"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="63"/>
     </row>
     <row r="36" spans="1:23" ht="20" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="L36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="30"/>
+      <c r="M36" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="59"/>
     </row>
     <row r="37" spans="1:23" ht="20" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="L37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="28"/>
+      <c r="M37" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="57"/>
     </row>
     <row r="38" spans="1:23" ht="20" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
       <c r="L38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="30"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="59"/>
     </row>
     <row r="39" spans="1:23" ht="20" customHeight="1">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
       <c r="L39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="30"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="59"/>
     </row>
     <row r="40" spans="1:23" ht="20" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="L40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="30"/>
+      <c r="M40" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="59"/>
     </row>
     <row r="41" spans="1:23" ht="20" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="37"/>
+      <c r="M41" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="66"/>
     </row>
     <row r="42" spans="1:23" ht="20" customHeight="1">
-      <c r="A42" s="47"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="L42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="58">
         <v>1234567</v>
       </c>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="30"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="59"/>
     </row>
     <row r="43" spans="1:23" ht="20" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
       <c r="L43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="30"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="59"/>
     </row>
     <row r="44" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="D44" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
       <c r="L44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="60">
         <v>87654321</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="32"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
     </row>
     <row r="45" spans="1:23" ht="20" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:23" ht="20" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
       <c r="L47" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="67" t="s">
-        <v>290</v>
-      </c>
-      <c r="N47" s="65"/>
-      <c r="O47" s="65"/>
-      <c r="P47" s="65"/>
-      <c r="Q47" s="65"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="66"/>
+      <c r="M47" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
     </row>
     <row r="48" spans="1:23" ht="20" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
       <c r="L48" s="2" t="s">
         <v>190</v>
       </c>
@@ -8021,27 +7982,27 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
       <c r="L49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8054,15 +8015,15 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
       <c r="L50" s="2" t="s">
         <v>191</v>
       </c>
@@ -8089,15 +8050,15 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="L51" s="2" t="s">
         <v>192</v>
       </c>
@@ -8124,15 +8085,15 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
       <c r="L52" s="2" t="s">
         <v>193</v>
       </c>
@@ -8159,15 +8120,15 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
       <c r="L53" s="2" t="s">
         <v>194</v>
       </c>
@@ -8194,27 +8155,27 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="20" customHeight="1">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
       <c r="L54" s="2" t="s">
         <v>195</v>
       </c>
@@ -8241,15 +8202,15 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
       <c r="L55" s="2" t="s">
         <v>200</v>
       </c>
@@ -8276,15 +8237,15 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1">
-      <c r="A56" s="47"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
       <c r="L56" s="2" t="s">
         <v>201</v>
       </c>
@@ -8311,15 +8272,15 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="20" customHeight="1">
-      <c r="A57" s="47"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -8330,15 +8291,15 @@
       <c r="S57" s="15"/>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1">
-      <c r="A58" s="47"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
       <c r="L58" s="4" t="s">
         <v>12</v>
       </c>
@@ -8351,27 +8312,27 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19" ht="20" customHeight="1">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
       <c r="L59" s="2" t="s">
         <v>204</v>
       </c>
@@ -8398,15 +8359,15 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1">
-      <c r="A60" s="47"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
       <c r="L60" s="2" t="s">
         <v>205</v>
       </c>
@@ -8433,17 +8394,17 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1">
-      <c r="A61" s="47"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
       <c r="L61" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>27</v>
@@ -8468,15 +8429,15 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1">
-      <c r="A62" s="47"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
       <c r="L62" s="4" t="s">
         <v>202</v>
       </c>
@@ -8503,15 +8464,15 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1">
-      <c r="A63" s="47"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
       <c r="L63" s="4" t="s">
         <v>203</v>
       </c>
@@ -8538,29 +8499,29 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
       <c r="L64" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>26</v>
@@ -8585,2066 +8546,2425 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A65" s="47"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:19" ht="20" customHeight="1">
-      <c r="A66" s="47"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
       <c r="L66" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="55" t="s">
+      <c r="M66" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="56"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="57"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="39"/>
     </row>
     <row r="67" spans="1:19" ht="20" customHeight="1">
-      <c r="A67" s="47"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
       <c r="L67" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="M67" s="58">
+        <v>284</v>
+      </c>
+      <c r="M67" s="40">
         <v>0</v>
       </c>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="60"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="42"/>
     </row>
     <row r="68" spans="1:19" ht="20" customHeight="1">
-      <c r="A68" s="47"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
       <c r="L68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M68" s="58">
+      <c r="M68" s="40">
         <v>10</v>
       </c>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="60"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="42"/>
     </row>
     <row r="69" spans="1:19" ht="20" customHeight="1">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="E69" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F69" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
       <c r="L69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M69" s="58">
+      <c r="M69" s="40">
         <v>-1</v>
       </c>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="60"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="42"/>
     </row>
     <row r="70" spans="1:19" ht="20" customHeight="1">
-      <c r="A70" s="47"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M70" s="58">
+      <c r="M70" s="40">
         <v>11</v>
       </c>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="60"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="42"/>
     </row>
     <row r="71" spans="1:19" ht="20" customHeight="1">
-      <c r="A71" s="47"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
       <c r="L71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M71" s="58" t="s">
+      <c r="M71" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="60"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="42"/>
     </row>
     <row r="72" spans="1:19" ht="20" customHeight="1">
-      <c r="A72" s="47"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
       <c r="L72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M72" s="58" t="s">
+      <c r="M72" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="60"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="42"/>
     </row>
     <row r="73" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A73" s="47"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
       <c r="L73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M73" s="61">
+      <c r="M73" s="43">
         <v>1</v>
       </c>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="63"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="45"/>
     </row>
     <row r="74" spans="1:19" ht="20" customHeight="1">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F74" s="22" t="s">
+      <c r="E74" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+    </row>
+    <row r="75" spans="1:19" ht="20" customHeight="1">
+      <c r="A75" s="25"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="1:19" ht="20" customHeight="1">
+      <c r="A76" s="25"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+    </row>
+    <row r="77" spans="1:19" ht="20" customHeight="1">
+      <c r="A77" s="25"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+    </row>
+    <row r="78" spans="1:19" ht="20" customHeight="1">
+      <c r="A78" s="25"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+    </row>
+    <row r="79" spans="1:19" ht="20" customHeight="1">
+      <c r="A79" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+    </row>
+    <row r="80" spans="1:19" ht="20" customHeight="1">
+      <c r="A80" s="25"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+    </row>
+    <row r="81" spans="1:9" ht="20" customHeight="1">
+      <c r="A81" s="25"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+    </row>
+    <row r="82" spans="1:9" ht="20" customHeight="1">
+      <c r="A82" s="25"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+    </row>
+    <row r="83" spans="1:9" ht="20" customHeight="1">
+      <c r="A83" s="25"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+    </row>
+    <row r="84" spans="1:9" ht="20" customHeight="1">
+      <c r="A84" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+    </row>
+    <row r="85" spans="1:9" ht="20" customHeight="1">
+      <c r="A85" s="25"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+    </row>
+    <row r="86" spans="1:9" ht="20" customHeight="1">
+      <c r="A86" s="25"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+    </row>
+    <row r="87" spans="1:9" ht="20" customHeight="1">
+      <c r="A87" s="25"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+    </row>
+    <row r="88" spans="1:9" ht="20" customHeight="1">
+      <c r="A88" s="25"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+    </row>
+    <row r="89" spans="1:9" ht="20" customHeight="1">
+      <c r="A89" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+    </row>
+    <row r="90" spans="1:9" ht="20" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+    </row>
+    <row r="91" spans="1:9" ht="20" customHeight="1">
+      <c r="A91" s="25"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+    </row>
+    <row r="92" spans="1:9" ht="20" customHeight="1">
+      <c r="A92" s="25"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+    </row>
+    <row r="93" spans="1:9" ht="20" customHeight="1">
+      <c r="A93" s="25"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+    </row>
+    <row r="94" spans="1:9" ht="20" customHeight="1">
+      <c r="A94" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+    </row>
+    <row r="95" spans="1:9" ht="20" customHeight="1">
+      <c r="A95" s="25"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+    </row>
+    <row r="96" spans="1:9" ht="20" customHeight="1">
+      <c r="A96" s="25"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+    </row>
+    <row r="97" spans="1:9" ht="20" customHeight="1">
+      <c r="A97" s="25"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+    </row>
+    <row r="98" spans="1:9" ht="20" customHeight="1">
+      <c r="A98" s="25"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+    </row>
+    <row r="99" spans="1:9" ht="20" customHeight="1">
+      <c r="A99" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+    </row>
+    <row r="100" spans="1:9" ht="20" customHeight="1">
+      <c r="A100" s="25"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+    </row>
+    <row r="101" spans="1:9" ht="20" customHeight="1">
+      <c r="A101" s="25"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+    </row>
+    <row r="102" spans="1:9" ht="20" customHeight="1">
+      <c r="A102" s="25"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+    </row>
+    <row r="103" spans="1:9" ht="20" customHeight="1">
+      <c r="A103" s="25"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+    </row>
+    <row r="104" spans="1:9" ht="20" customHeight="1">
+      <c r="A104" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+    </row>
+    <row r="105" spans="1:9" ht="20" customHeight="1">
+      <c r="A105" s="25"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+    </row>
+    <row r="106" spans="1:9" ht="20" customHeight="1">
+      <c r="A106" s="25"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+    </row>
+    <row r="107" spans="1:9" ht="20" customHeight="1">
+      <c r="A107" s="25"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+    </row>
+    <row r="108" spans="1:9" ht="20" customHeight="1">
+      <c r="A108" s="25"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+    </row>
+    <row r="109" spans="1:9" ht="20" customHeight="1">
+      <c r="A109" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+    </row>
+    <row r="110" spans="1:9" ht="20" customHeight="1">
+      <c r="A110" s="25"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+    </row>
+    <row r="111" spans="1:9" ht="20" customHeight="1">
+      <c r="A111" s="25"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+    </row>
+    <row r="112" spans="1:9" ht="20" customHeight="1">
+      <c r="A112" s="25"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+    </row>
+    <row r="113" spans="1:9" ht="20" customHeight="1">
+      <c r="A113" s="25"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+    </row>
+    <row r="114" spans="1:9" ht="20" customHeight="1">
+      <c r="A114" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+    </row>
+    <row r="115" spans="1:9" ht="20" customHeight="1">
+      <c r="A115" s="25"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+    </row>
+    <row r="116" spans="1:9" ht="20" customHeight="1">
+      <c r="A116" s="25"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+    </row>
+    <row r="117" spans="1:9" ht="20" customHeight="1">
+      <c r="A117" s="25"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="36"/>
+    </row>
+    <row r="118" spans="1:9" ht="20" customHeight="1">
+      <c r="A118" s="25"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+    </row>
+    <row r="119" spans="1:9" ht="20" customHeight="1">
+      <c r="A119" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+    </row>
+    <row r="120" spans="1:9" ht="20" customHeight="1">
+      <c r="A120" s="25"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+    </row>
+    <row r="121" spans="1:9" ht="20" customHeight="1">
+      <c r="A121" s="25"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="36"/>
+    </row>
+    <row r="122" spans="1:9" ht="20" customHeight="1">
+      <c r="A122" s="25"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+    </row>
+    <row r="123" spans="1:9" ht="20" customHeight="1">
+      <c r="A123" s="25"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="36"/>
+    </row>
+    <row r="124" spans="1:9" ht="20" customHeight="1">
+      <c r="A124" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+    </row>
+    <row r="125" spans="1:9" ht="20" customHeight="1">
+      <c r="A125" s="25"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="36"/>
+    </row>
+    <row r="126" spans="1:9" ht="20" customHeight="1">
+      <c r="A126" s="25"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="36"/>
+    </row>
+    <row r="127" spans="1:9" ht="20" customHeight="1">
+      <c r="A127" s="25"/>
+      <c r="B127" s="27"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="36"/>
+    </row>
+    <row r="128" spans="1:9" ht="20" customHeight="1">
+      <c r="A128" s="25"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="36"/>
+    </row>
+    <row r="129" spans="1:9" ht="20" customHeight="1">
+      <c r="A129" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
+    </row>
+    <row r="130" spans="1:9" ht="20" customHeight="1">
+      <c r="A130" s="25"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="36"/>
+    </row>
+    <row r="131" spans="1:9" ht="20" customHeight="1">
+      <c r="A131" s="25"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36"/>
+    </row>
+    <row r="132" spans="1:9" ht="20" customHeight="1">
+      <c r="A132" s="25"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="36"/>
+    </row>
+    <row r="133" spans="1:9" ht="20" customHeight="1">
+      <c r="A133" s="25"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+    </row>
+    <row r="134" spans="1:9" ht="20" customHeight="1">
+      <c r="A134" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" spans="1:19" ht="20" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:19" ht="20" customHeight="1">
-      <c r="A76" s="47"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:19" ht="20" customHeight="1">
-      <c r="A77" s="47"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="1:19" ht="20" customHeight="1">
-      <c r="A78" s="47"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-    </row>
-    <row r="79" spans="1:19" ht="20" customHeight="1">
-      <c r="A79" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="1:19" ht="20" customHeight="1">
-      <c r="A80" s="47"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-    </row>
-    <row r="81" spans="1:9" ht="20" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="1:9" ht="20" customHeight="1">
-      <c r="A82" s="47"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-    </row>
-    <row r="83" spans="1:9" ht="20" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-    </row>
-    <row r="84" spans="1:9" ht="20" customHeight="1">
-      <c r="A84" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="23" t="s">
+      <c r="E134" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+    </row>
+    <row r="135" spans="1:9" ht="20" customHeight="1">
+      <c r="A135" s="25"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="36"/>
+    </row>
+    <row r="136" spans="1:9" ht="20" customHeight="1">
+      <c r="A136" s="25"/>
+      <c r="B136" s="27"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36"/>
+    </row>
+    <row r="137" spans="1:9" ht="20" customHeight="1">
+      <c r="A137" s="25"/>
+      <c r="B137" s="27"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+    </row>
+    <row r="138" spans="1:9" ht="20" customHeight="1">
+      <c r="A138" s="25"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+    </row>
+    <row r="139" spans="1:9" ht="20" customHeight="1">
+      <c r="A139" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="1:9" ht="20" customHeight="1">
-      <c r="A85" s="47"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-    </row>
-    <row r="86" spans="1:9" ht="20" customHeight="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="1:9" ht="20" customHeight="1">
-      <c r="A87" s="47"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-    </row>
-    <row r="88" spans="1:9" ht="20" customHeight="1">
-      <c r="A88" s="47"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="1:9" ht="20" customHeight="1">
-      <c r="A89" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="23" t="s">
+      <c r="C139" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+    </row>
+    <row r="140" spans="1:9" ht="20" customHeight="1">
+      <c r="A140" s="25"/>
+      <c r="B140" s="27"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+    </row>
+    <row r="141" spans="1:9" ht="20" customHeight="1">
+      <c r="A141" s="25"/>
+      <c r="B141" s="27"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+    </row>
+    <row r="142" spans="1:9" ht="20" customHeight="1">
+      <c r="A142" s="25"/>
+      <c r="B142" s="27"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="36"/>
+    </row>
+    <row r="143" spans="1:9" ht="20" customHeight="1">
+      <c r="A143" s="25"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="35"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="36"/>
+    </row>
+    <row r="144" spans="1:9" ht="20" customHeight="1">
+      <c r="A144" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="36"/>
+    </row>
+    <row r="145" spans="1:9" ht="20" customHeight="1">
+      <c r="A145" s="25"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="36"/>
+    </row>
+    <row r="146" spans="1:9" ht="20" customHeight="1">
+      <c r="A146" s="25"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="36"/>
+    </row>
+    <row r="147" spans="1:9" ht="20" customHeight="1">
+      <c r="A147" s="25"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+    </row>
+    <row r="148" spans="1:9" ht="20" customHeight="1">
+      <c r="A148" s="25"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="36"/>
+    </row>
+    <row r="149" spans="1:9" ht="20" customHeight="1">
+      <c r="A149" s="25"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="36"/>
+    </row>
+    <row r="150" spans="1:9" ht="20" customHeight="1">
+      <c r="A150" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="36"/>
+    </row>
+    <row r="151" spans="1:9" ht="20" customHeight="1">
+      <c r="A151" s="25"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="36"/>
+    </row>
+    <row r="152" spans="1:9" ht="20" customHeight="1">
+      <c r="A152" s="25"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="36"/>
+    </row>
+    <row r="153" spans="1:9" ht="20" customHeight="1">
+      <c r="A153" s="25"/>
+      <c r="B153" s="27"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="36"/>
+    </row>
+    <row r="154" spans="1:9" ht="20" customHeight="1">
+      <c r="A154" s="25"/>
+      <c r="B154" s="27"/>
+      <c r="C154" s="29"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="36"/>
+    </row>
+    <row r="155" spans="1:9" ht="20" customHeight="1">
+      <c r="A155" s="25"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="36"/>
+    </row>
+    <row r="156" spans="1:9" ht="20" customHeight="1">
+      <c r="A156" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="36"/>
+    </row>
+    <row r="157" spans="1:9" ht="20" customHeight="1">
+      <c r="A157" s="25"/>
+      <c r="B157" s="27"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="36"/>
+    </row>
+    <row r="158" spans="1:9" ht="20" customHeight="1">
+      <c r="A158" s="25"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+    </row>
+    <row r="159" spans="1:9" ht="20" customHeight="1">
+      <c r="A159" s="25"/>
+      <c r="B159" s="27"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="36"/>
+    </row>
+    <row r="160" spans="1:9" ht="20" customHeight="1">
+      <c r="A160" s="25"/>
+      <c r="B160" s="27"/>
+      <c r="C160" s="29"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="36"/>
+    </row>
+    <row r="161" spans="1:9" ht="20" customHeight="1">
+      <c r="A161" s="25"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="36"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="36"/>
+    </row>
+    <row r="162" spans="1:9" ht="20" customHeight="1">
+      <c r="A162" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="36"/>
+    </row>
+    <row r="163" spans="1:9" ht="20" customHeight="1">
+      <c r="A163" s="25"/>
+      <c r="B163" s="27"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="36"/>
+    </row>
+    <row r="164" spans="1:9" ht="20" customHeight="1">
+      <c r="A164" s="25"/>
+      <c r="B164" s="27"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="36"/>
+    </row>
+    <row r="165" spans="1:9" ht="20" customHeight="1">
+      <c r="A165" s="25"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="36"/>
+    </row>
+    <row r="166" spans="1:9" ht="20" customHeight="1">
+      <c r="A166" s="25"/>
+      <c r="B166" s="27"/>
+      <c r="C166" s="29"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="36"/>
+    </row>
+    <row r="167" spans="1:9" ht="20" customHeight="1">
+      <c r="A167" s="25"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="28"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="36"/>
+    </row>
+    <row r="168" spans="1:9" ht="20" customHeight="1">
+      <c r="A168" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="36"/>
+    </row>
+    <row r="169" spans="1:9" ht="20" customHeight="1">
+      <c r="A169" s="25"/>
+      <c r="B169" s="27"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="36"/>
+    </row>
+    <row r="170" spans="1:9" ht="20" customHeight="1">
+      <c r="A170" s="25"/>
+      <c r="B170" s="27"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="36"/>
+    </row>
+    <row r="171" spans="1:9" ht="20" customHeight="1">
+      <c r="A171" s="25"/>
+      <c r="B171" s="27"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="36"/>
+      <c r="H171" s="36"/>
+      <c r="I171" s="36"/>
+    </row>
+    <row r="172" spans="1:9" ht="20" customHeight="1">
+      <c r="A172" s="25"/>
+      <c r="B172" s="27"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="36"/>
+    </row>
+    <row r="173" spans="1:9" ht="20" customHeight="1">
+      <c r="A173" s="25"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+    </row>
+    <row r="174" spans="1:9" ht="20" customHeight="1">
+      <c r="A174" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F174" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="36"/>
+    </row>
+    <row r="175" spans="1:9" ht="20" customHeight="1">
+      <c r="A175" s="25"/>
+      <c r="B175" s="27"/>
+      <c r="C175" s="29"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="29"/>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="36"/>
+    </row>
+    <row r="176" spans="1:9" ht="20" customHeight="1">
+      <c r="A176" s="25"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="29"/>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="36"/>
+    </row>
+    <row r="177" spans="1:9" ht="20" customHeight="1">
+      <c r="A177" s="25"/>
+      <c r="B177" s="27"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="36"/>
+    </row>
+    <row r="178" spans="1:9" ht="20" customHeight="1">
+      <c r="A178" s="25"/>
+      <c r="B178" s="27"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="29"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="36"/>
+    </row>
+    <row r="179" spans="1:9" ht="20" customHeight="1">
+      <c r="A179" s="25"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="36"/>
+    </row>
+    <row r="180" spans="1:9" ht="20" customHeight="1">
+      <c r="A180" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E180" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F180" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G180" s="36"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+    </row>
+    <row r="181" spans="1:9" ht="20" customHeight="1">
+      <c r="A181" s="25"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="36"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="36"/>
+    </row>
+    <row r="182" spans="1:9" ht="20" customHeight="1">
+      <c r="A182" s="25"/>
+      <c r="B182" s="27"/>
+      <c r="C182" s="29"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="29"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+    </row>
+    <row r="183" spans="1:9" ht="20" customHeight="1">
+      <c r="A183" s="25"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="29"/>
+      <c r="G183" s="36"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="36"/>
+    </row>
+    <row r="184" spans="1:9" ht="20" customHeight="1">
+      <c r="A184" s="25"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="29"/>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="36"/>
+    </row>
+    <row r="185" spans="1:9" ht="20" customHeight="1">
+      <c r="A185" s="25"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="29"/>
+      <c r="G185" s="36"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+    </row>
+    <row r="186" spans="1:9" ht="20" customHeight="1">
+      <c r="A186" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D186" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" s="36"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="36"/>
+    </row>
+    <row r="187" spans="1:9" ht="20" customHeight="1">
+      <c r="A187" s="25"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="36"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="36"/>
+    </row>
+    <row r="188" spans="1:9" ht="20" customHeight="1">
+      <c r="A188" s="25"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="36"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="36"/>
+    </row>
+    <row r="189" spans="1:9" ht="20" customHeight="1">
+      <c r="A189" s="25"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="31"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+    </row>
+    <row r="190" spans="1:9" ht="20" customHeight="1">
+      <c r="A190" s="25"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="31"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="36"/>
+    </row>
+    <row r="191" spans="1:9" ht="20" customHeight="1">
+      <c r="A191" s="25"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="28"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="36"/>
+    </row>
+    <row r="192" spans="1:9" ht="20" customHeight="1">
+      <c r="A192" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D192" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+    </row>
+    <row r="193" spans="1:9" ht="20" customHeight="1">
+      <c r="A193" s="25"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="36"/>
+    </row>
+    <row r="194" spans="1:9" ht="20" customHeight="1">
+      <c r="A194" s="25"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="31"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="36"/>
+    </row>
+    <row r="195" spans="1:9" ht="20" customHeight="1">
+      <c r="A195" s="25"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="36"/>
+    </row>
+    <row r="196" spans="1:9" ht="20" customHeight="1">
+      <c r="A196" s="25"/>
+      <c r="B196" s="27"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="36"/>
+    </row>
+    <row r="197" spans="1:9" ht="20" customHeight="1">
+      <c r="A197" s="25"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+    </row>
+    <row r="198" spans="1:9" ht="20" customHeight="1">
+      <c r="A198" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="36"/>
+    </row>
+    <row r="199" spans="1:9" ht="20" customHeight="1">
+      <c r="A199" s="25"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="36"/>
+    </row>
+    <row r="200" spans="1:9" ht="20" customHeight="1">
+      <c r="A200" s="25"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="36"/>
+    </row>
+    <row r="201" spans="1:9" ht="20" customHeight="1">
+      <c r="A201" s="25"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="29"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="36"/>
+    </row>
+    <row r="202" spans="1:9" ht="20" customHeight="1">
+      <c r="A202" s="25"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="29"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="36"/>
+    </row>
+    <row r="203" spans="1:9" ht="20" customHeight="1">
+      <c r="A203" s="25"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="36"/>
+      <c r="I203" s="36"/>
+    </row>
+    <row r="204" spans="1:9" ht="20" customHeight="1">
+      <c r="A204" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F89" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-    </row>
-    <row r="90" spans="1:9" ht="20" customHeight="1">
-      <c r="A90" s="47"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="1:9" ht="20" customHeight="1">
-      <c r="A91" s="47"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-    </row>
-    <row r="92" spans="1:9" ht="20" customHeight="1">
-      <c r="A92" s="47"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-    </row>
-    <row r="93" spans="1:9" ht="20" customHeight="1">
-      <c r="A93" s="47"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-    </row>
-    <row r="94" spans="1:9" ht="20" customHeight="1">
-      <c r="A94" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" s="23" t="s">
+      <c r="C204" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E204" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="36"/>
+    </row>
+    <row r="205" spans="1:9" ht="20" customHeight="1">
+      <c r="A205" s="25"/>
+      <c r="B205" s="27"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="29"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="36"/>
+    </row>
+    <row r="206" spans="1:9" ht="20" customHeight="1">
+      <c r="A206" s="25"/>
+      <c r="B206" s="27"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="31"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+    </row>
+    <row r="207" spans="1:9" ht="20" customHeight="1">
+      <c r="A207" s="25"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="31"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="36"/>
+    </row>
+    <row r="208" spans="1:9" ht="20" customHeight="1">
+      <c r="A208" s="25"/>
+      <c r="B208" s="28"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="35"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="36"/>
+    </row>
+    <row r="209" spans="1:9" ht="20" customHeight="1">
+      <c r="A209" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F94" s="22" t="s">
+      <c r="C209" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D209" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-    </row>
-    <row r="95" spans="1:9" ht="20" customHeight="1">
-      <c r="A95" s="47"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-    </row>
-    <row r="96" spans="1:9" ht="20" customHeight="1">
-      <c r="A96" s="47"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-    </row>
-    <row r="97" spans="1:9" ht="20" customHeight="1">
-      <c r="A97" s="47"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="21"/>
-    </row>
-    <row r="98" spans="1:9" ht="20" customHeight="1">
-      <c r="A98" s="47"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
-    </row>
-    <row r="99" spans="1:9" ht="20" customHeight="1">
-      <c r="A99" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E99" s="51" t="s">
+      <c r="E209" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F209" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="F99" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-    </row>
-    <row r="100" spans="1:9" ht="20" customHeight="1">
-      <c r="A100" s="47"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="49"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="21"/>
-    </row>
-    <row r="101" spans="1:9" ht="20" customHeight="1">
-      <c r="A101" s="47"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
-    </row>
-    <row r="102" spans="1:9" ht="20" customHeight="1">
-      <c r="A102" s="47"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
-    </row>
-    <row r="103" spans="1:9" ht="20" customHeight="1">
-      <c r="A103" s="47"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="53"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-    </row>
-    <row r="104" spans="1:9" ht="20" customHeight="1">
-      <c r="A104" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E104" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="21"/>
-    </row>
-    <row r="105" spans="1:9" ht="20" customHeight="1">
-      <c r="A105" s="47"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
-    </row>
-    <row r="106" spans="1:9" ht="20" customHeight="1">
-      <c r="A106" s="47"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-    </row>
-    <row r="107" spans="1:9" ht="20" customHeight="1">
-      <c r="A107" s="47"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="21"/>
-    </row>
-    <row r="108" spans="1:9" ht="20" customHeight="1">
-      <c r="A108" s="47"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="21"/>
-    </row>
-    <row r="109" spans="1:9" ht="20" customHeight="1">
-      <c r="A109" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="21"/>
-    </row>
-    <row r="110" spans="1:9" ht="20" customHeight="1">
-      <c r="A110" s="47"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="21"/>
-    </row>
-    <row r="111" spans="1:9" ht="20" customHeight="1">
-      <c r="A111" s="47"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="21"/>
-    </row>
-    <row r="112" spans="1:9" ht="20" customHeight="1">
-      <c r="A112" s="47"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="21"/>
-    </row>
-    <row r="113" spans="1:9" ht="20" customHeight="1">
-      <c r="A113" s="47"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-    </row>
-    <row r="114" spans="1:9" ht="20" customHeight="1">
-      <c r="A114" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-    </row>
-    <row r="115" spans="1:9" ht="20" customHeight="1">
-      <c r="A115" s="47"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-    </row>
-    <row r="116" spans="1:9" ht="20" customHeight="1">
-      <c r="A116" s="47"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-    </row>
-    <row r="117" spans="1:9" ht="20" customHeight="1">
-      <c r="A117" s="47"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
-    </row>
-    <row r="118" spans="1:9" ht="20" customHeight="1">
-      <c r="A118" s="47"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-    </row>
-    <row r="119" spans="1:9" ht="20" customHeight="1">
-      <c r="A119" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-    </row>
-    <row r="120" spans="1:9" ht="20" customHeight="1">
-      <c r="A120" s="47"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="49"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-    </row>
-    <row r="121" spans="1:9" ht="20" customHeight="1">
-      <c r="A121" s="47"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-      <c r="I121" s="21"/>
-    </row>
-    <row r="122" spans="1:9" ht="20" customHeight="1">
-      <c r="A122" s="47"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-    </row>
-    <row r="123" spans="1:9" ht="20" customHeight="1">
-      <c r="A123" s="47"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
-      <c r="I123" s="21"/>
-    </row>
-    <row r="124" spans="1:9" ht="20" customHeight="1">
-      <c r="A124" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F124" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="21"/>
-    </row>
-    <row r="125" spans="1:9" ht="20" customHeight="1">
-      <c r="A125" s="47"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="21"/>
-    </row>
-    <row r="126" spans="1:9" ht="20" customHeight="1">
-      <c r="A126" s="47"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-      <c r="I126" s="21"/>
-    </row>
-    <row r="127" spans="1:9" ht="20" customHeight="1">
-      <c r="A127" s="47"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="49"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-    </row>
-    <row r="128" spans="1:9" ht="20" customHeight="1">
-      <c r="A128" s="47"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-    </row>
-    <row r="129" spans="1:9" ht="20" customHeight="1">
-      <c r="A129" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-    </row>
-    <row r="130" spans="1:9" ht="20" customHeight="1">
-      <c r="A130" s="47"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
-      <c r="I130" s="21"/>
-    </row>
-    <row r="131" spans="1:9" ht="20" customHeight="1">
-      <c r="A131" s="47"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
-    </row>
-    <row r="132" spans="1:9" ht="20" customHeight="1">
-      <c r="A132" s="47"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="21"/>
-    </row>
-    <row r="133" spans="1:9" ht="20" customHeight="1">
-      <c r="A133" s="47"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-    </row>
-    <row r="134" spans="1:9" ht="20" customHeight="1">
-      <c r="A134" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="E134" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-    </row>
-    <row r="135" spans="1:9" ht="20" customHeight="1">
-      <c r="A135" s="47"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
-    </row>
-    <row r="136" spans="1:9" ht="20" customHeight="1">
-      <c r="A136" s="47"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="49"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="22"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
-      <c r="I136" s="21"/>
-    </row>
-    <row r="137" spans="1:9" ht="20" customHeight="1">
-      <c r="A137" s="47"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="22"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
-      <c r="I137" s="21"/>
-    </row>
-    <row r="138" spans="1:9" ht="20" customHeight="1">
-      <c r="A138" s="47"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="22"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-    </row>
-    <row r="139" spans="1:9" ht="20" customHeight="1">
-      <c r="A139" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B139" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D139" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E139" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="F139" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="21"/>
-    </row>
-    <row r="140" spans="1:9" ht="20" customHeight="1">
-      <c r="A140" s="47"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="22"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
-    </row>
-    <row r="141" spans="1:9" ht="20" customHeight="1">
-      <c r="A141" s="47"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="49"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-    </row>
-    <row r="142" spans="1:9" ht="20" customHeight="1">
-      <c r="A142" s="47"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="22"/>
-      <c r="D142" s="49"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
-    </row>
-    <row r="143" spans="1:9" ht="20" customHeight="1">
-      <c r="A143" s="47"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="53"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
-      <c r="I143" s="21"/>
-    </row>
-    <row r="144" spans="1:9" ht="20" customHeight="1">
-      <c r="A144" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B144" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D144" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E144" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
-      <c r="I144" s="21"/>
-    </row>
-    <row r="145" spans="1:9" ht="20" customHeight="1">
-      <c r="A145" s="47"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="49"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="22"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
-      <c r="I145" s="21"/>
-    </row>
-    <row r="146" spans="1:9" ht="20" customHeight="1">
-      <c r="A146" s="47"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="21"/>
-    </row>
-    <row r="147" spans="1:9" ht="20" customHeight="1">
-      <c r="A147" s="47"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-    </row>
-    <row r="148" spans="1:9" ht="20" customHeight="1">
-      <c r="A148" s="47"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="49"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-    </row>
-    <row r="149" spans="1:9" ht="20" customHeight="1">
-      <c r="A149" s="47"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="50"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="22"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="21"/>
-    </row>
-    <row r="150" spans="1:9" ht="20" customHeight="1">
-      <c r="A150" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="E150" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F150" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="21"/>
-    </row>
-    <row r="151" spans="1:9" ht="20" customHeight="1">
-      <c r="A151" s="47"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="21"/>
-    </row>
-    <row r="152" spans="1:9" ht="20" customHeight="1">
-      <c r="A152" s="47"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="49"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
-      <c r="I152" s="21"/>
-    </row>
-    <row r="153" spans="1:9" ht="20" customHeight="1">
-      <c r="A153" s="47"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
-      <c r="I153" s="21"/>
-    </row>
-    <row r="154" spans="1:9" ht="20" customHeight="1">
-      <c r="A154" s="47"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
-      <c r="I154" s="21"/>
-    </row>
-    <row r="155" spans="1:9" ht="20" customHeight="1">
-      <c r="A155" s="47"/>
-      <c r="B155" s="25"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="50"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
-    </row>
-    <row r="156" spans="1:9" ht="20" customHeight="1">
-      <c r="A156" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D156" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="F156" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-      <c r="I156" s="21"/>
-    </row>
-    <row r="157" spans="1:9" ht="20" customHeight="1">
-      <c r="A157" s="47"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="49"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-      <c r="I157" s="21"/>
-    </row>
-    <row r="158" spans="1:9" ht="20" customHeight="1">
-      <c r="A158" s="47"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="49"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="22"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
-      <c r="I158" s="21"/>
-    </row>
-    <row r="159" spans="1:9" ht="20" customHeight="1">
-      <c r="A159" s="47"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="49"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
-      <c r="I159" s="21"/>
-    </row>
-    <row r="160" spans="1:9" ht="20" customHeight="1">
-      <c r="A160" s="47"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
-      <c r="I160" s="21"/>
-    </row>
-    <row r="161" spans="1:9" ht="20" customHeight="1">
-      <c r="A161" s="47"/>
-      <c r="B161" s="25"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
-      <c r="I161" s="21"/>
-    </row>
-    <row r="162" spans="1:9" ht="20" customHeight="1">
-      <c r="A162" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B162" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="F162" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
-      <c r="I162" s="21"/>
-    </row>
-    <row r="163" spans="1:9" ht="20" customHeight="1">
-      <c r="A163" s="47"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="49"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="21"/>
-      <c r="H163" s="21"/>
-      <c r="I163" s="21"/>
-    </row>
-    <row r="164" spans="1:9" ht="20" customHeight="1">
-      <c r="A164" s="47"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="22"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-    </row>
-    <row r="165" spans="1:9" ht="20" customHeight="1">
-      <c r="A165" s="47"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-    </row>
-    <row r="166" spans="1:9" ht="20" customHeight="1">
-      <c r="A166" s="47"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21"/>
-      <c r="I166" s="21"/>
-    </row>
-    <row r="167" spans="1:9" ht="20" customHeight="1">
-      <c r="A167" s="47"/>
-      <c r="B167" s="25"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="50"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="22"/>
-      <c r="G167" s="21"/>
-      <c r="H167" s="21"/>
-      <c r="I167" s="21"/>
-    </row>
-    <row r="168" spans="1:9" ht="20" customHeight="1">
-      <c r="A168" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B168" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D168" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E168" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="G168" s="21"/>
-      <c r="H168" s="21"/>
-      <c r="I168" s="21"/>
-    </row>
-    <row r="169" spans="1:9" ht="20" customHeight="1">
-      <c r="A169" s="47"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="22"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-    </row>
-    <row r="170" spans="1:9" ht="20" customHeight="1">
-      <c r="A170" s="47"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="49"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="21"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
-    </row>
-    <row r="171" spans="1:9" ht="20" customHeight="1">
-      <c r="A171" s="47"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="49"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="22"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="21"/>
-      <c r="I171" s="21"/>
-    </row>
-    <row r="172" spans="1:9" ht="20" customHeight="1">
-      <c r="A172" s="47"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="49"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="21"/>
-      <c r="H172" s="21"/>
-      <c r="I172" s="21"/>
-    </row>
-    <row r="173" spans="1:9" ht="20" customHeight="1">
-      <c r="A173" s="47"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="50"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="22"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
-    </row>
-    <row r="174" spans="1:9" ht="20" customHeight="1">
-      <c r="A174" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E174" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="F174" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="21"/>
-    </row>
-    <row r="175" spans="1:9" ht="20" customHeight="1">
-      <c r="A175" s="47"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="49"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="21"/>
-      <c r="I175" s="21"/>
-    </row>
-    <row r="176" spans="1:9" ht="20" customHeight="1">
-      <c r="A176" s="47"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="49"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="21"/>
-      <c r="I176" s="21"/>
-    </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1">
-      <c r="A177" s="47"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="22"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-    </row>
-    <row r="178" spans="1:9" ht="20" customHeight="1">
-      <c r="A178" s="47"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="49"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="22"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="21"/>
-      <c r="I178" s="21"/>
-    </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1">
-      <c r="A179" s="47"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="22"/>
-      <c r="G179" s="21"/>
-      <c r="H179" s="21"/>
-      <c r="I179" s="21"/>
-    </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1">
-      <c r="A180" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D180" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E180" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F180" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="G180" s="21"/>
-      <c r="H180" s="21"/>
-      <c r="I180" s="21"/>
-    </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1">
-      <c r="A181" s="47"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="22"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="21"/>
-      <c r="I181" s="21"/>
-    </row>
-    <row r="182" spans="1:9" ht="20" customHeight="1">
-      <c r="A182" s="47"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="49"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
-    </row>
-    <row r="183" spans="1:9" ht="20" customHeight="1">
-      <c r="A183" s="47"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="49"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="21"/>
-    </row>
-    <row r="184" spans="1:9" ht="20" customHeight="1">
-      <c r="A184" s="47"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="21"/>
-      <c r="I184" s="21"/>
-    </row>
-    <row r="185" spans="1:9" ht="20" customHeight="1">
-      <c r="A185" s="47"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="21"/>
-      <c r="H185" s="21"/>
-      <c r="I185" s="21"/>
-    </row>
-    <row r="186" spans="1:9" ht="20" customHeight="1">
-      <c r="A186" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D186" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E186" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="F186" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G186" s="21"/>
-      <c r="H186" s="21"/>
-      <c r="I186" s="21"/>
-    </row>
-    <row r="187" spans="1:9" ht="20" customHeight="1">
-      <c r="A187" s="47"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="49"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
-    </row>
-    <row r="188" spans="1:9" ht="20" customHeight="1">
-      <c r="A188" s="47"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="49"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="22"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="21"/>
-    </row>
-    <row r="189" spans="1:9" ht="20" customHeight="1">
-      <c r="A189" s="47"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="49"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="22"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
-      <c r="I189" s="21"/>
-    </row>
-    <row r="190" spans="1:9" ht="20" customHeight="1">
-      <c r="A190" s="47"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="49"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="22"/>
-      <c r="G190" s="21"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="21"/>
-    </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1">
-      <c r="A191" s="47"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="25"/>
-      <c r="F191" s="22"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
-      <c r="I191" s="21"/>
-    </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1">
-      <c r="A192" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D192" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E192" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="F192" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-      <c r="I192" s="21"/>
-    </row>
-    <row r="193" spans="1:9" ht="20" customHeight="1">
-      <c r="A193" s="47"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="49"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="22"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="21"/>
-      <c r="I193" s="21"/>
-    </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="47"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="49"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="21"/>
-      <c r="H194" s="21"/>
-      <c r="I194" s="21"/>
-    </row>
-    <row r="195" spans="1:9" ht="20" customHeight="1">
-      <c r="A195" s="47"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="49"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="22"/>
-      <c r="G195" s="21"/>
-      <c r="H195" s="21"/>
-      <c r="I195" s="21"/>
-    </row>
-    <row r="196" spans="1:9" ht="20" customHeight="1">
-      <c r="A196" s="47"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="49"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="21"/>
-    </row>
-    <row r="197" spans="1:9" ht="20" customHeight="1">
-      <c r="A197" s="47"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="25"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="21"/>
-      <c r="H197" s="21"/>
-      <c r="I197" s="21"/>
-    </row>
-    <row r="198" spans="1:9" ht="20" customHeight="1">
-      <c r="A198" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="B198" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D198" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F198" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G198" s="21"/>
-      <c r="H198" s="21"/>
-      <c r="I198" s="21"/>
-    </row>
-    <row r="199" spans="1:9" ht="20" customHeight="1">
-      <c r="A199" s="47"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="49"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="21"/>
-      <c r="H199" s="21"/>
-      <c r="I199" s="21"/>
-    </row>
-    <row r="200" spans="1:9" ht="20" customHeight="1">
-      <c r="A200" s="47"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="49"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
-      <c r="I200" s="21"/>
-    </row>
-    <row r="201" spans="1:9" ht="20" customHeight="1">
-      <c r="A201" s="47"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="49"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-      <c r="I201" s="21"/>
-    </row>
-    <row r="202" spans="1:9" ht="20" customHeight="1">
-      <c r="A202" s="47"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="49"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="21"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="21"/>
-    </row>
-    <row r="203" spans="1:9" ht="20" customHeight="1">
-      <c r="A203" s="47"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="50"/>
-      <c r="E203" s="25"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
-      <c r="I203" s="21"/>
-    </row>
-    <row r="204" spans="1:9" ht="20" customHeight="1">
-      <c r="A204" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D204" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E204" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="F204" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="G204" s="21"/>
-      <c r="H204" s="21"/>
-      <c r="I204" s="21"/>
-    </row>
-    <row r="205" spans="1:9" ht="20" customHeight="1">
-      <c r="A205" s="47"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="49"/>
-      <c r="E205" s="52"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
-    </row>
-    <row r="206" spans="1:9" ht="20" customHeight="1">
-      <c r="A206" s="47"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="49"/>
-      <c r="E206" s="52"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
-      <c r="I206" s="21"/>
-    </row>
-    <row r="207" spans="1:9" ht="20" customHeight="1">
-      <c r="A207" s="47"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="49"/>
-      <c r="E207" s="52"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="21"/>
-      <c r="H207" s="21"/>
-      <c r="I207" s="21"/>
-    </row>
-    <row r="208" spans="1:9" ht="20" customHeight="1">
-      <c r="A208" s="47"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="50"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="21"/>
-      <c r="H208" s="21"/>
-      <c r="I208" s="21"/>
-    </row>
-    <row r="209" spans="1:9" ht="20" customHeight="1">
-      <c r="A209" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D209" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E209" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="F209" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-      <c r="I209" s="21"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="36"/>
     </row>
     <row r="210" spans="1:9" ht="20" customHeight="1">
-      <c r="A210" s="47"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="49"/>
-      <c r="E210" s="52"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-      <c r="I210" s="21"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="36"/>
     </row>
     <row r="211" spans="1:9" ht="20" customHeight="1">
-      <c r="A211" s="47"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="49"/>
-      <c r="E211" s="52"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
+      <c r="A211" s="25"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="29"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="36"/>
     </row>
     <row r="212" spans="1:9" ht="20" customHeight="1">
-      <c r="A212" s="47"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="49"/>
-      <c r="E212" s="52"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="21"/>
-      <c r="H212" s="21"/>
-      <c r="I212" s="21"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="31"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="36"/>
     </row>
     <row r="213" spans="1:9" ht="20" customHeight="1">
-      <c r="A213" s="47"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="50"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="21"/>
-      <c r="H213" s="21"/>
-      <c r="I213" s="21"/>
+      <c r="A213" s="25"/>
+      <c r="B213" s="28"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="383">
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="M37:W37"/>
+    <mergeCell ref="M38:W38"/>
+    <mergeCell ref="M39:W39"/>
+    <mergeCell ref="M44:W44"/>
+    <mergeCell ref="M35:W35"/>
+    <mergeCell ref="M40:W40"/>
+    <mergeCell ref="M41:W41"/>
+    <mergeCell ref="M42:W42"/>
+    <mergeCell ref="M43:W43"/>
+    <mergeCell ref="M36:W36"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:D161"/>
+    <mergeCell ref="E156:E161"/>
+    <mergeCell ref="F156:F161"/>
+    <mergeCell ref="G156:G161"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="I156:I161"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="E162:E167"/>
+    <mergeCell ref="F162:F167"/>
+    <mergeCell ref="G162:G167"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="I162:I167"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="I174:I179"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="M66:S66"/>
+    <mergeCell ref="M67:S67"/>
+    <mergeCell ref="M68:S68"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="M70:S70"/>
+    <mergeCell ref="M71:S71"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="M73:S73"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="E180:E185"/>
+    <mergeCell ref="F180:F185"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="I180:I185"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="E186:E191"/>
+    <mergeCell ref="F186:F191"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="E198:E203"/>
+    <mergeCell ref="F198:F203"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="I198:I203"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:D197"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="F192:F197"/>
+    <mergeCell ref="G192:G197"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I192:I197"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="M47:S47"/>
     <mergeCell ref="A209:A213"/>
@@ -10669,365 +10989,6 @@
     <mergeCell ref="B198:B203"/>
     <mergeCell ref="C198:C203"/>
     <mergeCell ref="D198:D203"/>
-    <mergeCell ref="E198:E203"/>
-    <mergeCell ref="F198:F203"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="I198:I203"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="E192:E197"/>
-    <mergeCell ref="F192:F197"/>
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="E186:E191"/>
-    <mergeCell ref="F186:F191"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="M66:S66"/>
-    <mergeCell ref="M67:S67"/>
-    <mergeCell ref="M68:S68"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="M70:S70"/>
-    <mergeCell ref="M71:S71"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="M73:S73"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="E180:E185"/>
-    <mergeCell ref="F180:F185"/>
-    <mergeCell ref="G180:G185"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="I180:I185"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="I174:I179"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="E162:E167"/>
-    <mergeCell ref="F162:F167"/>
-    <mergeCell ref="G162:G167"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="I162:I167"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:D161"/>
-    <mergeCell ref="E156:E161"/>
-    <mergeCell ref="F156:F161"/>
-    <mergeCell ref="G156:G161"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="I156:I161"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="G150:G155"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="E144:E149"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="G144:G149"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="I144:I149"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="M37:W37"/>
-    <mergeCell ref="M38:W38"/>
-    <mergeCell ref="M39:W39"/>
-    <mergeCell ref="M44:W44"/>
-    <mergeCell ref="M35:W35"/>
-    <mergeCell ref="M40:W40"/>
-    <mergeCell ref="M41:W41"/>
-    <mergeCell ref="M42:W42"/>
-    <mergeCell ref="M43:W43"/>
-    <mergeCell ref="M36:W36"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2021/2.software-test-answer/テスト仕様書サンプル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB39A97-F661-9B42-A9D2-162074B76141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6E3E7-77AB-7542-9A55-6888558E4D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="事前準備用SQL" sheetId="4" r:id="rId1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="304">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -4411,6 +4411,40 @@
     </rPh>
     <rPh sb="63" eb="67">
       <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <rPh sb="0" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+異常系</t>
+    <rPh sb="0" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5302,7 +5336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5325,9 +5359,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
@@ -5366,6 +5397,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5377,135 +5537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -6293,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D13"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6310,182 +6341,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:23" ht="20">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="18" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="39">
         <v>43869</v>
       </c>
-      <c r="I2" s="48"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:23" ht="17">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:23" ht="20" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:23" ht="20" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:23" ht="20" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="20" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="L9" s="10" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="L9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
     </row>
     <row r="10" spans="1:23" ht="20" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="L10" s="2" t="s">
         <v>190</v>
       </c>
@@ -6524,15 +6555,15 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6549,15 +6580,15 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="20" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="L12" s="2" t="s">
         <v>48</v>
       </c>
@@ -6596,15 +6627,15 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
@@ -6643,27 +6674,27 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="L14" s="2" t="s">
         <v>56</v>
       </c>
@@ -6702,15 +6733,15 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="L15" s="2" t="s">
         <v>286</v>
       </c>
@@ -6749,15 +6780,15 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
@@ -6796,15 +6827,15 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="20" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="L17" s="2" t="s">
         <v>52</v>
       </c>
@@ -6843,15 +6874,15 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="20" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6890,27 +6921,27 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="20" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="L19" s="2" t="s">
         <v>54</v>
       </c>
@@ -6949,15 +6980,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="20" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="L20" s="2" t="s">
         <v>53</v>
       </c>
@@ -6996,38 +7027,38 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="14"/>
     </row>
     <row r="22" spans="1:23" ht="20" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="L22" s="4" t="s">
         <v>12</v>
       </c>
@@ -7044,15 +7075,15 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" ht="20" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="L23" s="2" t="s">
         <v>36</v>
       </c>
@@ -7091,27 +7122,27 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="20" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="L24" s="2" t="s">
         <v>37</v>
       </c>
@@ -7150,15 +7181,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="L25" s="2" t="s">
         <v>38</v>
       </c>
@@ -7197,15 +7228,15 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="20" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
@@ -7244,15 +7275,15 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="20" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="L27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7291,15 +7322,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="20" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="L28" s="2" t="s">
         <v>43</v>
       </c>
@@ -7338,27 +7369,27 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="L29" s="2" t="s">
         <v>14</v>
       </c>
@@ -7397,15 +7428,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
       <c r="L30" s="2" t="s">
         <v>39</v>
       </c>
@@ -7444,113 +7475,113 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="20" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
       <c r="L31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="S31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U31" s="11" t="s">
+      <c r="U31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="V31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="W31" s="12" t="s">
+      <c r="W31" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="20" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
       <c r="L32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="U32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="W32" s="12" t="s">
+      <c r="W32" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="L33" s="9" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="L33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N33" s="6" t="s">
@@ -7585,377 +7616,377 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="L35" s="10" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="L35" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="62" t="s">
+      <c r="M35" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="62"/>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="63"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="33"/>
     </row>
     <row r="36" spans="1:23" ht="20" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
       <c r="L36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="58" t="s">
+      <c r="M36" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="59"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="29"/>
     </row>
     <row r="37" spans="1:23" ht="20" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="L37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="55" t="s">
+      <c r="M37" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="57"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="27"/>
     </row>
     <row r="38" spans="1:23" ht="20" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="L38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="58" t="s">
+      <c r="M38" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="59"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="29"/>
     </row>
     <row r="39" spans="1:23" ht="20" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
       <c r="L39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="58" t="s">
+      <c r="M39" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="59"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="29"/>
     </row>
     <row r="40" spans="1:23" ht="20" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
       <c r="L40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="58" t="s">
+      <c r="M40" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="59"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="29"/>
     </row>
     <row r="41" spans="1:23" ht="20" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
       <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="64" t="s">
+      <c r="M41" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="66"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="36"/>
     </row>
     <row r="42" spans="1:23" ht="20" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
       <c r="L42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="58">
+      <c r="M42" s="28">
         <v>1234567</v>
       </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="59"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="29"/>
     </row>
     <row r="43" spans="1:23" ht="20" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
       <c r="L43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="58" t="s">
+      <c r="M43" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="59"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="29"/>
     </row>
     <row r="44" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
       <c r="L44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="60">
+      <c r="M44" s="30">
         <v>87654321</v>
       </c>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="61"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="31"/>
     </row>
     <row r="45" spans="1:23" ht="20" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:23" ht="20" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="L47" s="10" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="L47" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="24" t="s">
+      <c r="M47" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="23"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="65"/>
     </row>
     <row r="48" spans="1:23" ht="20" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
       <c r="L48" s="2" t="s">
         <v>190</v>
       </c>
@@ -7982,27 +8013,27 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
       <c r="L49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8015,15 +8046,15 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
       <c r="L50" s="2" t="s">
         <v>191</v>
       </c>
@@ -8050,15 +8081,15 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
       <c r="L51" s="2" t="s">
         <v>192</v>
       </c>
@@ -8085,15 +8116,15 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
       <c r="L52" s="2" t="s">
         <v>193</v>
       </c>
@@ -8120,15 +8151,15 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
       <c r="L53" s="2" t="s">
         <v>194</v>
       </c>
@@ -8155,27 +8186,27 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="20" customHeight="1">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
       <c r="L54" s="2" t="s">
         <v>195</v>
       </c>
@@ -8191,7 +8222,7 @@
       <c r="P54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q54" s="16" t="s">
+      <c r="Q54" s="15" t="s">
         <v>34</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -8202,15 +8233,15 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
       <c r="L55" s="2" t="s">
         <v>200</v>
       </c>
@@ -8229,7 +8260,7 @@
       <c r="Q55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R55" s="16" t="s">
+      <c r="R55" s="15" t="s">
         <v>34</v>
       </c>
       <c r="S55" s="3" t="s">
@@ -8237,15 +8268,15 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
       <c r="L56" s="2" t="s">
         <v>201</v>
       </c>
@@ -8267,39 +8298,39 @@
       <c r="R56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S56" s="17" t="s">
+      <c r="S56" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="20" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="15"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="14"/>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
       <c r="L58" s="4" t="s">
         <v>12</v>
       </c>
@@ -8312,27 +8343,27 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19" ht="20" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
       <c r="L59" s="2" t="s">
         <v>204</v>
       </c>
@@ -8359,15 +8390,15 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
       <c r="L60" s="2" t="s">
         <v>205</v>
       </c>
@@ -8394,16 +8425,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="L61" s="20" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="L61" s="19" t="s">
         <v>283</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -8429,28 +8460,28 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
       <c r="L62" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="10" t="s">
         <v>35</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -8464,28 +8495,28 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
       <c r="L63" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="10" t="s">
         <v>35</v>
       </c>
       <c r="Q63" s="1" t="s">
@@ -8499,34 +8530,34 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="L64" s="9" t="s">
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="L64" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N64" s="8" t="s">
+      <c r="N64" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O64" s="6" t="s">
@@ -8546,2085 +8577,2406 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:19" ht="20" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="L66" s="10" t="s">
+      <c r="A66" s="46"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="L66" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="37" t="s">
+      <c r="M66" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="39"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="56"/>
     </row>
     <row r="67" spans="1:19" ht="20" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
       <c r="L67" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="57">
         <v>0</v>
       </c>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="42"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="59"/>
     </row>
     <row r="68" spans="1:19" ht="20" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
       <c r="L68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="57">
         <v>10</v>
       </c>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="42"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="58"/>
+      <c r="S68" s="59"/>
     </row>
     <row r="69" spans="1:19" ht="20" customHeight="1">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
       <c r="L69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M69" s="40">
+      <c r="M69" s="57">
         <v>-1</v>
       </c>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="42"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="58"/>
+      <c r="R69" s="58"/>
+      <c r="S69" s="59"/>
     </row>
     <row r="70" spans="1:19" ht="20" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M70" s="40">
+      <c r="M70" s="57">
         <v>11</v>
       </c>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="42"/>
+      <c r="N70" s="58"/>
+      <c r="O70" s="58"/>
+      <c r="P70" s="58"/>
+      <c r="Q70" s="58"/>
+      <c r="R70" s="58"/>
+      <c r="S70" s="59"/>
     </row>
     <row r="71" spans="1:19" ht="20" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
       <c r="L71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M71" s="40" t="s">
+      <c r="M71" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="42"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="58"/>
+      <c r="S71" s="59"/>
     </row>
     <row r="72" spans="1:19" ht="20" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
       <c r="L72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="42"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="59"/>
     </row>
     <row r="73" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
       <c r="L73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="60">
         <v>1</v>
       </c>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="45"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="62"/>
     </row>
     <row r="74" spans="1:19" ht="20" customHeight="1">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:19" ht="20" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:19" ht="20" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:19" ht="20" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:19" ht="20" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:19" ht="20" customHeight="1">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="29" t="s">
+      <c r="B79" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E79" s="26" t="s">
+      <c r="E79" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:19" ht="20" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="20" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="20" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="20" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="A83" s="46"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" ht="20" customHeight="1">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+    </row>
+    <row r="85" spans="1:9" ht="20" customHeight="1">
+      <c r="A85" s="46"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+    </row>
+    <row r="86" spans="1:9" ht="20" customHeight="1">
+      <c r="A86" s="46"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+    </row>
+    <row r="87" spans="1:9" ht="20" customHeight="1">
+      <c r="A87" s="46"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+    </row>
+    <row r="88" spans="1:9" ht="20" customHeight="1">
+      <c r="A88" s="46"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+    </row>
+    <row r="89" spans="1:9" ht="20" customHeight="1">
+      <c r="A89" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+    </row>
+    <row r="90" spans="1:9" ht="20" customHeight="1">
+      <c r="A90" s="46"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+    </row>
+    <row r="91" spans="1:9" ht="20" customHeight="1">
+      <c r="A91" s="46"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+    </row>
+    <row r="92" spans="1:9" ht="20" customHeight="1">
+      <c r="A92" s="46"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+    </row>
+    <row r="93" spans="1:9" ht="20" customHeight="1">
+      <c r="A93" s="46"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+    </row>
+    <row r="94" spans="1:9" ht="20" customHeight="1">
+      <c r="A94" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+    </row>
+    <row r="95" spans="1:9" ht="20" customHeight="1">
+      <c r="A95" s="46"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+    </row>
+    <row r="96" spans="1:9" ht="20" customHeight="1">
+      <c r="A96" s="46"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+    </row>
+    <row r="97" spans="1:9" ht="20" customHeight="1">
+      <c r="A97" s="46"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+    </row>
+    <row r="98" spans="1:9" ht="20" customHeight="1">
+      <c r="A98" s="46"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+    </row>
+    <row r="99" spans="1:9" ht="20" customHeight="1">
+      <c r="A99" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+    </row>
+    <row r="100" spans="1:9" ht="20" customHeight="1">
+      <c r="A100" s="46"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+    </row>
+    <row r="101" spans="1:9" ht="20" customHeight="1">
+      <c r="A101" s="46"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+    </row>
+    <row r="102" spans="1:9" ht="20" customHeight="1">
+      <c r="A102" s="46"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+    </row>
+    <row r="103" spans="1:9" ht="20" customHeight="1">
+      <c r="A103" s="46"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+    </row>
+    <row r="104" spans="1:9" ht="20" customHeight="1">
+      <c r="A104" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+    </row>
+    <row r="105" spans="1:9" ht="20" customHeight="1">
+      <c r="A105" s="46"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+    </row>
+    <row r="106" spans="1:9" ht="20" customHeight="1">
+      <c r="A106" s="46"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+    </row>
+    <row r="107" spans="1:9" ht="20" customHeight="1">
+      <c r="A107" s="46"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="21"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+    </row>
+    <row r="108" spans="1:9" ht="20" customHeight="1">
+      <c r="A108" s="46"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+    </row>
+    <row r="109" spans="1:9" ht="20" customHeight="1">
+      <c r="A109" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+    </row>
+    <row r="110" spans="1:9" ht="20" customHeight="1">
+      <c r="A110" s="46"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+    </row>
+    <row r="111" spans="1:9" ht="20" customHeight="1">
+      <c r="A111" s="46"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+    </row>
+    <row r="112" spans="1:9" ht="20" customHeight="1">
+      <c r="A112" s="46"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+    </row>
+    <row r="113" spans="1:9" ht="20" customHeight="1">
+      <c r="A113" s="46"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+    </row>
+    <row r="114" spans="1:9" ht="20" customHeight="1">
+      <c r="A114" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+    </row>
+    <row r="115" spans="1:9" ht="20" customHeight="1">
+      <c r="A115" s="46"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+    </row>
+    <row r="116" spans="1:9" ht="20" customHeight="1">
+      <c r="A116" s="46"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+    </row>
+    <row r="117" spans="1:9" ht="20" customHeight="1">
+      <c r="A117" s="46"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+    </row>
+    <row r="118" spans="1:9" ht="20" customHeight="1">
+      <c r="A118" s="46"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="21"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+    </row>
+    <row r="119" spans="1:9" ht="20" customHeight="1">
+      <c r="A119" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+    </row>
+    <row r="120" spans="1:9" ht="20" customHeight="1">
+      <c r="A120" s="46"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="21"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+    </row>
+    <row r="121" spans="1:9" ht="20" customHeight="1">
+      <c r="A121" s="46"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="21"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+    </row>
+    <row r="122" spans="1:9" ht="20" customHeight="1">
+      <c r="A122" s="46"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+    </row>
+    <row r="123" spans="1:9" ht="20" customHeight="1">
+      <c r="A123" s="46"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+    </row>
+    <row r="124" spans="1:9" ht="20" customHeight="1">
+      <c r="A124" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+    </row>
+    <row r="125" spans="1:9" ht="20" customHeight="1">
+      <c r="A125" s="46"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+    </row>
+    <row r="126" spans="1:9" ht="20" customHeight="1">
+      <c r="A126" s="46"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+    </row>
+    <row r="127" spans="1:9" ht="20" customHeight="1">
+      <c r="A127" s="46"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+    </row>
+    <row r="128" spans="1:9" ht="20" customHeight="1">
+      <c r="A128" s="46"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+    </row>
+    <row r="129" spans="1:9" ht="20" customHeight="1">
+      <c r="A129" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+    </row>
+    <row r="130" spans="1:9" ht="20" customHeight="1">
+      <c r="A130" s="46"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+    </row>
+    <row r="131" spans="1:9" ht="20" customHeight="1">
+      <c r="A131" s="46"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+    </row>
+    <row r="132" spans="1:9" ht="20" customHeight="1">
+      <c r="A132" s="46"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+    </row>
+    <row r="133" spans="1:9" ht="20" customHeight="1">
+      <c r="A133" s="46"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+    </row>
+    <row r="134" spans="1:9" ht="20" customHeight="1">
+      <c r="A134" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+    </row>
+    <row r="135" spans="1:9" ht="20" customHeight="1">
+      <c r="A135" s="46"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+    </row>
+    <row r="136" spans="1:9" ht="20" customHeight="1">
+      <c r="A136" s="46"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+    </row>
+    <row r="137" spans="1:9" ht="20" customHeight="1">
+      <c r="A137" s="46"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+    </row>
+    <row r="138" spans="1:9" ht="20" customHeight="1">
+      <c r="A138" s="46"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+    </row>
+    <row r="139" spans="1:9" ht="20" customHeight="1">
+      <c r="A139" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-    </row>
-    <row r="85" spans="1:9" ht="20" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-    </row>
-    <row r="86" spans="1:9" ht="20" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
-    </row>
-    <row r="87" spans="1:9" ht="20" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-    </row>
-    <row r="88" spans="1:9" ht="20" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-    </row>
-    <row r="89" spans="1:9" ht="20" customHeight="1">
-      <c r="A89" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="26" t="s">
+      <c r="C139" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+    </row>
+    <row r="140" spans="1:9" ht="20" customHeight="1">
+      <c r="A140" s="46"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+    </row>
+    <row r="141" spans="1:9" ht="20" customHeight="1">
+      <c r="A141" s="46"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+    </row>
+    <row r="142" spans="1:9" ht="20" customHeight="1">
+      <c r="A142" s="46"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+    </row>
+    <row r="143" spans="1:9" ht="20" customHeight="1">
+      <c r="A143" s="46"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+    </row>
+    <row r="144" spans="1:9" ht="20" customHeight="1">
+      <c r="A144" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+    </row>
+    <row r="145" spans="1:9" ht="20" customHeight="1">
+      <c r="A145" s="46"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="48"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="21"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+    </row>
+    <row r="146" spans="1:9" ht="20" customHeight="1">
+      <c r="A146" s="46"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="21"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+    </row>
+    <row r="147" spans="1:9" ht="20" customHeight="1">
+      <c r="A147" s="46"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="48"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+    </row>
+    <row r="148" spans="1:9" ht="20" customHeight="1">
+      <c r="A148" s="46"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+    </row>
+    <row r="149" spans="1:9" ht="20" customHeight="1">
+      <c r="A149" s="46"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" ht="20" customHeight="1">
+      <c r="A150" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F150" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+    </row>
+    <row r="151" spans="1:9" ht="20" customHeight="1">
+      <c r="A151" s="46"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="48"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+    </row>
+    <row r="152" spans="1:9" ht="20" customHeight="1">
+      <c r="A152" s="46"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+    </row>
+    <row r="153" spans="1:9" ht="20" customHeight="1">
+      <c r="A153" s="46"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+    </row>
+    <row r="154" spans="1:9" ht="20" customHeight="1">
+      <c r="A154" s="46"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+    </row>
+    <row r="155" spans="1:9" ht="20" customHeight="1">
+      <c r="A155" s="46"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+    </row>
+    <row r="156" spans="1:9" ht="20" customHeight="1">
+      <c r="A156" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+    </row>
+    <row r="157" spans="1:9" ht="20" customHeight="1">
+      <c r="A157" s="46"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+    </row>
+    <row r="158" spans="1:9" ht="20" customHeight="1">
+      <c r="A158" s="46"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+    </row>
+    <row r="159" spans="1:9" ht="20" customHeight="1">
+      <c r="A159" s="46"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="21"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+    </row>
+    <row r="160" spans="1:9" ht="20" customHeight="1">
+      <c r="A160" s="46"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+    </row>
+    <row r="161" spans="1:9" ht="20" customHeight="1">
+      <c r="A161" s="46"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+    </row>
+    <row r="162" spans="1:9" ht="20" customHeight="1">
+      <c r="A162" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+    </row>
+    <row r="163" spans="1:9" ht="20" customHeight="1">
+      <c r="A163" s="46"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="48"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+    </row>
+    <row r="164" spans="1:9" ht="20" customHeight="1">
+      <c r="A164" s="46"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="21"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+    </row>
+    <row r="165" spans="1:9" ht="20" customHeight="1">
+      <c r="A165" s="46"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="48"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+    </row>
+    <row r="166" spans="1:9" ht="20" customHeight="1">
+      <c r="A166" s="46"/>
+      <c r="B166" s="23"/>
+      <c r="C166" s="21"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+    </row>
+    <row r="167" spans="1:9" ht="20" customHeight="1">
+      <c r="A167" s="46"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+    </row>
+    <row r="168" spans="1:9" ht="20" customHeight="1">
+      <c r="A168" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D168" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F168" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+    </row>
+    <row r="169" spans="1:9" ht="20" customHeight="1">
+      <c r="A169" s="46"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+    </row>
+    <row r="170" spans="1:9" ht="20" customHeight="1">
+      <c r="A170" s="46"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+    </row>
+    <row r="171" spans="1:9" ht="20" customHeight="1">
+      <c r="A171" s="46"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+    </row>
+    <row r="172" spans="1:9" ht="20" customHeight="1">
+      <c r="A172" s="46"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="21"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+    </row>
+    <row r="173" spans="1:9" ht="20" customHeight="1">
+      <c r="A173" s="46"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="49"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+    </row>
+    <row r="174" spans="1:9" ht="20" customHeight="1">
+      <c r="A174" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F174" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+    </row>
+    <row r="175" spans="1:9" ht="20" customHeight="1">
+      <c r="A175" s="46"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+    </row>
+    <row r="176" spans="1:9" ht="20" customHeight="1">
+      <c r="A176" s="46"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+    </row>
+    <row r="177" spans="1:9" ht="20" customHeight="1">
+      <c r="A177" s="46"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+    </row>
+    <row r="178" spans="1:9" ht="20" customHeight="1">
+      <c r="A178" s="46"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="21"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+    </row>
+    <row r="179" spans="1:9" ht="20" customHeight="1">
+      <c r="A179" s="46"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+    </row>
+    <row r="180" spans="1:9" ht="20" customHeight="1">
+      <c r="A180" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E180" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F180" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+    </row>
+    <row r="181" spans="1:9" ht="20" customHeight="1">
+      <c r="A181" s="46"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+    </row>
+    <row r="182" spans="1:9" ht="20" customHeight="1">
+      <c r="A182" s="46"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="21"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+    </row>
+    <row r="183" spans="1:9" ht="20" customHeight="1">
+      <c r="A183" s="46"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+    </row>
+    <row r="184" spans="1:9" ht="20" customHeight="1">
+      <c r="A184" s="46"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+    </row>
+    <row r="185" spans="1:9" ht="20" customHeight="1">
+      <c r="A185" s="46"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+    </row>
+    <row r="186" spans="1:9" ht="20" customHeight="1">
+      <c r="A186" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D186" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F186" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+    </row>
+    <row r="187" spans="1:9" ht="20" customHeight="1">
+      <c r="A187" s="46"/>
+      <c r="B187" s="23"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+    </row>
+    <row r="188" spans="1:9" ht="20" customHeight="1">
+      <c r="A188" s="46"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="21"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+    </row>
+    <row r="189" spans="1:9" ht="20" customHeight="1">
+      <c r="A189" s="46"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+    </row>
+    <row r="190" spans="1:9" ht="20" customHeight="1">
+      <c r="A190" s="46"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+    </row>
+    <row r="191" spans="1:9" ht="20" customHeight="1">
+      <c r="A191" s="46"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="49"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+    </row>
+    <row r="192" spans="1:9" ht="20" customHeight="1">
+      <c r="A192" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D192" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F192" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+    </row>
+    <row r="193" spans="1:9" ht="20" customHeight="1">
+      <c r="A193" s="46"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="21"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+    </row>
+    <row r="194" spans="1:9" ht="20" customHeight="1">
+      <c r="A194" s="46"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="21"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+    </row>
+    <row r="195" spans="1:9" ht="20" customHeight="1">
+      <c r="A195" s="46"/>
+      <c r="B195" s="23"/>
+      <c r="C195" s="21"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+    </row>
+    <row r="196" spans="1:9" ht="20" customHeight="1">
+      <c r="A196" s="46"/>
+      <c r="B196" s="23"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+    </row>
+    <row r="197" spans="1:9" ht="20" customHeight="1">
+      <c r="A197" s="46"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="21"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+    </row>
+    <row r="198" spans="1:9" ht="20" customHeight="1">
+      <c r="A198" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F198" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+    </row>
+    <row r="199" spans="1:9" ht="20" customHeight="1">
+      <c r="A199" s="46"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+    </row>
+    <row r="200" spans="1:9" ht="20" customHeight="1">
+      <c r="A200" s="46"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="21"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+    </row>
+    <row r="201" spans="1:9" ht="20" customHeight="1">
+      <c r="A201" s="46"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+    </row>
+    <row r="202" spans="1:9" ht="20" customHeight="1">
+      <c r="A202" s="46"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="21"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+    </row>
+    <row r="203" spans="1:9" ht="20" customHeight="1">
+      <c r="A203" s="46"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="49"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+    </row>
+    <row r="204" spans="1:9" ht="20" customHeight="1">
+      <c r="A204" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-    </row>
-    <row r="90" spans="1:9" ht="20" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-    </row>
-    <row r="91" spans="1:9" ht="20" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-    </row>
-    <row r="92" spans="1:9" ht="20" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" spans="1:9" ht="20" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-    </row>
-    <row r="94" spans="1:9" ht="20" customHeight="1">
-      <c r="A94" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" s="26" t="s">
+      <c r="C204" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D204" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="E204" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F204" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+    </row>
+    <row r="205" spans="1:9" ht="20" customHeight="1">
+      <c r="A205" s="46"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="51"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+    </row>
+    <row r="206" spans="1:9" ht="20" customHeight="1">
+      <c r="A206" s="46"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="21"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="51"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+    </row>
+    <row r="207" spans="1:9" ht="20" customHeight="1">
+      <c r="A207" s="46"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="48"/>
+      <c r="E207" s="51"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+    </row>
+    <row r="208" spans="1:9" ht="20" customHeight="1">
+      <c r="A208" s="46"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="49"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+    </row>
+    <row r="209" spans="1:9" ht="20" customHeight="1">
+      <c r="A209" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-    </row>
-    <row r="95" spans="1:9" ht="20" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-    </row>
-    <row r="96" spans="1:9" ht="20" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-    </row>
-    <row r="97" spans="1:9" ht="20" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-    </row>
-    <row r="98" spans="1:9" ht="20" customHeight="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
-    </row>
-    <row r="99" spans="1:9" ht="20" customHeight="1">
-      <c r="A99" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C99" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="30" t="s">
+      <c r="C209" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D209" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="E99" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F99" s="29" t="s">
+      <c r="E209" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F209" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-    </row>
-    <row r="100" spans="1:9" ht="20" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-    </row>
-    <row r="101" spans="1:9" ht="20" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
-    </row>
-    <row r="102" spans="1:9" ht="20" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-    </row>
-    <row r="103" spans="1:9" ht="20" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-    </row>
-    <row r="104" spans="1:9" ht="20" customHeight="1">
-      <c r="A104" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-    </row>
-    <row r="105" spans="1:9" ht="20" customHeight="1">
-      <c r="A105" s="25"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-    </row>
-    <row r="106" spans="1:9" ht="20" customHeight="1">
-      <c r="A106" s="25"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-    </row>
-    <row r="107" spans="1:9" ht="20" customHeight="1">
-      <c r="A107" s="25"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36"/>
-    </row>
-    <row r="108" spans="1:9" ht="20" customHeight="1">
-      <c r="A108" s="25"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36"/>
-    </row>
-    <row r="109" spans="1:9" ht="20" customHeight="1">
-      <c r="A109" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36"/>
-    </row>
-    <row r="110" spans="1:9" ht="20" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-    </row>
-    <row r="111" spans="1:9" ht="20" customHeight="1">
-      <c r="A111" s="25"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-    </row>
-    <row r="112" spans="1:9" ht="20" customHeight="1">
-      <c r="A112" s="25"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-    </row>
-    <row r="113" spans="1:9" ht="20" customHeight="1">
-      <c r="A113" s="25"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-    </row>
-    <row r="114" spans="1:9" ht="20" customHeight="1">
-      <c r="A114" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F114" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36"/>
-    </row>
-    <row r="115" spans="1:9" ht="20" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36"/>
-    </row>
-    <row r="116" spans="1:9" ht="20" customHeight="1">
-      <c r="A116" s="25"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36"/>
-    </row>
-    <row r="117" spans="1:9" ht="20" customHeight="1">
-      <c r="A117" s="25"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36"/>
-    </row>
-    <row r="118" spans="1:9" ht="20" customHeight="1">
-      <c r="A118" s="25"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-    </row>
-    <row r="119" spans="1:9" ht="20" customHeight="1">
-      <c r="A119" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-    </row>
-    <row r="120" spans="1:9" ht="20" customHeight="1">
-      <c r="A120" s="25"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
-    </row>
-    <row r="121" spans="1:9" ht="20" customHeight="1">
-      <c r="A121" s="25"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-    </row>
-    <row r="122" spans="1:9" ht="20" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-    </row>
-    <row r="123" spans="1:9" ht="20" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-    </row>
-    <row r="124" spans="1:9" ht="20" customHeight="1">
-      <c r="A124" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
-    </row>
-    <row r="125" spans="1:9" ht="20" customHeight="1">
-      <c r="A125" s="25"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-    </row>
-    <row r="126" spans="1:9" ht="20" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-    </row>
-    <row r="127" spans="1:9" ht="20" customHeight="1">
-      <c r="A127" s="25"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-    </row>
-    <row r="128" spans="1:9" ht="20" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-    </row>
-    <row r="129" spans="1:9" ht="20" customHeight="1">
-      <c r="A129" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
-    </row>
-    <row r="130" spans="1:9" ht="20" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
-    </row>
-    <row r="131" spans="1:9" ht="20" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-    </row>
-    <row r="132" spans="1:9" ht="20" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
-    </row>
-    <row r="133" spans="1:9" ht="20" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="29"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-    </row>
-    <row r="134" spans="1:9" ht="20" customHeight="1">
-      <c r="A134" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F134" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-    </row>
-    <row r="135" spans="1:9" ht="20" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="27"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-    </row>
-    <row r="136" spans="1:9" ht="20" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-    </row>
-    <row r="137" spans="1:9" ht="20" customHeight="1">
-      <c r="A137" s="25"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
-    </row>
-    <row r="138" spans="1:9" ht="20" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="28"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
-    </row>
-    <row r="139" spans="1:9" ht="20" customHeight="1">
-      <c r="A139" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B139" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D139" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-    </row>
-    <row r="140" spans="1:9" ht="20" customHeight="1">
-      <c r="A140" s="25"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="36"/>
-      <c r="H140" s="36"/>
-      <c r="I140" s="36"/>
-    </row>
-    <row r="141" spans="1:9" ht="20" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
-      <c r="I141" s="36"/>
-    </row>
-    <row r="142" spans="1:9" ht="20" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-    </row>
-    <row r="143" spans="1:9" ht="20" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-    </row>
-    <row r="144" spans="1:9" ht="20" customHeight="1">
-      <c r="A144" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B144" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="F144" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="36"/>
-    </row>
-    <row r="145" spans="1:9" ht="20" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="36"/>
-    </row>
-    <row r="146" spans="1:9" ht="20" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-    </row>
-    <row r="147" spans="1:9" ht="20" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-    </row>
-    <row r="148" spans="1:9" ht="20" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="36"/>
-    </row>
-    <row r="149" spans="1:9" ht="20" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="36"/>
-    </row>
-    <row r="150" spans="1:9" ht="20" customHeight="1">
-      <c r="A150" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="F150" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="36"/>
-    </row>
-    <row r="151" spans="1:9" ht="20" customHeight="1">
-      <c r="A151" s="25"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="36"/>
-    </row>
-    <row r="152" spans="1:9" ht="20" customHeight="1">
-      <c r="A152" s="25"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="36"/>
-    </row>
-    <row r="153" spans="1:9" ht="20" customHeight="1">
-      <c r="A153" s="25"/>
-      <c r="B153" s="27"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="36"/>
-    </row>
-    <row r="154" spans="1:9" ht="20" customHeight="1">
-      <c r="A154" s="25"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-    </row>
-    <row r="155" spans="1:9" ht="20" customHeight="1">
-      <c r="A155" s="25"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-    </row>
-    <row r="156" spans="1:9" ht="20" customHeight="1">
-      <c r="A156" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="F156" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-    </row>
-    <row r="157" spans="1:9" ht="20" customHeight="1">
-      <c r="A157" s="25"/>
-      <c r="B157" s="27"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="36"/>
-    </row>
-    <row r="158" spans="1:9" ht="20" customHeight="1">
-      <c r="A158" s="25"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-    </row>
-    <row r="159" spans="1:9" ht="20" customHeight="1">
-      <c r="A159" s="25"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-    </row>
-    <row r="160" spans="1:9" ht="20" customHeight="1">
-      <c r="A160" s="25"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="36"/>
-    </row>
-    <row r="161" spans="1:9" ht="20" customHeight="1">
-      <c r="A161" s="25"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="36"/>
-    </row>
-    <row r="162" spans="1:9" ht="20" customHeight="1">
-      <c r="A162" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B162" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E162" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F162" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="36"/>
-    </row>
-    <row r="163" spans="1:9" ht="20" customHeight="1">
-      <c r="A163" s="25"/>
-      <c r="B163" s="27"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="36"/>
-    </row>
-    <row r="164" spans="1:9" ht="20" customHeight="1">
-      <c r="A164" s="25"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="29"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="36"/>
-    </row>
-    <row r="165" spans="1:9" ht="20" customHeight="1">
-      <c r="A165" s="25"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="36"/>
-    </row>
-    <row r="166" spans="1:9" ht="20" customHeight="1">
-      <c r="A166" s="25"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="36"/>
-    </row>
-    <row r="167" spans="1:9" ht="20" customHeight="1">
-      <c r="A167" s="25"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="36"/>
-    </row>
-    <row r="168" spans="1:9" ht="20" customHeight="1">
-      <c r="A168" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C168" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="D168" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E168" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F168" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="36"/>
-    </row>
-    <row r="169" spans="1:9" ht="20" customHeight="1">
-      <c r="A169" s="25"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
-    </row>
-    <row r="170" spans="1:9" ht="20" customHeight="1">
-      <c r="A170" s="25"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="36"/>
-    </row>
-    <row r="171" spans="1:9" ht="20" customHeight="1">
-      <c r="A171" s="25"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="36"/>
-      <c r="H171" s="36"/>
-      <c r="I171" s="36"/>
-    </row>
-    <row r="172" spans="1:9" ht="20" customHeight="1">
-      <c r="A172" s="25"/>
-      <c r="B172" s="27"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="36"/>
-    </row>
-    <row r="173" spans="1:9" ht="20" customHeight="1">
-      <c r="A173" s="25"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="36"/>
-    </row>
-    <row r="174" spans="1:9" ht="20" customHeight="1">
-      <c r="A174" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D174" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E174" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="F174" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-    </row>
-    <row r="175" spans="1:9" ht="20" customHeight="1">
-      <c r="A175" s="25"/>
-      <c r="B175" s="27"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-    </row>
-    <row r="176" spans="1:9" ht="20" customHeight="1">
-      <c r="A176" s="25"/>
-      <c r="B176" s="27"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="36"/>
-    </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1">
-      <c r="A177" s="25"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="31"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="36"/>
-    </row>
-    <row r="178" spans="1:9" ht="20" customHeight="1">
-      <c r="A178" s="25"/>
-      <c r="B178" s="27"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-    </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="32"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="29"/>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-    </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1">
-      <c r="A180" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D180" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E180" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F180" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="36"/>
-    </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1">
-      <c r="A181" s="25"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-    </row>
-    <row r="182" spans="1:9" ht="20" customHeight="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="36"/>
-    </row>
-    <row r="183" spans="1:9" ht="20" customHeight="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="31"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="36"/>
-    </row>
-    <row r="184" spans="1:9" ht="20" customHeight="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="27"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-    </row>
-    <row r="185" spans="1:9" ht="20" customHeight="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="28"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="36"/>
-    </row>
-    <row r="186" spans="1:9" ht="20" customHeight="1">
-      <c r="A186" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="D186" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E186" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="F186" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-    </row>
-    <row r="187" spans="1:9" ht="20" customHeight="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="31"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
-    </row>
-    <row r="188" spans="1:9" ht="20" customHeight="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-    </row>
-    <row r="189" spans="1:9" ht="20" customHeight="1">
-      <c r="A189" s="25"/>
-      <c r="B189" s="27"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="31"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="36"/>
-    </row>
-    <row r="190" spans="1:9" ht="20" customHeight="1">
-      <c r="A190" s="25"/>
-      <c r="B190" s="27"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
-    </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1">
-      <c r="A191" s="25"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="28"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-    </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1">
-      <c r="A192" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C192" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="D192" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="E192" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="F192" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="36"/>
-    </row>
-    <row r="193" spans="1:9" ht="20" customHeight="1">
-      <c r="A193" s="25"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="36"/>
-    </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="27"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="27"/>
-      <c r="F194" s="29"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
-    </row>
-    <row r="195" spans="1:9" ht="20" customHeight="1">
-      <c r="A195" s="25"/>
-      <c r="B195" s="27"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="31"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="29"/>
-      <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
-      <c r="I195" s="36"/>
-    </row>
-    <row r="196" spans="1:9" ht="20" customHeight="1">
-      <c r="A196" s="25"/>
-      <c r="B196" s="27"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="31"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="29"/>
-      <c r="G196" s="36"/>
-      <c r="H196" s="36"/>
-      <c r="I196" s="36"/>
-    </row>
-    <row r="197" spans="1:9" ht="20" customHeight="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-      <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="36"/>
-    </row>
-    <row r="198" spans="1:9" ht="20" customHeight="1">
-      <c r="A198" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B198" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C198" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="D198" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="E198" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F198" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
-    </row>
-    <row r="199" spans="1:9" ht="20" customHeight="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="27"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="36"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="36"/>
-    </row>
-    <row r="200" spans="1:9" ht="20" customHeight="1">
-      <c r="A200" s="25"/>
-      <c r="B200" s="27"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="36"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="36"/>
-    </row>
-    <row r="201" spans="1:9" ht="20" customHeight="1">
-      <c r="A201" s="25"/>
-      <c r="B201" s="27"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
-    </row>
-    <row r="202" spans="1:9" ht="20" customHeight="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="36"/>
-      <c r="H202" s="36"/>
-      <c r="I202" s="36"/>
-    </row>
-    <row r="203" spans="1:9" ht="20" customHeight="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="36"/>
-      <c r="H203" s="36"/>
-      <c r="I203" s="36"/>
-    </row>
-    <row r="204" spans="1:9" ht="20" customHeight="1">
-      <c r="A204" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E204" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="F204" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G204" s="36"/>
-      <c r="H204" s="36"/>
-      <c r="I204" s="36"/>
-    </row>
-    <row r="205" spans="1:9" ht="20" customHeight="1">
-      <c r="A205" s="25"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="36"/>
-    </row>
-    <row r="206" spans="1:9" ht="20" customHeight="1">
-      <c r="A206" s="25"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="36"/>
-      <c r="H206" s="36"/>
-      <c r="I206" s="36"/>
-    </row>
-    <row r="207" spans="1:9" ht="20" customHeight="1">
-      <c r="A207" s="25"/>
-      <c r="B207" s="27"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="36"/>
-    </row>
-    <row r="208" spans="1:9" ht="20" customHeight="1">
-      <c r="A208" s="25"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="35"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="36"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="36"/>
-    </row>
-    <row r="209" spans="1:9" ht="20" customHeight="1">
-      <c r="A209" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="D209" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="E209" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="F209" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G209" s="36"/>
-      <c r="H209" s="36"/>
-      <c r="I209" s="36"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
     </row>
     <row r="210" spans="1:9" ht="20" customHeight="1">
-      <c r="A210" s="25"/>
-      <c r="B210" s="27"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="31"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="36"/>
-      <c r="H210" s="36"/>
-      <c r="I210" s="36"/>
+      <c r="A210" s="46"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="51"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
     </row>
     <row r="211" spans="1:9" ht="20" customHeight="1">
-      <c r="A211" s="25"/>
-      <c r="B211" s="27"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="29"/>
-      <c r="G211" s="36"/>
-      <c r="H211" s="36"/>
-      <c r="I211" s="36"/>
+      <c r="A211" s="46"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
     </row>
     <row r="212" spans="1:9" ht="20" customHeight="1">
-      <c r="A212" s="25"/>
-      <c r="B212" s="27"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="31"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="29"/>
-      <c r="G212" s="36"/>
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
+      <c r="A212" s="46"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="51"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
     </row>
     <row r="213" spans="1:9" ht="20" customHeight="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="35"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
-      <c r="I213" s="36"/>
+      <c r="A213" s="46"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="49"/>
+      <c r="E213" s="52"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="383">
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="M9:W9"/>
+    <mergeCell ref="M47:S47"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="C209:C213"/>
+    <mergeCell ref="D209:D213"/>
+    <mergeCell ref="E209:E213"/>
+    <mergeCell ref="F209:F213"/>
+    <mergeCell ref="G209:G213"/>
+    <mergeCell ref="H209:H213"/>
+    <mergeCell ref="I209:I213"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C204:C208"/>
+    <mergeCell ref="D204:D208"/>
+    <mergeCell ref="E204:E208"/>
+    <mergeCell ref="F204:F208"/>
+    <mergeCell ref="G204:G208"/>
+    <mergeCell ref="H204:H208"/>
+    <mergeCell ref="I204:I208"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="C198:C203"/>
+    <mergeCell ref="D198:D203"/>
+    <mergeCell ref="E198:E203"/>
+    <mergeCell ref="F198:F203"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="I198:I203"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:D197"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="F192:F197"/>
+    <mergeCell ref="G192:G197"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I192:I197"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="E186:E191"/>
+    <mergeCell ref="F186:F191"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="M66:S66"/>
+    <mergeCell ref="M67:S67"/>
+    <mergeCell ref="M68:S68"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="M70:S70"/>
+    <mergeCell ref="M71:S71"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="M73:S73"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="E180:E185"/>
+    <mergeCell ref="F180:F185"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="I180:I185"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="I174:I179"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="E162:E167"/>
+    <mergeCell ref="F162:F167"/>
+    <mergeCell ref="G162:G167"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="I162:I167"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:D161"/>
+    <mergeCell ref="E156:E161"/>
+    <mergeCell ref="F156:F161"/>
+    <mergeCell ref="G156:G161"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="I156:I161"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
     <mergeCell ref="D59:D63"/>
     <mergeCell ref="M37:W37"/>
     <mergeCell ref="M38:W38"/>
@@ -10649,346 +11001,25 @@
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="G34:G38"/>
     <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="E144:E149"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="G144:G149"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="I144:I149"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="G150:G155"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:D161"/>
-    <mergeCell ref="E156:E161"/>
-    <mergeCell ref="F156:F161"/>
-    <mergeCell ref="G156:G161"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="I156:I161"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="E162:E167"/>
-    <mergeCell ref="F162:F167"/>
-    <mergeCell ref="G162:G167"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="I162:I167"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="I174:I179"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="M66:S66"/>
-    <mergeCell ref="M67:S67"/>
-    <mergeCell ref="M68:S68"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="M70:S70"/>
-    <mergeCell ref="M71:S71"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="M73:S73"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="E180:E185"/>
-    <mergeCell ref="F180:F185"/>
-    <mergeCell ref="G180:G185"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="I180:I185"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="E186:E191"/>
-    <mergeCell ref="F186:F191"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="E198:E203"/>
-    <mergeCell ref="F198:F203"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="I198:I203"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="E192:E197"/>
-    <mergeCell ref="F192:F197"/>
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="M9:W9"/>
-    <mergeCell ref="M47:S47"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="C209:C213"/>
-    <mergeCell ref="D209:D213"/>
-    <mergeCell ref="E209:E213"/>
-    <mergeCell ref="F209:F213"/>
-    <mergeCell ref="G209:G213"/>
-    <mergeCell ref="H209:H213"/>
-    <mergeCell ref="I209:I213"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="C204:C208"/>
-    <mergeCell ref="D204:D208"/>
-    <mergeCell ref="E204:E208"/>
-    <mergeCell ref="F204:F208"/>
-    <mergeCell ref="G204:G208"/>
-    <mergeCell ref="H204:H208"/>
-    <mergeCell ref="I204:I208"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="C198:C203"/>
-    <mergeCell ref="D198:D203"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/sts-workspace2023/2.software-test-answer/テスト仕様書サンプル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/intellij-spring-project/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6E3E7-77AB-7542-9A55-6888558E4D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC70C2-2B88-A841-AEB2-F2F129C6B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="303">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -4411,23 +4411,6 @@
     </rPh>
     <rPh sb="63" eb="67">
       <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力系画面
-正常系</t>
-    <rPh sb="0" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>セイジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5397,20 +5380,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -5450,93 +5520,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -5951,8 +5934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A23" zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="14"/>
@@ -6324,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="137" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6341,36 +6324,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="20">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="47">
         <v>43869</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:23" ht="17">
       <c r="A3" s="18" t="s">
@@ -6402,121 +6385,121 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:23" ht="20" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:23" ht="20" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:23" ht="20" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:23" ht="20" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="L9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="65"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="20" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="L10" s="2" t="s">
         <v>190</v>
       </c>
@@ -6555,15 +6538,15 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="20" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="L11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6580,15 +6563,15 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="20" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="L12" s="2" t="s">
         <v>48</v>
       </c>
@@ -6627,15 +6610,15 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="L13" s="2" t="s">
         <v>49</v>
       </c>
@@ -6674,27 +6657,27 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="20" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="L14" s="2" t="s">
         <v>56</v>
       </c>
@@ -6733,15 +6716,15 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="20" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="L15" s="2" t="s">
         <v>286</v>
       </c>
@@ -6780,15 +6763,15 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="20" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="L16" s="2" t="s">
         <v>51</v>
       </c>
@@ -6827,15 +6810,15 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="20" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
       <c r="L17" s="2" t="s">
         <v>52</v>
       </c>
@@ -6874,15 +6857,15 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="20" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="L18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6921,27 +6904,27 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="20" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
       <c r="L19" s="2" t="s">
         <v>54</v>
       </c>
@@ -6980,15 +6963,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="20" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
       <c r="L20" s="2" t="s">
         <v>53</v>
       </c>
@@ -7027,15 +7010,15 @@
       </c>
     </row>
     <row r="21" spans="1:23" ht="20" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
       <c r="L21" s="12"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
@@ -7050,15 +7033,15 @@
       <c r="W21" s="14"/>
     </row>
     <row r="22" spans="1:23" ht="20" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
       <c r="L22" s="4" t="s">
         <v>12</v>
       </c>
@@ -7075,15 +7058,15 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" ht="20" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
       <c r="L23" s="2" t="s">
         <v>36</v>
       </c>
@@ -7122,27 +7105,27 @@
       </c>
     </row>
     <row r="24" spans="1:23" ht="20" customHeight="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
       <c r="L24" s="2" t="s">
         <v>37</v>
       </c>
@@ -7181,15 +7164,15 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20" customHeight="1">
-      <c r="A25" s="46"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
       <c r="L25" s="2" t="s">
         <v>38</v>
       </c>
@@ -7228,15 +7211,15 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="20" customHeight="1">
-      <c r="A26" s="46"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
       <c r="L26" s="2" t="s">
         <v>40</v>
       </c>
@@ -7275,15 +7258,15 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="20" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="L27" s="2" t="s">
         <v>13</v>
       </c>
@@ -7322,15 +7305,15 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="20" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
       <c r="L28" s="2" t="s">
         <v>43</v>
       </c>
@@ -7369,27 +7352,27 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="20" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
       <c r="L29" s="2" t="s">
         <v>14</v>
       </c>
@@ -7428,15 +7411,15 @@
       </c>
     </row>
     <row r="30" spans="1:23" ht="20" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
       <c r="L30" s="2" t="s">
         <v>39</v>
       </c>
@@ -7475,15 +7458,15 @@
       </c>
     </row>
     <row r="31" spans="1:23" ht="20" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
       <c r="L31" s="4" t="s">
         <v>41</v>
       </c>
@@ -7522,15 +7505,15 @@
       </c>
     </row>
     <row r="32" spans="1:23" ht="20" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
       <c r="L32" s="4" t="s">
         <v>42</v>
       </c>
@@ -7569,15 +7552,15 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A33" s="46"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
       <c r="L33" s="8" t="s">
         <v>285</v>
       </c>
@@ -7616,377 +7599,377 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:23" ht="20" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
       <c r="L35" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="33"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="62"/>
     </row>
     <row r="36" spans="1:23" ht="20" customHeight="1">
-      <c r="A36" s="46"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
       <c r="L36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="28" t="s">
+      <c r="M36" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="58"/>
     </row>
     <row r="37" spans="1:23" ht="20" customHeight="1">
-      <c r="A37" s="46"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
       <c r="L37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="27"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="56"/>
     </row>
     <row r="38" spans="1:23" ht="20" customHeight="1">
-      <c r="A38" s="46"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
       <c r="L38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="29"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="58"/>
     </row>
     <row r="39" spans="1:23" ht="20" customHeight="1">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
       <c r="L39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M39" s="28" t="s">
+      <c r="M39" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="29"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="58"/>
     </row>
     <row r="40" spans="1:23" ht="20" customHeight="1">
-      <c r="A40" s="46"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
       <c r="L40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="M40" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="29"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="58"/>
     </row>
     <row r="41" spans="1:23" ht="20" customHeight="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
       <c r="L41" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="36"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="65"/>
     </row>
     <row r="42" spans="1:23" ht="20" customHeight="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
       <c r="L42" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="57">
         <v>1234567</v>
       </c>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="29"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="58"/>
     </row>
     <row r="43" spans="1:23" ht="20" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
       <c r="L43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="28" t="s">
+      <c r="M43" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="29"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="58"/>
     </row>
     <row r="44" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
       <c r="L44" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="59">
         <v>87654321</v>
       </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="31"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="60"/>
     </row>
     <row r="45" spans="1:23" ht="20" customHeight="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:23" ht="20" customHeight="1" thickBot="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
     </row>
     <row r="47" spans="1:23" ht="20" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
       <c r="L47" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="66" t="s">
+      <c r="M47" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="65"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:23" ht="20" customHeight="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
       <c r="L48" s="2" t="s">
         <v>190</v>
       </c>
@@ -8013,27 +7996,27 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
       <c r="L49" s="4" t="s">
         <v>11</v>
       </c>
@@ -8046,15 +8029,15 @@
       <c r="S49" s="3"/>
     </row>
     <row r="50" spans="1:19" ht="20" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
       <c r="L50" s="2" t="s">
         <v>191</v>
       </c>
@@ -8081,15 +8064,15 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="20" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
       <c r="L51" s="2" t="s">
         <v>192</v>
       </c>
@@ -8116,15 +8099,15 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20" customHeight="1">
-      <c r="A52" s="46"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
       <c r="L52" s="2" t="s">
         <v>193</v>
       </c>
@@ -8151,15 +8134,15 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="20" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
       <c r="L53" s="2" t="s">
         <v>194</v>
       </c>
@@ -8186,27 +8169,27 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="20" customHeight="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
       <c r="L54" s="2" t="s">
         <v>195</v>
       </c>
@@ -8233,15 +8216,15 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="20" customHeight="1">
-      <c r="A55" s="46"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
       <c r="L55" s="2" t="s">
         <v>200</v>
       </c>
@@ -8268,15 +8251,15 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="20" customHeight="1">
-      <c r="A56" s="46"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
       <c r="L56" s="2" t="s">
         <v>201</v>
       </c>
@@ -8303,15 +8286,15 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="20" customHeight="1">
-      <c r="A57" s="46"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
       <c r="L57" s="12"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
@@ -8322,15 +8305,15 @@
       <c r="S57" s="14"/>
     </row>
     <row r="58" spans="1:19" ht="20" customHeight="1">
-      <c r="A58" s="46"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
       <c r="L58" s="4" t="s">
         <v>12</v>
       </c>
@@ -8343,27 +8326,27 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="1:19" ht="20" customHeight="1">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="21" t="s">
+      <c r="F59" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
       <c r="L59" s="2" t="s">
         <v>204</v>
       </c>
@@ -8390,15 +8373,15 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="20" customHeight="1">
-      <c r="A60" s="46"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
       <c r="L60" s="2" t="s">
         <v>205</v>
       </c>
@@ -8425,15 +8408,15 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="20" customHeight="1">
-      <c r="A61" s="46"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
       <c r="L61" s="19" t="s">
         <v>283</v>
       </c>
@@ -8460,15 +8443,15 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="20" customHeight="1">
-      <c r="A62" s="46"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
       <c r="L62" s="4" t="s">
         <v>202</v>
       </c>
@@ -8495,15 +8478,15 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="20" customHeight="1">
-      <c r="A63" s="46"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
       <c r="L63" s="4" t="s">
         <v>203</v>
       </c>
@@ -8530,27 +8513,27 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
       <c r="L64" s="8" t="s">
         <v>287</v>
       </c>
@@ -8577,2066 +8560,2425 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A65" s="46"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
     </row>
     <row r="66" spans="1:19" ht="20" customHeight="1">
-      <c r="A66" s="46"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
       <c r="L66" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M66" s="54" t="s">
+      <c r="M66" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="56"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="38"/>
     </row>
     <row r="67" spans="1:19" ht="20" customHeight="1">
-      <c r="A67" s="46"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
       <c r="L67" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="M67" s="57">
+      <c r="M67" s="39">
         <v>0</v>
       </c>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="58"/>
-      <c r="S67" s="59"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="41"/>
     </row>
     <row r="68" spans="1:19" ht="20" customHeight="1">
-      <c r="A68" s="46"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
       <c r="L68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M68" s="57">
+      <c r="M68" s="39">
         <v>10</v>
       </c>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="58"/>
-      <c r="R68" s="58"/>
-      <c r="S68" s="59"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="41"/>
     </row>
     <row r="69" spans="1:19" ht="20" customHeight="1">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="47" t="s">
+      <c r="D69" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="21" t="s">
+      <c r="F69" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
       <c r="L69" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M69" s="57">
+      <c r="M69" s="39">
         <v>-1</v>
       </c>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="58"/>
-      <c r="S69" s="59"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="41"/>
     </row>
     <row r="70" spans="1:19" ht="20" customHeight="1">
-      <c r="A70" s="46"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
       <c r="L70" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M70" s="57">
+      <c r="M70" s="39">
         <v>11</v>
       </c>
-      <c r="N70" s="58"/>
-      <c r="O70" s="58"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="58"/>
-      <c r="S70" s="59"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="41"/>
     </row>
     <row r="71" spans="1:19" ht="20" customHeight="1">
-      <c r="A71" s="46"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
       <c r="L71" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M71" s="57" t="s">
+      <c r="M71" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
-      <c r="Q71" s="58"/>
-      <c r="R71" s="58"/>
-      <c r="S71" s="59"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="41"/>
     </row>
     <row r="72" spans="1:19" ht="20" customHeight="1">
-      <c r="A72" s="46"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
       <c r="L72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M72" s="57" t="s">
+      <c r="M72" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="N72" s="58"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="58"/>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="58"/>
-      <c r="S72" s="59"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="41"/>
     </row>
     <row r="73" spans="1:19" ht="20" customHeight="1" thickBot="1">
-      <c r="A73" s="46"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
       <c r="L73" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M73" s="60">
+      <c r="M73" s="42">
         <v>1</v>
       </c>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="62"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="43"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="44"/>
     </row>
     <row r="74" spans="1:19" ht="20" customHeight="1">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:19" ht="20" customHeight="1">
-      <c r="A75" s="46"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
     </row>
     <row r="76" spans="1:19" ht="20" customHeight="1">
-      <c r="A76" s="46"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="1:19" ht="20" customHeight="1">
-      <c r="A77" s="46"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
     </row>
     <row r="78" spans="1:19" ht="20" customHeight="1">
-      <c r="A78" s="46"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
     </row>
     <row r="79" spans="1:19" ht="20" customHeight="1">
-      <c r="A79" s="46" t="s">
+      <c r="A79" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:19" ht="20" customHeight="1">
+      <c r="A80" s="24"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" ht="20" customHeight="1">
+      <c r="A81" s="24"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" ht="20" customHeight="1">
+      <c r="A82" s="24"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" ht="20" customHeight="1">
+      <c r="A83" s="24"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="20" customHeight="1">
+      <c r="A84" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="47" t="s">
+      <c r="C84" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E84" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" ht="20" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" ht="20" customHeight="1">
+      <c r="A86" s="24"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9" ht="20" customHeight="1">
+      <c r="A87" s="24"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" ht="20" customHeight="1">
+      <c r="A88" s="24"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" ht="20" customHeight="1">
+      <c r="A89" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:9" ht="20" customHeight="1">
+      <c r="A90" s="24"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+    </row>
+    <row r="91" spans="1:9" ht="20" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+    </row>
+    <row r="92" spans="1:9" ht="20" customHeight="1">
+      <c r="A92" s="24"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="1:9" ht="20" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" ht="20" customHeight="1">
+      <c r="A94" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" ht="20" customHeight="1">
+      <c r="A95" s="24"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" ht="20" customHeight="1">
+      <c r="A96" s="24"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+    </row>
+    <row r="97" spans="1:9" ht="20" customHeight="1">
+      <c r="A97" s="24"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:9" ht="20" customHeight="1">
+      <c r="A98" s="24"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:9" ht="20" customHeight="1">
+      <c r="A99" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="1:9" ht="20" customHeight="1">
+      <c r="A100" s="24"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" ht="20" customHeight="1">
+      <c r="A101" s="24"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:9" ht="20" customHeight="1">
+      <c r="A102" s="24"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:9" ht="20" customHeight="1">
+      <c r="A103" s="24"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="1:9" ht="20" customHeight="1">
+      <c r="A104" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="1:9" ht="20" customHeight="1">
+      <c r="A105" s="24"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:9" ht="20" customHeight="1">
+      <c r="A106" s="24"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="1:9" ht="20" customHeight="1">
+      <c r="A107" s="24"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="1:9" ht="20" customHeight="1">
+      <c r="A108" s="24"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="1:9" ht="20" customHeight="1">
+      <c r="A109" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-    </row>
-    <row r="80" spans="1:19" ht="20" customHeight="1">
-      <c r="A80" s="46"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-    </row>
-    <row r="81" spans="1:9" ht="20" customHeight="1">
-      <c r="A81" s="46"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-    </row>
-    <row r="82" spans="1:9" ht="20" customHeight="1">
-      <c r="A82" s="46"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-    </row>
-    <row r="83" spans="1:9" ht="20" customHeight="1">
-      <c r="A83" s="46"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-    </row>
-    <row r="84" spans="1:9" ht="20" customHeight="1">
-      <c r="A84" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="47" t="s">
+      <c r="F109" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="1:9" ht="20" customHeight="1">
+      <c r="A110" s="24"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:9" ht="20" customHeight="1">
+      <c r="A111" s="24"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="1:9" ht="20" customHeight="1">
+      <c r="A112" s="24"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="1:9" ht="20" customHeight="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+    </row>
+    <row r="114" spans="1:9" ht="20" customHeight="1">
+      <c r="A114" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-    </row>
-    <row r="85" spans="1:9" ht="20" customHeight="1">
-      <c r="A85" s="46"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-    </row>
-    <row r="86" spans="1:9" ht="20" customHeight="1">
-      <c r="A86" s="46"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-    </row>
-    <row r="87" spans="1:9" ht="20" customHeight="1">
-      <c r="A87" s="46"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-    </row>
-    <row r="88" spans="1:9" ht="20" customHeight="1">
-      <c r="A88" s="46"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-    </row>
-    <row r="89" spans="1:9" ht="20" customHeight="1">
-      <c r="A89" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-    </row>
-    <row r="90" spans="1:9" ht="20" customHeight="1">
-      <c r="A90" s="46"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-    </row>
-    <row r="91" spans="1:9" ht="20" customHeight="1">
-      <c r="A91" s="46"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-    </row>
-    <row r="92" spans="1:9" ht="20" customHeight="1">
-      <c r="A92" s="46"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-    </row>
-    <row r="93" spans="1:9" ht="20" customHeight="1">
-      <c r="A93" s="46"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-    </row>
-    <row r="94" spans="1:9" ht="20" customHeight="1">
-      <c r="A94" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D94" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-    </row>
-    <row r="95" spans="1:9" ht="20" customHeight="1">
-      <c r="A95" s="46"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-    </row>
-    <row r="96" spans="1:9" ht="20" customHeight="1">
-      <c r="A96" s="46"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-    </row>
-    <row r="97" spans="1:9" ht="20" customHeight="1">
-      <c r="A97" s="46"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-    </row>
-    <row r="98" spans="1:9" ht="20" customHeight="1">
-      <c r="A98" s="46"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-    </row>
-    <row r="99" spans="1:9" ht="20" customHeight="1">
-      <c r="A99" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="47" t="s">
+      <c r="E114" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+    </row>
+    <row r="115" spans="1:9" ht="20" customHeight="1">
+      <c r="A115" s="24"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+    </row>
+    <row r="116" spans="1:9" ht="20" customHeight="1">
+      <c r="A116" s="24"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="1:9" ht="20" customHeight="1">
+      <c r="A117" s="24"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="1:9" ht="20" customHeight="1">
+      <c r="A118" s="24"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="1:9" ht="20" customHeight="1">
+      <c r="A119" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+    </row>
+    <row r="120" spans="1:9" ht="20" customHeight="1">
+      <c r="A120" s="24"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+    </row>
+    <row r="121" spans="1:9" ht="20" customHeight="1">
+      <c r="A121" s="24"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+    </row>
+    <row r="122" spans="1:9" ht="20" customHeight="1">
+      <c r="A122" s="24"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+    </row>
+    <row r="123" spans="1:9" ht="20" customHeight="1">
+      <c r="A123" s="24"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+    </row>
+    <row r="124" spans="1:9" ht="20" customHeight="1">
+      <c r="A124" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+    </row>
+    <row r="125" spans="1:9" ht="20" customHeight="1">
+      <c r="A125" s="24"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+    </row>
+    <row r="126" spans="1:9" ht="20" customHeight="1">
+      <c r="A126" s="24"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+    </row>
+    <row r="127" spans="1:9" ht="20" customHeight="1">
+      <c r="A127" s="24"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+    </row>
+    <row r="128" spans="1:9" ht="20" customHeight="1">
+      <c r="A128" s="24"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+    </row>
+    <row r="129" spans="1:9" ht="20" customHeight="1">
+      <c r="A129" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+    </row>
+    <row r="130" spans="1:9" ht="20" customHeight="1">
+      <c r="A130" s="24"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+    </row>
+    <row r="131" spans="1:9" ht="20" customHeight="1">
+      <c r="A131" s="24"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+    </row>
+    <row r="132" spans="1:9" ht="20" customHeight="1">
+      <c r="A132" s="24"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="28"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+    </row>
+    <row r="133" spans="1:9" ht="20" customHeight="1">
+      <c r="A133" s="24"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+    </row>
+    <row r="134" spans="1:9" ht="20" customHeight="1">
+      <c r="A134" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" spans="1:9" ht="20" customHeight="1">
+      <c r="A135" s="24"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+    </row>
+    <row r="136" spans="1:9" ht="20" customHeight="1">
+      <c r="A136" s="24"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+    </row>
+    <row r="137" spans="1:9" ht="20" customHeight="1">
+      <c r="A137" s="24"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+    </row>
+    <row r="138" spans="1:9" ht="20" customHeight="1">
+      <c r="A138" s="24"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+    </row>
+    <row r="139" spans="1:9" ht="20" customHeight="1">
+      <c r="A139" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D139" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F139" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+    </row>
+    <row r="140" spans="1:9" ht="20" customHeight="1">
+      <c r="A140" s="24"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+    </row>
+    <row r="141" spans="1:9" ht="20" customHeight="1">
+      <c r="A141" s="24"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+    </row>
+    <row r="142" spans="1:9" ht="20" customHeight="1">
+      <c r="A142" s="24"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+    </row>
+    <row r="143" spans="1:9" ht="20" customHeight="1">
+      <c r="A143" s="24"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="28"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+    </row>
+    <row r="144" spans="1:9" ht="20" customHeight="1">
+      <c r="A144" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+    </row>
+    <row r="145" spans="1:9" ht="20" customHeight="1">
+      <c r="A145" s="24"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
+    </row>
+    <row r="146" spans="1:9" ht="20" customHeight="1">
+      <c r="A146" s="24"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="28"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
+    </row>
+    <row r="147" spans="1:9" ht="20" customHeight="1">
+      <c r="A147" s="24"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
+    </row>
+    <row r="148" spans="1:9" ht="20" customHeight="1">
+      <c r="A148" s="24"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
+    </row>
+    <row r="149" spans="1:9" ht="20" customHeight="1">
+      <c r="A149" s="24"/>
+      <c r="B149" s="27"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
+    </row>
+    <row r="150" spans="1:9" ht="20" customHeight="1">
+      <c r="A150" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="F150" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
+    </row>
+    <row r="151" spans="1:9" ht="20" customHeight="1">
+      <c r="A151" s="24"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
+    </row>
+    <row r="152" spans="1:9" ht="20" customHeight="1">
+      <c r="A152" s="24"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
+    </row>
+    <row r="153" spans="1:9" ht="20" customHeight="1">
+      <c r="A153" s="24"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
+    </row>
+    <row r="154" spans="1:9" ht="20" customHeight="1">
+      <c r="A154" s="24"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
+    </row>
+    <row r="155" spans="1:9" ht="20" customHeight="1">
+      <c r="A155" s="24"/>
+      <c r="B155" s="27"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
+    </row>
+    <row r="156" spans="1:9" ht="20" customHeight="1">
+      <c r="A156" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
+    </row>
+    <row r="157" spans="1:9" ht="20" customHeight="1">
+      <c r="A157" s="24"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
+    </row>
+    <row r="158" spans="1:9" ht="20" customHeight="1">
+      <c r="A158" s="24"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="28"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
+    </row>
+    <row r="159" spans="1:9" ht="20" customHeight="1">
+      <c r="A159" s="24"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="28"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
+    </row>
+    <row r="160" spans="1:9" ht="20" customHeight="1">
+      <c r="A160" s="24"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
+    </row>
+    <row r="161" spans="1:9" ht="20" customHeight="1">
+      <c r="A161" s="24"/>
+      <c r="B161" s="27"/>
+      <c r="C161" s="28"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
+    </row>
+    <row r="162" spans="1:9" ht="20" customHeight="1">
+      <c r="A162" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E162" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
+    </row>
+    <row r="163" spans="1:9" ht="20" customHeight="1">
+      <c r="A163" s="24"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="28"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
+    </row>
+    <row r="164" spans="1:9" ht="20" customHeight="1">
+      <c r="A164" s="24"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
+    </row>
+    <row r="165" spans="1:9" ht="20" customHeight="1">
+      <c r="A165" s="24"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
+    </row>
+    <row r="166" spans="1:9" ht="20" customHeight="1">
+      <c r="A166" s="24"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="35"/>
+    </row>
+    <row r="167" spans="1:9" ht="20" customHeight="1">
+      <c r="A167" s="24"/>
+      <c r="B167" s="27"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="35"/>
+    </row>
+    <row r="168" spans="1:9" ht="20" customHeight="1">
+      <c r="A168" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="35"/>
+    </row>
+    <row r="169" spans="1:9" ht="20" customHeight="1">
+      <c r="A169" s="24"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="35"/>
+    </row>
+    <row r="170" spans="1:9" ht="20" customHeight="1">
+      <c r="A170" s="24"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="28"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="35"/>
+      <c r="I170" s="35"/>
+    </row>
+    <row r="171" spans="1:9" ht="20" customHeight="1">
+      <c r="A171" s="24"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="35"/>
+      <c r="H171" s="35"/>
+      <c r="I171" s="35"/>
+    </row>
+    <row r="172" spans="1:9" ht="20" customHeight="1">
+      <c r="A172" s="24"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="35"/>
+    </row>
+    <row r="173" spans="1:9" ht="20" customHeight="1">
+      <c r="A173" s="24"/>
+      <c r="B173" s="27"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="35"/>
+    </row>
+    <row r="174" spans="1:9" ht="20" customHeight="1">
+      <c r="A174" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F174" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="35"/>
+    </row>
+    <row r="175" spans="1:9" ht="20" customHeight="1">
+      <c r="A175" s="24"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="35"/>
+      <c r="I175" s="35"/>
+    </row>
+    <row r="176" spans="1:9" ht="20" customHeight="1">
+      <c r="A176" s="24"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="35"/>
+    </row>
+    <row r="177" spans="1:9" ht="20" customHeight="1">
+      <c r="A177" s="24"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="35"/>
+    </row>
+    <row r="178" spans="1:9" ht="20" customHeight="1">
+      <c r="A178" s="24"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="35"/>
+    </row>
+    <row r="179" spans="1:9" ht="20" customHeight="1">
+      <c r="A179" s="24"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="35"/>
+    </row>
+    <row r="180" spans="1:9" ht="20" customHeight="1">
+      <c r="A180" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G180" s="35"/>
+      <c r="H180" s="35"/>
+      <c r="I180" s="35"/>
+    </row>
+    <row r="181" spans="1:9" ht="20" customHeight="1">
+      <c r="A181" s="24"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="28"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="35"/>
+    </row>
+    <row r="182" spans="1:9" ht="20" customHeight="1">
+      <c r="A182" s="24"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="28"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="35"/>
+    </row>
+    <row r="183" spans="1:9" ht="20" customHeight="1">
+      <c r="A183" s="24"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="35"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="35"/>
+    </row>
+    <row r="184" spans="1:9" ht="20" customHeight="1">
+      <c r="A184" s="24"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="28"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="28"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="35"/>
+    </row>
+    <row r="185" spans="1:9" ht="20" customHeight="1">
+      <c r="A185" s="24"/>
+      <c r="B185" s="27"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="28"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="35"/>
+    </row>
+    <row r="186" spans="1:9" ht="20" customHeight="1">
+      <c r="A186" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F186" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G186" s="35"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="35"/>
+    </row>
+    <row r="187" spans="1:9" ht="20" customHeight="1">
+      <c r="A187" s="24"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="35"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="35"/>
+    </row>
+    <row r="188" spans="1:9" ht="20" customHeight="1">
+      <c r="A188" s="24"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="28"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="35"/>
+    </row>
+    <row r="189" spans="1:9" ht="20" customHeight="1">
+      <c r="A189" s="24"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="28"/>
+      <c r="G189" s="35"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="35"/>
+    </row>
+    <row r="190" spans="1:9" ht="20" customHeight="1">
+      <c r="A190" s="24"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="35"/>
+    </row>
+    <row r="191" spans="1:9" ht="20" customHeight="1">
+      <c r="A191" s="24"/>
+      <c r="B191" s="27"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="35"/>
+    </row>
+    <row r="192" spans="1:9" ht="20" customHeight="1">
+      <c r="A192" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G192" s="35"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="35"/>
+    </row>
+    <row r="193" spans="1:9" ht="20" customHeight="1">
+      <c r="A193" s="24"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="35"/>
+    </row>
+    <row r="194" spans="1:9" ht="20" customHeight="1">
+      <c r="A194" s="24"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="26"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="35"/>
+    </row>
+    <row r="195" spans="1:9" ht="20" customHeight="1">
+      <c r="A195" s="24"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="28"/>
+      <c r="G195" s="35"/>
+      <c r="H195" s="35"/>
+      <c r="I195" s="35"/>
+    </row>
+    <row r="196" spans="1:9" ht="20" customHeight="1">
+      <c r="A196" s="24"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="35"/>
+    </row>
+    <row r="197" spans="1:9" ht="20" customHeight="1">
+      <c r="A197" s="24"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="28"/>
+      <c r="G197" s="35"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="35"/>
+    </row>
+    <row r="198" spans="1:9" ht="20" customHeight="1">
+      <c r="A198" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G198" s="35"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="35"/>
+    </row>
+    <row r="199" spans="1:9" ht="20" customHeight="1">
+      <c r="A199" s="24"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="26"/>
+      <c r="F199" s="28"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="35"/>
+    </row>
+    <row r="200" spans="1:9" ht="20" customHeight="1">
+      <c r="A200" s="24"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="28"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="28"/>
+      <c r="G200" s="35"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="35"/>
+    </row>
+    <row r="201" spans="1:9" ht="20" customHeight="1">
+      <c r="A201" s="24"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="28"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="28"/>
+      <c r="G201" s="35"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="35"/>
+    </row>
+    <row r="202" spans="1:9" ht="20" customHeight="1">
+      <c r="A202" s="24"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="28"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="35"/>
+      <c r="I202" s="35"/>
+    </row>
+    <row r="203" spans="1:9" ht="20" customHeight="1">
+      <c r="A203" s="24"/>
+      <c r="B203" s="27"/>
+      <c r="C203" s="28"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="28"/>
+      <c r="G203" s="35"/>
+      <c r="H203" s="35"/>
+      <c r="I203" s="35"/>
+    </row>
+    <row r="204" spans="1:9" ht="20" customHeight="1">
+      <c r="A204" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D204" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E204" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F204" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-    </row>
-    <row r="100" spans="1:9" ht="20" customHeight="1">
-      <c r="A100" s="46"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-    </row>
-    <row r="101" spans="1:9" ht="20" customHeight="1">
-      <c r="A101" s="46"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-    </row>
-    <row r="102" spans="1:9" ht="20" customHeight="1">
-      <c r="A102" s="46"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="21"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-    </row>
-    <row r="103" spans="1:9" ht="20" customHeight="1">
-      <c r="A103" s="46"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-    </row>
-    <row r="104" spans="1:9" ht="20" customHeight="1">
-      <c r="A104" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="47" t="s">
+      <c r="G204" s="35"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="35"/>
+    </row>
+    <row r="205" spans="1:9" ht="20" customHeight="1">
+      <c r="A205" s="24"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="35"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="35"/>
+    </row>
+    <row r="206" spans="1:9" ht="20" customHeight="1">
+      <c r="A206" s="24"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="28"/>
+      <c r="G206" s="35"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="35"/>
+    </row>
+    <row r="207" spans="1:9" ht="20" customHeight="1">
+      <c r="A207" s="24"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="28"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="35"/>
+    </row>
+    <row r="208" spans="1:9" ht="20" customHeight="1">
+      <c r="A208" s="24"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="31"/>
+      <c r="E208" s="34"/>
+      <c r="F208" s="28"/>
+      <c r="G208" s="35"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="35"/>
+    </row>
+    <row r="209" spans="1:9" ht="20" customHeight="1">
+      <c r="A209" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D209" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E209" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F104" s="21" t="s">
+      <c r="F209" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-    </row>
-    <row r="105" spans="1:9" ht="20" customHeight="1">
-      <c r="A105" s="46"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-    </row>
-    <row r="106" spans="1:9" ht="20" customHeight="1">
-      <c r="A106" s="46"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-    </row>
-    <row r="107" spans="1:9" ht="20" customHeight="1">
-      <c r="A107" s="46"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="21"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-    </row>
-    <row r="108" spans="1:9" ht="20" customHeight="1">
-      <c r="A108" s="46"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="21"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-    </row>
-    <row r="109" spans="1:9" ht="20" customHeight="1">
-      <c r="A109" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-    </row>
-    <row r="110" spans="1:9" ht="20" customHeight="1">
-      <c r="A110" s="46"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="21"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-    </row>
-    <row r="111" spans="1:9" ht="20" customHeight="1">
-      <c r="A111" s="46"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-    </row>
-    <row r="112" spans="1:9" ht="20" customHeight="1">
-      <c r="A112" s="46"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="21"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-    </row>
-    <row r="113" spans="1:9" ht="20" customHeight="1">
-      <c r="A113" s="46"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-    </row>
-    <row r="114" spans="1:9" ht="20" customHeight="1">
-      <c r="A114" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D114" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F114" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-    </row>
-    <row r="115" spans="1:9" ht="20" customHeight="1">
-      <c r="A115" s="46"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-    </row>
-    <row r="116" spans="1:9" ht="20" customHeight="1">
-      <c r="A116" s="46"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="21"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-    </row>
-    <row r="117" spans="1:9" ht="20" customHeight="1">
-      <c r="A117" s="46"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="21"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-    </row>
-    <row r="118" spans="1:9" ht="20" customHeight="1">
-      <c r="A118" s="46"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="21"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-    </row>
-    <row r="119" spans="1:9" ht="20" customHeight="1">
-      <c r="A119" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D119" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-    </row>
-    <row r="120" spans="1:9" ht="20" customHeight="1">
-      <c r="A120" s="46"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="21"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-    </row>
-    <row r="121" spans="1:9" ht="20" customHeight="1">
-      <c r="A121" s="46"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="21"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-    </row>
-    <row r="122" spans="1:9" ht="20" customHeight="1">
-      <c r="A122" s="46"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="21"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-    </row>
-    <row r="123" spans="1:9" ht="20" customHeight="1">
-      <c r="A123" s="46"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-    </row>
-    <row r="124" spans="1:9" ht="20" customHeight="1">
-      <c r="A124" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D124" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-    </row>
-    <row r="125" spans="1:9" ht="20" customHeight="1">
-      <c r="A125" s="46"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-    </row>
-    <row r="126" spans="1:9" ht="20" customHeight="1">
-      <c r="A126" s="46"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-    </row>
-    <row r="127" spans="1:9" ht="20" customHeight="1">
-      <c r="A127" s="46"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-    </row>
-    <row r="128" spans="1:9" ht="20" customHeight="1">
-      <c r="A128" s="46"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="49"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-    </row>
-    <row r="129" spans="1:9" ht="20" customHeight="1">
-      <c r="A129" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F129" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-    </row>
-    <row r="130" spans="1:9" ht="20" customHeight="1">
-      <c r="A130" s="46"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="21"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="21"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-    </row>
-    <row r="131" spans="1:9" ht="20" customHeight="1">
-      <c r="A131" s="46"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="21"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-    </row>
-    <row r="132" spans="1:9" ht="20" customHeight="1">
-      <c r="A132" s="46"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="21"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-    </row>
-    <row r="133" spans="1:9" ht="20" customHeight="1">
-      <c r="A133" s="46"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-    </row>
-    <row r="134" spans="1:9" ht="20" customHeight="1">
-      <c r="A134" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F134" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-    </row>
-    <row r="135" spans="1:9" ht="20" customHeight="1">
-      <c r="A135" s="46"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="21"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-    </row>
-    <row r="136" spans="1:9" ht="20" customHeight="1">
-      <c r="A136" s="46"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="48"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-    </row>
-    <row r="137" spans="1:9" ht="20" customHeight="1">
-      <c r="A137" s="46"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="21"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-    </row>
-    <row r="138" spans="1:9" ht="20" customHeight="1">
-      <c r="A138" s="46"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-    </row>
-    <row r="139" spans="1:9" ht="20" customHeight="1">
-      <c r="A139" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D139" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E139" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="F139" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-    </row>
-    <row r="140" spans="1:9" ht="20" customHeight="1">
-      <c r="A140" s="46"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-    </row>
-    <row r="141" spans="1:9" ht="20" customHeight="1">
-      <c r="A141" s="46"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="51"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-    </row>
-    <row r="142" spans="1:9" ht="20" customHeight="1">
-      <c r="A142" s="46"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="21"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-    </row>
-    <row r="143" spans="1:9" ht="20" customHeight="1">
-      <c r="A143" s="46"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="21"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-    </row>
-    <row r="144" spans="1:9" ht="20" customHeight="1">
-      <c r="A144" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B144" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D144" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F144" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-    </row>
-    <row r="145" spans="1:9" ht="20" customHeight="1">
-      <c r="A145" s="46"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-    </row>
-    <row r="146" spans="1:9" ht="20" customHeight="1">
-      <c r="A146" s="46"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-    </row>
-    <row r="147" spans="1:9" ht="20" customHeight="1">
-      <c r="A147" s="46"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-    </row>
-    <row r="148" spans="1:9" ht="20" customHeight="1">
-      <c r="A148" s="46"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-    </row>
-    <row r="149" spans="1:9" ht="20" customHeight="1">
-      <c r="A149" s="46"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="49"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-    </row>
-    <row r="150" spans="1:9" ht="20" customHeight="1">
-      <c r="A150" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B150" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D150" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F150" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-    </row>
-    <row r="151" spans="1:9" ht="20" customHeight="1">
-      <c r="A151" s="46"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-    </row>
-    <row r="152" spans="1:9" ht="20" customHeight="1">
-      <c r="A152" s="46"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="48"/>
-      <c r="E152" s="23"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-    </row>
-    <row r="153" spans="1:9" ht="20" customHeight="1">
-      <c r="A153" s="46"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="21"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="23"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-    </row>
-    <row r="154" spans="1:9" ht="20" customHeight="1">
-      <c r="A154" s="46"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="48"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="21"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-    </row>
-    <row r="155" spans="1:9" ht="20" customHeight="1">
-      <c r="A155" s="46"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="49"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-    </row>
-    <row r="156" spans="1:9" ht="20" customHeight="1">
-      <c r="A156" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B156" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D156" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-    </row>
-    <row r="157" spans="1:9" ht="20" customHeight="1">
-      <c r="A157" s="46"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="21"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-    </row>
-    <row r="158" spans="1:9" ht="20" customHeight="1">
-      <c r="A158" s="46"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-    </row>
-    <row r="159" spans="1:9" ht="20" customHeight="1">
-      <c r="A159" s="46"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-    </row>
-    <row r="160" spans="1:9" ht="20" customHeight="1">
-      <c r="A160" s="46"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="21"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
-    </row>
-    <row r="161" spans="1:9" ht="20" customHeight="1">
-      <c r="A161" s="46"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="21"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="21"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-    </row>
-    <row r="162" spans="1:9" ht="20" customHeight="1">
-      <c r="A162" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-    </row>
-    <row r="163" spans="1:9" ht="20" customHeight="1">
-      <c r="A163" s="46"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="21"/>
-      <c r="D163" s="48"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-    </row>
-    <row r="164" spans="1:9" ht="20" customHeight="1">
-      <c r="A164" s="46"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="23"/>
-      <c r="F164" s="21"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-    </row>
-    <row r="165" spans="1:9" ht="20" customHeight="1">
-      <c r="A165" s="46"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="21"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="23"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-    </row>
-    <row r="166" spans="1:9" ht="20" customHeight="1">
-      <c r="A166" s="46"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="23"/>
-      <c r="F166" s="21"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-    </row>
-    <row r="167" spans="1:9" ht="20" customHeight="1">
-      <c r="A167" s="46"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="21"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="21"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
-    </row>
-    <row r="168" spans="1:9" ht="20" customHeight="1">
-      <c r="A168" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B168" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D168" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F168" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-    </row>
-    <row r="169" spans="1:9" ht="20" customHeight="1">
-      <c r="A169" s="46"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="21"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="21"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-    </row>
-    <row r="170" spans="1:9" ht="20" customHeight="1">
-      <c r="A170" s="46"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="21"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
-    </row>
-    <row r="171" spans="1:9" ht="20" customHeight="1">
-      <c r="A171" s="46"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="23"/>
-      <c r="F171" s="21"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-    </row>
-    <row r="172" spans="1:9" ht="20" customHeight="1">
-      <c r="A172" s="46"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="21"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="23"/>
-      <c r="F172" s="21"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-    </row>
-    <row r="173" spans="1:9" ht="20" customHeight="1">
-      <c r="A173" s="46"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="21"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="21"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-    </row>
-    <row r="174" spans="1:9" ht="20" customHeight="1">
-      <c r="A174" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D174" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E174" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F174" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-    </row>
-    <row r="175" spans="1:9" ht="20" customHeight="1">
-      <c r="A175" s="46"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="21"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-    </row>
-    <row r="176" spans="1:9" ht="20" customHeight="1">
-      <c r="A176" s="46"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="21"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-    </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1">
-      <c r="A177" s="46"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="21"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="21"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-    </row>
-    <row r="178" spans="1:9" ht="20" customHeight="1">
-      <c r="A178" s="46"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="21"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-    </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1">
-      <c r="A179" s="46"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="21"/>
-      <c r="D179" s="49"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="21"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
-    </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1">
-      <c r="A180" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="D180" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E180" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-    </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1">
-      <c r="A181" s="46"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="21"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="21"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
-    </row>
-    <row r="182" spans="1:9" ht="20" customHeight="1">
-      <c r="A182" s="46"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="21"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-    </row>
-    <row r="183" spans="1:9" ht="20" customHeight="1">
-      <c r="A183" s="46"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="21"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="21"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-    </row>
-    <row r="184" spans="1:9" ht="20" customHeight="1">
-      <c r="A184" s="46"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="48"/>
-      <c r="E184" s="23"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-    </row>
-    <row r="185" spans="1:9" ht="20" customHeight="1">
-      <c r="A185" s="46"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="21"/>
-      <c r="D185" s="49"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="21"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="20"/>
-    </row>
-    <row r="186" spans="1:9" ht="20" customHeight="1">
-      <c r="A186" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B186" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D186" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E186" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="20"/>
-    </row>
-    <row r="187" spans="1:9" ht="20" customHeight="1">
-      <c r="A187" s="46"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="20"/>
-    </row>
-    <row r="188" spans="1:9" ht="20" customHeight="1">
-      <c r="A188" s="46"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="48"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="20"/>
-    </row>
-    <row r="189" spans="1:9" ht="20" customHeight="1">
-      <c r="A189" s="46"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="21"/>
-      <c r="D189" s="48"/>
-      <c r="E189" s="23"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="20"/>
-    </row>
-    <row r="190" spans="1:9" ht="20" customHeight="1">
-      <c r="A190" s="46"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="48"/>
-      <c r="E190" s="23"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="20"/>
-    </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1">
-      <c r="A191" s="46"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="49"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
-    </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1">
-      <c r="A192" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="B192" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C192" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D192" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="E192" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F192" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
-    </row>
-    <row r="193" spans="1:9" ht="20" customHeight="1">
-      <c r="A193" s="46"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="23"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
-    </row>
-    <row r="194" spans="1:9" ht="20" customHeight="1">
-      <c r="A194" s="46"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="21"/>
-      <c r="D194" s="48"/>
-      <c r="E194" s="23"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-    </row>
-    <row r="195" spans="1:9" ht="20" customHeight="1">
-      <c r="A195" s="46"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="23"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-    </row>
-    <row r="196" spans="1:9" ht="20" customHeight="1">
-      <c r="A196" s="46"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="23"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
-    </row>
-    <row r="197" spans="1:9" ht="20" customHeight="1">
-      <c r="A197" s="46"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="49"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="20"/>
-    </row>
-    <row r="198" spans="1:9" ht="20" customHeight="1">
-      <c r="A198" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B198" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C198" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D198" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="E198" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F198" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="G198" s="20"/>
-      <c r="H198" s="20"/>
-      <c r="I198" s="20"/>
-    </row>
-    <row r="199" spans="1:9" ht="20" customHeight="1">
-      <c r="A199" s="46"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="23"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
-    </row>
-    <row r="200" spans="1:9" ht="20" customHeight="1">
-      <c r="A200" s="46"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="21"/>
-      <c r="D200" s="48"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="20"/>
-      <c r="H200" s="20"/>
-      <c r="I200" s="20"/>
-    </row>
-    <row r="201" spans="1:9" ht="20" customHeight="1">
-      <c r="A201" s="46"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="21"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
-    </row>
-    <row r="202" spans="1:9" ht="20" customHeight="1">
-      <c r="A202" s="46"/>
-      <c r="B202" s="23"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="48"/>
-      <c r="E202" s="23"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-      <c r="I202" s="20"/>
-    </row>
-    <row r="203" spans="1:9" ht="20" customHeight="1">
-      <c r="A203" s="46"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="49"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
-    </row>
-    <row r="204" spans="1:9" ht="20" customHeight="1">
-      <c r="A204" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D204" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E204" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20"/>
-      <c r="I204" s="20"/>
-    </row>
-    <row r="205" spans="1:9" ht="20" customHeight="1">
-      <c r="A205" s="46"/>
-      <c r="B205" s="23"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="48"/>
-      <c r="E205" s="51"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-      <c r="I205" s="20"/>
-    </row>
-    <row r="206" spans="1:9" ht="20" customHeight="1">
-      <c r="A206" s="46"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="48"/>
-      <c r="E206" s="51"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
-      <c r="I206" s="20"/>
-    </row>
-    <row r="207" spans="1:9" ht="20" customHeight="1">
-      <c r="A207" s="46"/>
-      <c r="B207" s="23"/>
-      <c r="C207" s="21"/>
-      <c r="D207" s="48"/>
-      <c r="E207" s="51"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="20"/>
-      <c r="H207" s="20"/>
-      <c r="I207" s="20"/>
-    </row>
-    <row r="208" spans="1:9" ht="20" customHeight="1">
-      <c r="A208" s="46"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="21"/>
-      <c r="D208" s="49"/>
-      <c r="E208" s="52"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="20"/>
-      <c r="I208" s="20"/>
-    </row>
-    <row r="209" spans="1:9" ht="20" customHeight="1">
-      <c r="A209" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="D209" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E209" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G209" s="20"/>
-      <c r="H209" s="20"/>
-      <c r="I209" s="20"/>
+      <c r="G209" s="35"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="35"/>
     </row>
     <row r="210" spans="1:9" ht="20" customHeight="1">
-      <c r="A210" s="46"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="21"/>
-      <c r="D210" s="48"/>
-      <c r="E210" s="51"/>
-      <c r="F210" s="21"/>
-      <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="28"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="28"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="35"/>
     </row>
     <row r="211" spans="1:9" ht="20" customHeight="1">
-      <c r="A211" s="46"/>
-      <c r="B211" s="23"/>
-      <c r="C211" s="21"/>
-      <c r="D211" s="48"/>
-      <c r="E211" s="51"/>
-      <c r="F211" s="21"/>
-      <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="35"/>
+      <c r="I211" s="35"/>
     </row>
     <row r="212" spans="1:9" ht="20" customHeight="1">
-      <c r="A212" s="46"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="21"/>
-      <c r="D212" s="48"/>
-      <c r="E212" s="51"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="20"/>
-      <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="28"/>
+      <c r="G212" s="35"/>
+      <c r="H212" s="35"/>
+      <c r="I212" s="35"/>
     </row>
     <row r="213" spans="1:9" ht="20" customHeight="1">
-      <c r="A213" s="46"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="21"/>
-      <c r="D213" s="49"/>
-      <c r="E213" s="52"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-      <c r="I213" s="20"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="383">
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="M37:W37"/>
+    <mergeCell ref="M38:W38"/>
+    <mergeCell ref="M39:W39"/>
+    <mergeCell ref="M44:W44"/>
+    <mergeCell ref="M35:W35"/>
+    <mergeCell ref="M40:W40"/>
+    <mergeCell ref="M41:W41"/>
+    <mergeCell ref="M42:W42"/>
+    <mergeCell ref="M43:W43"/>
+    <mergeCell ref="M36:W36"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="F49:F53"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="E79:E83"/>
+    <mergeCell ref="F79:F83"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="E104:E108"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="G104:G108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="E99:E103"/>
+    <mergeCell ref="F99:F103"/>
+    <mergeCell ref="G99:G103"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:G138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="D144:D149"/>
+    <mergeCell ref="E144:E149"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="G144:G149"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="E119:E123"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="G124:G128"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="G129:G133"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E150:E155"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="G150:G155"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="B156:B161"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="D156:D161"/>
+    <mergeCell ref="E156:E161"/>
+    <mergeCell ref="F156:F161"/>
+    <mergeCell ref="G156:G161"/>
+    <mergeCell ref="H156:H161"/>
+    <mergeCell ref="I156:I161"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="C162:C167"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="E162:E167"/>
+    <mergeCell ref="F162:F167"/>
+    <mergeCell ref="G162:G167"/>
+    <mergeCell ref="H162:H167"/>
+    <mergeCell ref="I162:I167"/>
+    <mergeCell ref="H174:H179"/>
+    <mergeCell ref="I174:I179"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="E168:E173"/>
+    <mergeCell ref="F168:F173"/>
+    <mergeCell ref="G168:G173"/>
+    <mergeCell ref="H168:H173"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="M66:S66"/>
+    <mergeCell ref="M67:S67"/>
+    <mergeCell ref="M68:S68"/>
+    <mergeCell ref="M69:S69"/>
+    <mergeCell ref="M70:S70"/>
+    <mergeCell ref="M71:S71"/>
+    <mergeCell ref="M72:S72"/>
+    <mergeCell ref="M73:S73"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="C180:C185"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="E180:E185"/>
+    <mergeCell ref="F180:F185"/>
+    <mergeCell ref="G180:G185"/>
+    <mergeCell ref="H180:H185"/>
+    <mergeCell ref="I180:I185"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="C174:C179"/>
+    <mergeCell ref="D174:D179"/>
+    <mergeCell ref="E174:E179"/>
+    <mergeCell ref="F174:F179"/>
+    <mergeCell ref="G174:G179"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="E186:E191"/>
+    <mergeCell ref="F186:F191"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="E198:E203"/>
+    <mergeCell ref="F198:F203"/>
+    <mergeCell ref="G198:G203"/>
+    <mergeCell ref="H198:H203"/>
+    <mergeCell ref="I198:I203"/>
+    <mergeCell ref="A192:A197"/>
+    <mergeCell ref="B192:B197"/>
+    <mergeCell ref="C192:C197"/>
+    <mergeCell ref="D192:D197"/>
+    <mergeCell ref="E192:E197"/>
+    <mergeCell ref="F192:F197"/>
+    <mergeCell ref="G192:G197"/>
+    <mergeCell ref="H192:H197"/>
+    <mergeCell ref="I192:I197"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="M47:S47"/>
     <mergeCell ref="A209:A213"/>
@@ -10661,365 +11003,6 @@
     <mergeCell ref="B198:B203"/>
     <mergeCell ref="C198:C203"/>
     <mergeCell ref="D198:D203"/>
-    <mergeCell ref="E198:E203"/>
-    <mergeCell ref="F198:F203"/>
-    <mergeCell ref="G198:G203"/>
-    <mergeCell ref="H198:H203"/>
-    <mergeCell ref="I198:I203"/>
-    <mergeCell ref="A192:A197"/>
-    <mergeCell ref="B192:B197"/>
-    <mergeCell ref="C192:C197"/>
-    <mergeCell ref="D192:D197"/>
-    <mergeCell ref="E192:E197"/>
-    <mergeCell ref="F192:F197"/>
-    <mergeCell ref="G192:G197"/>
-    <mergeCell ref="H192:H197"/>
-    <mergeCell ref="I192:I197"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="E186:E191"/>
-    <mergeCell ref="F186:F191"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="M66:S66"/>
-    <mergeCell ref="M67:S67"/>
-    <mergeCell ref="M68:S68"/>
-    <mergeCell ref="M69:S69"/>
-    <mergeCell ref="M70:S70"/>
-    <mergeCell ref="M71:S71"/>
-    <mergeCell ref="M72:S72"/>
-    <mergeCell ref="M73:S73"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="B180:B185"/>
-    <mergeCell ref="C180:C185"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="E180:E185"/>
-    <mergeCell ref="F180:F185"/>
-    <mergeCell ref="G180:G185"/>
-    <mergeCell ref="H180:H185"/>
-    <mergeCell ref="I180:I185"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="B174:B179"/>
-    <mergeCell ref="C174:C179"/>
-    <mergeCell ref="D174:D179"/>
-    <mergeCell ref="E174:E179"/>
-    <mergeCell ref="F174:F179"/>
-    <mergeCell ref="G174:G179"/>
-    <mergeCell ref="H174:H179"/>
-    <mergeCell ref="I174:I179"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="E168:E173"/>
-    <mergeCell ref="F168:F173"/>
-    <mergeCell ref="G168:G173"/>
-    <mergeCell ref="H168:H173"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="C162:C167"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="E162:E167"/>
-    <mergeCell ref="F162:F167"/>
-    <mergeCell ref="G162:G167"/>
-    <mergeCell ref="H162:H167"/>
-    <mergeCell ref="I162:I167"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="B156:B161"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="D156:D161"/>
-    <mergeCell ref="E156:E161"/>
-    <mergeCell ref="F156:F161"/>
-    <mergeCell ref="G156:G161"/>
-    <mergeCell ref="H156:H161"/>
-    <mergeCell ref="I156:I161"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="C139:C143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E150:E155"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="G150:G155"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="F129:F133"/>
-    <mergeCell ref="G129:G133"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="E124:E128"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="G124:G128"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="E119:E123"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="D144:D149"/>
-    <mergeCell ref="E144:E149"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="G144:G149"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="I144:I149"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="C134:C138"/>
-    <mergeCell ref="D134:D138"/>
-    <mergeCell ref="E134:E138"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:G138"/>
-    <mergeCell ref="H134:H138"/>
-    <mergeCell ref="I134:I138"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="G74:G78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="E99:E103"/>
-    <mergeCell ref="F99:F103"/>
-    <mergeCell ref="G99:G103"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="E104:E108"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="G104:G108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="G79:G83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="E79:E83"/>
-    <mergeCell ref="F79:F83"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="G59:G63"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="G54:G58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="F59:F63"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="F49:F53"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="E39:E43"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D59:D63"/>
-    <mergeCell ref="M37:W37"/>
-    <mergeCell ref="M38:W38"/>
-    <mergeCell ref="M39:W39"/>
-    <mergeCell ref="M44:W44"/>
-    <mergeCell ref="M35:W35"/>
-    <mergeCell ref="M40:W40"/>
-    <mergeCell ref="M41:W41"/>
-    <mergeCell ref="M42:W42"/>
-    <mergeCell ref="M43:W43"/>
-    <mergeCell ref="M36:W36"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="G29:G33"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
+++ b/テスト仕様書サンプル/テスト仕様書(サンプル＆解答例).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igamasayuki/intellij-spring-project/2.software-test-answer/テスト仕様書サンプル/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC70C2-2B88-A841-AEB2-F2F129C6B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0F68B-A221-8D45-AC8D-F233B2954E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="304">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -986,6 +986,3055 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>DROP TABLE IF EXISTS administrators CASCADE;</t>
+  </si>
+  <si>
+    <t>DROP TABLE IF EXISTS employees CASCADE;</t>
+  </si>
+  <si>
+    <t>create table administrators(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id serial primary key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mail_address text not null unique,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password text not null</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>create table employees (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id integer primary key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  image text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gender text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hire_date timestamp not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  zip_code text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  address text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  telephone text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  salary integer not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  characteristics text not null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dependents_count integer not null default 0</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(1,'山田太郎',  'e1.png','男性', '2012/11/29', 'taro.yamada@sample.com'</t>
+  </si>
+  <si>
+    <t>,'000-0000', '北海道札幌市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-0000-0000', 400000, '山田太郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(2,'山田花子',  'e2.png','女性', '2013/01/03', 'hanako.yamada@sample.com'</t>
+  </si>
+  <si>
+    <t>,'111-1111', '青森県青森市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-1111-1111', 300000, '山田花子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>正常にログイン画面が表示されるか</t>
+    <rPh sb="0" eb="7">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ブラウザが起動していること
+・画面には何も表示されていないこと</t>
+    <rPh sb="6" eb="14">
+      <t>キド</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・従業員管理システムのログイン画面が表示されること</t>
+    <rPh sb="1" eb="11">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="25">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常に管理者登録画面が表示されるか</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンr</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ログイン画面が表示されていること</t>
+    <rPh sb="5" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="17">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・管理者登録画面が表示されること</t>
+    <rPh sb="1" eb="6">
+      <t>カンr</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="16">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員管理システム　ブラックボックステスト仕様書</t>
+    <rPh sb="0" eb="9">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての欄が空欄の状態で、登録ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「氏名」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
+    <rPh sb="1" eb="3">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「メールアドレス」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「パスワード」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「確認用パスワード」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員一覧を表示する</t>
+    <rPh sb="0" eb="6">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(3,'鈴木一朗',  'e1.png','男性', '2004/10/21', 'ichiro.suzuki@sample.com'</t>
+  </si>
+  <si>
+    <t>,'222-2222', '岩手県盛岡市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-2222-2222', 200000, '鈴木一朗さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 4);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(4,'鈴木一子',  'e2.png','女性', '2003/04/05', 'ichiko.suzuki@sample.com'</t>
+  </si>
+  <si>
+    <t>,'333-3333', '宮城県仙台市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-3333-3333', 100000, '鈴木一子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(5,'佐藤次郎',  'e1.png','男性', '2017/08/22', 'jiro.sato@sample.com'</t>
+  </si>
+  <si>
+    <t>,'444-4444', '秋田県秋田市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-4444-4444', 450000, '佐藤次郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(6,'佐藤次子',  'e2.png','女性', '2014/03/04', 'jiko.sato@sample.com'</t>
+  </si>
+  <si>
+    <t>,'555-5555', '山形県山形市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-5555-5555', 250000, '佐藤次子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(7,'渡辺三郎',  'e1.png','男性', '2018/10/29', 'saburo.watanabe@sample.com'</t>
+  </si>
+  <si>
+    <t>,'666-6666', '福島県福島市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-6666-6666', 130000, '渡辺三郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(8,'渡辺三子',  'e2.png','女性', '2003/10/03', 'sanko.watanabe@sample.com'</t>
+  </si>
+  <si>
+    <t>,'777-7777', '茨城県水戸市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-7777-7777', 320000, '渡辺三子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(9,'吉田四郎',  'e1.png','男性', '2012/11/29', 'shiro.yoshida@sample.com'</t>
+  </si>
+  <si>
+    <t>,'888-8888', '栃木県宇都宮市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-8888-8888', 230000, '吉田四郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(10,'吉田四子', 'e2.png','女性', '2013/01/03', 'shiko.yoshida@sample.com'</t>
+  </si>
+  <si>
+    <t>,'999-9999', '群馬県前橋市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '090-9999-9999', 455000, '吉田四子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(11,'高橋五郎', 'e1.png','男性', '2014/02/24', 'goro.takahashi@sample.com'</t>
+  </si>
+  <si>
+    <t>,'000-0000', '埼玉県さいたま市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-0000-0000', 180000, '高橋五郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(12,'高橋五子', 'e2.png','女性', '2008/07/28', 'goko.takahashi@sample.com'</t>
+  </si>
+  <si>
+    <t>,'111-1111', '千葉県千葉市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-1111-1111', 370000, '高橋五子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(13,'田中六郎', 'e1.png','男性', '2006/11/29', 'rokuro.tanaka@sample.com'</t>
+  </si>
+  <si>
+    <t>,'222-2222', '東京都新宿区1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-2222-2222', 210000, '田中六郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(14,'田中六子', 'e2.png','女性', '2009/01/03', 'rokuko.tanaka@sample.com'</t>
+  </si>
+  <si>
+    <t>,'333-3333', '神奈川県横浜市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-3333-3333', 320000, '田中六子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(15,'伊藤七郎', 'e1.png','男性', '2011/02/23', 'nanaro.ito@sample.com'</t>
+  </si>
+  <si>
+    <t>,'444-4444', '新潟県新潟市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-4444-4444', 185000, '伊藤七郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(16,'伊藤七子', 'e2.png','女性', '2012/05/03', 'nanako.ito@sample.com'</t>
+  </si>
+  <si>
+    <t>,'555-5555', '富山県富山市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-5555-5555', 149000, '伊藤七子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(17,'山本八郎', 'e1.png','男性', '2017/06/18', 'hachiro.yamamoto@sample.com','666-6666', '石川県金沢市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-6666-6666', 200000, '山本八郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(18,'山本八子', 'e2.png','女性', '2004/01/03', 'hachiko.yamamoto@sample.com','777-7777', '福井県福井市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-7777-7777', 300000, '山本八子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(19,'小林九郎', 'e1.png','男性', '2006/05/21', 'kyuro.kobayashi@sample.com'</t>
+  </si>
+  <si>
+    <t>,'888-8888', '山梨県甲府市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-8888-8888', 400000, '小林九郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(20,'小林九子', 'e2.png','女性', '2016/06/05', 'kyuko.kobayashi@sample.com'</t>
+  </si>
+  <si>
+    <t>,'999-9999', '長野県長野市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '080-9999-9999', 250000, '小林九子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 5);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(21,'加藤十郎', 'e1.png','男性', '2008/07/12', 'juro.kato@sample.com'</t>
+  </si>
+  <si>
+    <t>,'000-0000', '岐阜県岐阜市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '070-0000-0000', 190000, '加藤十郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
+  </si>
+  <si>
+    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(22,'加藤十子', 'e2.png','女性', '2002/08/23', 'juko.kato@sample.com'</t>
+  </si>
+  <si>
+    <t>,'111-1111', '静岡県静岡市1-1-1'</t>
+  </si>
+  <si>
+    <t>, '070-1111-1111', 220000, '加藤十子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
+  </si>
+  <si>
+    <t>従業員情報が存在しない時に、正常に従業員一覧画面が表示されるか</t>
+    <rPh sb="14" eb="17">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="31">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員情報が存在する時に、正常に従業員一覧画面が表示されるか
+表示件数と並び順を確認する</t>
+    <rPh sb="0" eb="6">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="13">
+      <t>ソンザ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ケンス</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ナラb</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員情報が存在する時に、正常に従業員一覧画面が表示されるか
+表示内容を確認する</t>
+    <rPh sb="0" eb="6">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="13">
+      <t>ソンザ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員詳細を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常に従業員詳細画面が表示されるか</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員詳細画面からきちんと画面遷移するか</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="13" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・画面左上の「従業員管理クラウド」アイコンをクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒダr</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>ジュウギョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・画面上メニューの「従業員管理」リンクをクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒダr</t>
+    </rPh>
+    <rPh sb="10" eb="15">
+      <t>ジュウギョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン後、存在しないIDを表示させるようなURLを直書きでアクセスされた時にエラー画面が出るか</t>
+    <rPh sb="4" eb="5">
+      <t>g</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジカガk</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トキン</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>デルk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員情報(扶養人数)を更新する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正常に扶養人数が更新されるか</t>
+    <rPh sb="0" eb="3">
+      <t>セイジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <rPh sb="0" eb="1">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(参考)管理者登録具体的入力値</t>
+    <rPh sb="1" eb="3">
+      <t>サンコ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>グタ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員情報(扶養人数)変更　デシジョンテーブル</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC21</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TC22</t>
+  </si>
+  <si>
+    <t>TC23</t>
+  </si>
+  <si>
+    <t>TC24</t>
+  </si>
+  <si>
+    <t>TC25</t>
+  </si>
+  <si>
+    <t>TC26</t>
+  </si>
+  <si>
+    <t>TC27</t>
+  </si>
+  <si>
+    <t>テストケース番号</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数の入力(境界値の最低の値) (正常系)</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数の入力(境界値の最大の値) (正常系)</t>
+    <rPh sb="0" eb="2">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数の入力(マイナスの値の境界値) (異常系)</t>
+    <rPh sb="15" eb="18">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数の入力(上限超えた境界値) (異常系)</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数の入力(文字列) (異常系)</t>
+    <rPh sb="8" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デベロッパーツールでhiddenのidを変更(異常系)</t>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2つのブラウザで同時更新(異常系)</t>
+    <rPh sb="8" eb="12">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブラウザA：5 , ブラウザB：10</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数を2つのブラウザで同時更新(異常系)</t>
+    <rPh sb="9" eb="13">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hiddenのidをデベロッパーツールで変更した後に更新(異常系)</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>従業員一覧画面に遷移する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>１ラn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新完了メールが送られる</t>
+    <rPh sb="0" eb="2">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>オクラr</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>扶養人数は0〜10の間で入力してください</t>
+    <rPh sb="0" eb="4">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数値を入力してください</t>
+    <rPh sb="0" eb="2">
+      <t>スウチヲ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログアウトをする</t>
+  </si>
+  <si>
+    <t>ログアウトをする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+異常系</t>
+    <rPh sb="0" eb="1">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ログインされていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>山本八郎さんの詳細画面が表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>山本八郎さんの扶養人数が１になっている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こと</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハチロウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>1ラ_x0000_</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「管理者登録はこちらから」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リンクをクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「メールアドレス」がメールアドレスとして不正（＠が使われていない）な状態で登録ボタンをクリックした場合エラーがでるか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「メールアドレス」がすでに登録済みのアドレスである状態で登録ボタンをクリックするした場合エラーがでるか</t>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「パスワード」の文字列が８桁未満の場合エラーがでるか</t>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「登録」をクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「管理者登録デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ブラウザのURL入力欄に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「http://localhost:8080」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と入力する
+・Enterボタンを押下する</t>
+    </r>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="52" eb="56">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ログイン画面が表示されていること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「事前準備用SQL」シートのSQLが実施されていること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジュンb</t>
+    </rPh>
+    <rPh sb="37" eb="46">
+      <t>ジッs</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・従業員一覧画面に遷移すること
+・ヘッダに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ログアウト」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リンクが表示されていること</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="28" eb="41">
+      <t>ヒョウj</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ログイン画面に戻ること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「メールアドレスまたはパスワードが不正です。」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と言うエラーメッセージが表示されること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モドr</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="49" eb="56">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ログイン画面に戻ること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「メールアドレスまたはパスワードが不正です。」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>というエラーメッセージが表示されること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モドr</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="49" eb="56">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ログイン画面が表示されていること
+・ログインしていないこと
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「事前準備用SQL」シートのSQLが実施されていること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>トウロk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ジュンb</t>
+    </rPh>
+    <rPh sb="50" eb="59">
+      <t>ジッs</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ブラウザのURL入力欄に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「http://localhost:8080/employee/showList」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と入力する
+・Enterボタンを押下する</t>
+    </r>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ログイン画面に戻ること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「不正な操作が行われました」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>というエラーメッセージが表示されること</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モドr</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ソウs</t>
+    </rPh>
+    <rPh sb="21" eb="28">
+      <t>オコナw</t>
+    </rPh>
+    <rPh sb="40" eb="47">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ブラウザのURL入力欄に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「http://localhost:8080/employee/showDetail?id=2」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と入力する
+・Enterボタンを押下する</t>
+    </r>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="77" eb="81">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・従業員一覧画面に遷移すること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>22件の従業員情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が表示されていること
+・並び順が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>入社日の降順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になっていること</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="27">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="27" eb="36">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ナラb</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウsy</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・従業員一覧画面に遷移すること
+・それぞれの社員の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「従業員名」「入社日」「扶養人数」がDBの内容と同じものが表示されている</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>こと</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウsy</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンズ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ナイヨ</t>
+    </rPh>
+    <rPh sb="49" eb="54">
+      <t>オナj</t>
+    </rPh>
+    <rPh sb="54" eb="63">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ログインされていること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・「事前準備用SQL」シートのSQLが実施されていること
+・従業員詳細画面が表示されていること</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ジュンb</t>
+    </rPh>
+    <rPh sb="32" eb="41">
+      <t>ジッs</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="46" eb="51">
+      <t>sy</t>
+    </rPh>
+    <rPh sb="51" eb="60">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・パンくずリストの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「従業員一覧」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>リンクをクリックする</t>
+    </r>
+    <rPh sb="10" eb="16">
+      <t>ジュウギョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・従業員一覧画面に遷移すること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「従業員情報が１件も存在しません」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>というメッセージが表示されていること</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="18" eb="24">
+      <t>ジュウギョウインジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="27" eb="33">
+      <t>ソンザ</t>
+    </rPh>
+    <rPh sb="34" eb="52">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ログインされていること
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>従業員一覧画面が表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>されていること</t>
+    </r>
+    <rPh sb="14" eb="17">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t>1ラン</t>
+    </rPh>
+    <rPh sb="22" eb="31">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・ブラウザのURL入力欄に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「http://localhost:8080/employee/showDetail?id=200」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と入力する
+・Enterボタンを押下する</t>
+    </r>
+    <rPh sb="9" eb="13">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ニュウリョk</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>オウk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「不正な操作が行われました」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>というエラーページが表示されること</t>
+    </r>
+    <rPh sb="2" eb="5">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ソウs</t>
+    </rPh>
+    <rPh sb="8" eb="15">
+      <t>オコナw</t>
+    </rPh>
+    <rPh sb="25" eb="32">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小林九子さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のリンクをクリックする</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コバヤs</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・従業員詳細画面に遷移すること
+・以下の小林九子さんの情報が表示されていること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「小林九子」「女性」「2016/06/05」「kyuko.kobayashi@sample.com」「999-9999」「長野県長野市1-1-1」「080-9999-9999」「250000」「小林九子さんは明るく素直な性格です・・」「5」</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>イカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コバヤs</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キュ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ジョウホ</t>
+    </rPh>
+    <rPh sb="30" eb="39">
+      <t>ヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>山本八郎さん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のリンクをクリックする</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・従業員詳細画面に遷移すること
+・以下の小林九子さんの情報が表示されていること
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「山本八郎」「男」「2017/06/18」「hachiro.yamamoto@sample.com」「666-6666」「石川県金沢市1-1-1」「080-6666-6666」「200000」「山本八郎さんは明るく素直な性格です・・」「1」</t>
+    </r>
+    <rPh sb="1" eb="4">
+      <t>ジュウギョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>イカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コバヤs</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キュ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ジョウホ</t>
+    </rPh>
+    <rPh sb="30" eb="39">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オトk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>扶養人数に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マイナスの値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>扶養人数に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>上限超えた値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>扶養人数に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>文字列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>扶養人数を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2つのブラウザで同時更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hiddenのidをデベロッパーツールで変更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の入力を実施し、「更新」をクリックする</t>
+    </r>
+    <rPh sb="40" eb="42">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TC27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の期待される結果になっていること</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>画面の挙動
 正常系</t>
     <rPh sb="0" eb="3">
@@ -995,3072 +4044,6 @@
       <t>キョド</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>セイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DROP TABLE IF EXISTS administrators CASCADE;</t>
-  </si>
-  <si>
-    <t>DROP TABLE IF EXISTS employees CASCADE;</t>
-  </si>
-  <si>
-    <t>create table administrators(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  id serial primary key,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  name text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  mail_address text not null unique,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  password text not null</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>create table employees (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  id integer primary key,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  image text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gender text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  hire_date timestamp not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  zip_code text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  address text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  telephone text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  salary integer not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  characteristics text not null,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  dependents_count integer not null default 0</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(1,'山田太郎',  'e1.png','男性', '2012/11/29', 'taro.yamada@sample.com'</t>
-  </si>
-  <si>
-    <t>,'000-0000', '北海道札幌市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-0000-0000', 400000, '山田太郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(2,'山田花子',  'e2.png','女性', '2013/01/03', 'hanako.yamada@sample.com'</t>
-  </si>
-  <si>
-    <t>,'111-1111', '青森県青森市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-1111-1111', 300000, '山田花子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>正常にログイン画面が表示されるか</t>
-    <rPh sb="0" eb="7">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="16">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ブラウザが起動していること
-・画面には何も表示されていないこと</t>
-    <rPh sb="6" eb="14">
-      <t>キド</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ナン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・従業員管理システムのログイン画面が表示されること</t>
-    <rPh sb="1" eb="11">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="25">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>正常に管理者登録画面が表示されるか</t>
-    <rPh sb="0" eb="3">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カンr</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・ログイン画面が表示されていること</t>
-    <rPh sb="5" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="17">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・管理者登録画面が表示されること</t>
-    <rPh sb="1" eb="6">
-      <t>カンr</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="16">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員管理システム　ブラックボックステスト仕様書</t>
-    <rPh sb="0" eb="9">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すべての欄が空欄の状態で、登録ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「氏名」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
-    <rPh sb="1" eb="3">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「メールアドレス」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「パスワード」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「確認用パスワード」が空欄の状態で登録ボタンをクリックした場合、エラーがでるか</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員一覧を表示する</t>
-    <rPh sb="0" eb="6">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(3,'鈴木一朗',  'e1.png','男性', '2004/10/21', 'ichiro.suzuki@sample.com'</t>
-  </si>
-  <si>
-    <t>,'222-2222', '岩手県盛岡市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-2222-2222', 200000, '鈴木一朗さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 4);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(4,'鈴木一子',  'e2.png','女性', '2003/04/05', 'ichiko.suzuki@sample.com'</t>
-  </si>
-  <si>
-    <t>,'333-3333', '宮城県仙台市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-3333-3333', 100000, '鈴木一子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(5,'佐藤次郎',  'e1.png','男性', '2017/08/22', 'jiro.sato@sample.com'</t>
-  </si>
-  <si>
-    <t>,'444-4444', '秋田県秋田市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-4444-4444', 450000, '佐藤次郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(6,'佐藤次子',  'e2.png','女性', '2014/03/04', 'jiko.sato@sample.com'</t>
-  </si>
-  <si>
-    <t>,'555-5555', '山形県山形市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-5555-5555', 250000, '佐藤次子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(7,'渡辺三郎',  'e1.png','男性', '2018/10/29', 'saburo.watanabe@sample.com'</t>
-  </si>
-  <si>
-    <t>,'666-6666', '福島県福島市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-6666-6666', 130000, '渡辺三郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(8,'渡辺三子',  'e2.png','女性', '2003/10/03', 'sanko.watanabe@sample.com'</t>
-  </si>
-  <si>
-    <t>,'777-7777', '茨城県水戸市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-7777-7777', 320000, '渡辺三子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(9,'吉田四郎',  'e1.png','男性', '2012/11/29', 'shiro.yoshida@sample.com'</t>
-  </si>
-  <si>
-    <t>,'888-8888', '栃木県宇都宮市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-8888-8888', 230000, '吉田四郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(10,'吉田四子', 'e2.png','女性', '2013/01/03', 'shiko.yoshida@sample.com'</t>
-  </si>
-  <si>
-    <t>,'999-9999', '群馬県前橋市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '090-9999-9999', 455000, '吉田四子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(11,'高橋五郎', 'e1.png','男性', '2014/02/24', 'goro.takahashi@sample.com'</t>
-  </si>
-  <si>
-    <t>,'000-0000', '埼玉県さいたま市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-0000-0000', 180000, '高橋五郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(12,'高橋五子', 'e2.png','女性', '2008/07/28', 'goko.takahashi@sample.com'</t>
-  </si>
-  <si>
-    <t>,'111-1111', '千葉県千葉市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-1111-1111', 370000, '高橋五子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(13,'田中六郎', 'e1.png','男性', '2006/11/29', 'rokuro.tanaka@sample.com'</t>
-  </si>
-  <si>
-    <t>,'222-2222', '東京都新宿区1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-2222-2222', 210000, '田中六郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(14,'田中六子', 'e2.png','女性', '2009/01/03', 'rokuko.tanaka@sample.com'</t>
-  </si>
-  <si>
-    <t>,'333-3333', '神奈川県横浜市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-3333-3333', 320000, '田中六子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(15,'伊藤七郎', 'e1.png','男性', '2011/02/23', 'nanaro.ito@sample.com'</t>
-  </si>
-  <si>
-    <t>,'444-4444', '新潟県新潟市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-4444-4444', 185000, '伊藤七郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(16,'伊藤七子', 'e2.png','女性', '2012/05/03', 'nanako.ito@sample.com'</t>
-  </si>
-  <si>
-    <t>,'555-5555', '富山県富山市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-5555-5555', 149000, '伊藤七子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 0);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(17,'山本八郎', 'e1.png','男性', '2017/06/18', 'hachiro.yamamoto@sample.com','666-6666', '石川県金沢市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-6666-6666', 200000, '山本八郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(18,'山本八子', 'e2.png','女性', '2004/01/03', 'hachiko.yamamoto@sample.com','777-7777', '福井県福井市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-7777-7777', 300000, '山本八子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(19,'小林九郎', 'e1.png','男性', '2006/05/21', 'kyuro.kobayashi@sample.com'</t>
-  </si>
-  <si>
-    <t>,'888-8888', '山梨県甲府市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-8888-8888', 400000, '小林九郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 3);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(20,'小林九子', 'e2.png','女性', '2016/06/05', 'kyuko.kobayashi@sample.com'</t>
-  </si>
-  <si>
-    <t>,'999-9999', '長野県長野市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '080-9999-9999', 250000, '小林九子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 5);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(21,'加藤十郎', 'e1.png','男性', '2008/07/12', 'juro.kato@sample.com'</t>
-  </si>
-  <si>
-    <t>,'000-0000', '岐阜県岐阜市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '070-0000-0000', 190000, '加藤十郎さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 2);</t>
-  </si>
-  <si>
-    <t>insert into employees(id,name,image,gender,hire_date,mail_address,zip_code,address,telephone,salary,characteristics,dependents_count) values(22,'加藤十子', 'e2.png','女性', '2002/08/23', 'juko.kato@sample.com'</t>
-  </si>
-  <si>
-    <t>,'111-1111', '静岡県静岡市1-1-1'</t>
-  </si>
-  <si>
-    <t>, '070-1111-1111', 220000, '加藤十子さんは明るく素直な性格です。リーダーシップを発揮します。新卒社員研修の時はグループ開発の時にリーダーを買ってでました。積極性も人間性も抜群です。周りに対する不満も聞いたことがありません。', 1);</t>
-  </si>
-  <si>
-    <t>従業員情報が存在しない時に、正常に従業員一覧画面が表示されるか</t>
-    <rPh sb="14" eb="17">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="31">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員情報が存在する時に、正常に従業員一覧画面が表示されるか
-表示件数と並び順を確認する</t>
-    <rPh sb="0" eb="6">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="6" eb="13">
-      <t>ソンザ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ケンス</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>ナラb</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員情報が存在する時に、正常に従業員一覧画面が表示されるか
-表示内容を確認する</t>
-    <rPh sb="0" eb="6">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="6" eb="13">
-      <t>ソンザ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="30">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="31" eb="36">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員詳細を表示する</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>正常に従業員詳細画面が表示されるか</t>
-    <rPh sb="0" eb="3">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="11" eb="17">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員詳細画面からきちんと画面遷移するか</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="13" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・画面左上の「従業員管理クラウド」アイコンをクリックする</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ヒダr</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>ジュウギョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・画面上メニューの「従業員管理」リンクをクリックする</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒダr</t>
-    </rPh>
-    <rPh sb="10" eb="15">
-      <t>ジュウギョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログイン後、存在しないIDを表示させるようなURLを直書きでアクセスされた時にエラー画面が出るか</t>
-    <rPh sb="4" eb="5">
-      <t>g</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソンザ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ジカガk</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>トキン</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>デルk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員情報(扶養人数)を更新する</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>正常に扶養人数が更新されるか</t>
-    <rPh sb="0" eb="3">
-      <t>セイジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力系画面
-正常系</t>
-    <rPh sb="0" eb="1">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(参考)管理者登録具体的入力値</t>
-    <rPh sb="1" eb="3">
-      <t>サンコ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>グタ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ニュウリョk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員情報(扶養人数)変更　デシジョンテーブル</t>
-    <rPh sb="0" eb="5">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TC21</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TC22</t>
-  </si>
-  <si>
-    <t>TC23</t>
-  </si>
-  <si>
-    <t>TC24</t>
-  </si>
-  <si>
-    <t>TC25</t>
-  </si>
-  <si>
-    <t>TC26</t>
-  </si>
-  <si>
-    <t>TC27</t>
-  </si>
-  <si>
-    <t>テストケース番号</t>
-    <rPh sb="6" eb="8">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数の入力(境界値の最低の値) (正常系)</t>
-    <rPh sb="0" eb="2">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>セイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数の入力(境界値の最大の値) (正常系)</t>
-    <rPh sb="0" eb="2">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>セイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数の入力(マイナスの値の境界値) (異常系)</t>
-    <rPh sb="15" eb="18">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数の入力(上限超えた境界値) (異常系)</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コエ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数の入力(文字列) (異常系)</t>
-    <rPh sb="8" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>あいうえお</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>デベロッパーツールでhiddenのidを変更(異常系)</t>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2つのブラウザで同時更新(異常系)</t>
-    <rPh sb="8" eb="12">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ブラウザA：5 , ブラウザB：10</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数を2つのブラウザで同時更新(異常系)</t>
-    <rPh sb="9" eb="13">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hiddenのidをデベロッパーツールで変更した後に更新(異常系)</t>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>従業員一覧画面に遷移する</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>１ラn</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新完了メールが送られる</t>
-    <rPh sb="0" eb="2">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="2" eb="8">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>オクラr</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>扶養人数は0〜10の間で入力してください</t>
-    <rPh sb="0" eb="4">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>数値を入力してください</t>
-    <rPh sb="0" eb="2">
-      <t>スウチヲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ログアウトをする</t>
-  </si>
-  <si>
-    <t>ログアウトをする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力系画面
-異常系</t>
-    <rPh sb="0" eb="1">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ログインされていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山本八郎さんの詳細画面が表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山本八郎さんの扶養人数が１になっている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>こと</t>
-    </r>
-    <rPh sb="14" eb="16">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハチロウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>1ラ_x0000_</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t/>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「管理者登録はこちらから」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リンクをクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <rPh sb="22" eb="24">
-      <t>キタイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「メールアドレス」がメールアドレスとして不正（＠が使われていない）な状態で登録ボタンをクリックした場合エラーがでるか</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「メールアドレス」がすでに登録済みのアドレスである状態で登録ボタンをクリックするした場合エラーがでるか</t>
-    <rPh sb="25" eb="27">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「パスワード」の文字列が８桁未満の場合エラーがでるか</t>
-    <rPh sb="8" eb="11">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「登録」をクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「管理者登録デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ブラウザのURL入力欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「http://localhost:8080」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と入力する
-・Enterボタンを押下する</t>
-    </r>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="52" eb="56">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・ログイン画面が表示されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・「事前準備用SQL」シートのSQLが実施されていること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ジュンb</t>
-    </rPh>
-    <rPh sb="37" eb="46">
-      <t>ジッs</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・従業員一覧画面に遷移すること
-・ヘッダに</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「ログアウト」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リンクが表示されていること</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="28" eb="41">
-      <t>ヒョウj</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ログイン画面に戻ること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「メールアドレスまたはパスワードが不正です。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と言うエラーメッセージが表示されること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>モドr</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="49" eb="56">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ログイン画面に戻ること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「メールアドレスまたはパスワードが不正です。」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>というエラーメッセージが表示されること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>モドr</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="49" eb="56">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・ログイン画面が表示されていること
-・ログインしていないこと
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・「事前準備用SQL」シートのSQLが実施されていること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>トウロk</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ジュンb</t>
-    </rPh>
-    <rPh sb="50" eb="59">
-      <t>ジッs</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ブラウザのURL入力欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「http://localhost:8080/employee/showList」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と入力する
-・Enterボタンを押下する</t>
-    </r>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="70" eb="74">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ログイン画面に戻ること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「不正な操作が行われました」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>というエラーメッセージが表示されること</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>モドr</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ソウs</t>
-    </rPh>
-    <rPh sb="21" eb="28">
-      <t>オコナw</t>
-    </rPh>
-    <rPh sb="40" eb="47">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ブラウザのURL入力欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「http://localhost:8080/employee/showDetail?id=2」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と入力する
-・Enterボタンを押下する</t>
-    </r>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="77" eb="81">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・従業員一覧画面に遷移すること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>22件の従業員情報</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>が表示されていること
-・並び順が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>入社日の降順</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>になっていること</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="21" eb="27">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="27" eb="36">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>ナラb</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニュウsy</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・従業員一覧画面に遷移すること
-・それぞれの社員の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「従業員名」「入社日」「扶養人数」がDBの内容と同じものが表示されている</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>こと</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウsy</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニンズ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ナイヨ</t>
-    </rPh>
-    <rPh sb="49" eb="54">
-      <t>オナj</t>
-    </rPh>
-    <rPh sb="54" eb="63">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・ログインされていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・「事前準備用SQL」シートのSQLが実施されていること
-・従業員詳細画面が表示されていること</t>
-    </r>
-    <rPh sb="15" eb="17">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ジュンb</t>
-    </rPh>
-    <rPh sb="32" eb="41">
-      <t>ジッs</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="46" eb="51">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="51" eb="60">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・パンくずリストの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「従業員一覧」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>リンクをクリックする</t>
-    </r>
-    <rPh sb="10" eb="16">
-      <t>ジュウギョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・従業員一覧画面に遷移すること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「従業員情報が１件も存在しません」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>というメッセージが表示されていること</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="9">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="18" eb="24">
-      <t>ジュウギョウインジョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t>ソンザ</t>
-    </rPh>
-    <rPh sb="34" eb="52">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ログインされていること
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>従業員一覧画面が表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>されていること</t>
-    </r>
-    <rPh sb="14" eb="17">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="17" eb="22">
-      <t>1ラン</t>
-    </rPh>
-    <rPh sb="22" eb="31">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・ブラウザのURL入力欄に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「http://localhost:8080/employee/showDetail?id=200」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と入力する
-・Enterボタンを押下する</t>
-    </r>
-    <rPh sb="9" eb="13">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ニュウリョk</t>
-    </rPh>
-    <rPh sb="79" eb="83">
-      <t>オウk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「不正な操作が行われました」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>というエラーページが表示されること</t>
-    </r>
-    <rPh sb="2" eb="5">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ソウs</t>
-    </rPh>
-    <rPh sb="8" eb="15">
-      <t>オコナw</t>
-    </rPh>
-    <rPh sb="25" eb="32">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小林九子さん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のリンクをクリックする</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>コバヤs</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・従業員詳細画面に遷移すること
-・以下の小林九子さんの情報が表示されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「小林九子」「女性」「2016/06/05」「kyuko.kobayashi@sample.com」「999-9999」「長野県長野市1-1-1」「080-9999-9999」「250000」「小林九子さんは明るく素直な性格です・・」「5」</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>イカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コバヤs</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キュ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ジョウホ</t>
-    </rPh>
-    <rPh sb="30" eb="39">
-      <t>ヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>山本八郎さん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のリンクをクリックする</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">・従業員詳細画面に遷移すること
-・以下の小林九子さんの情報が表示されていること
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「山本八郎」「男」「2017/06/18」「hachiro.yamamoto@sample.com」「666-6666」「石川県金沢市1-1-1」「080-6666-6666」「200000」「山本八郎さんは明るく素直な性格です・・」「1」</t>
-    </r>
-    <rPh sb="1" eb="4">
-      <t>ジュウギョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="15">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>イカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コバヤs</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キュ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ジョウホ</t>
-    </rPh>
-    <rPh sb="30" eb="39">
-      <t>ヒョ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>オトk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>扶養人数に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マイナスの値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    </r>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>扶養人数に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>上限超えた値</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>扶養人数に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>文字列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を入力した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    </r>
-    <rPh sb="5" eb="8">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>扶養人数を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2つのブラウザで同時更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>hiddenのidをデベロッパーツールで変更</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>した状態で、更新ボタンをクリックした場合、正しいエラー表示が出るか</t>
-    </r>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の入力を実施し、「更新」をクリックする</t>
-    </r>
-    <rPh sb="40" eb="42">
-      <t>コウシn</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>・「従業員情報(扶養人数)変更　デシジョンテーブル」の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TC27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の期待される結果になっていること</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面の挙動
-正常系</t>
-    <rPh sb="0" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョド</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>セイジョウ</t>
     </rPh>
     <rPh sb="8" eb="9">
@@ -4425,6 +4408,37 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <rPh sb="0" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョド</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力系画面
+正常系</t>
+    <rPh sb="0" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョ</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>セイジョ</t>
@@ -5942,353 +5956,353 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>93</v>
-      </c>
-      <c r="E28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
         <v>123</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>124</v>
-      </c>
-      <c r="D34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
         <v>126</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>127</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
         <v>132</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>133</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>136</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
         <v>141</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>142</v>
-      </c>
-      <c r="D40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
         <v>144</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>145</v>
-      </c>
-      <c r="D41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>148</v>
-      </c>
-      <c r="E42" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
         <v>150</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>151</v>
-      </c>
-      <c r="E43" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
-      </c>
-      <c r="C44" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
         <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>158</v>
-      </c>
-      <c r="D46" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s">
         <v>160</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>161</v>
-      </c>
-      <c r="D47" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
         <v>163</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>164</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
         <v>166</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>167</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6307,8 +6321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="137" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:A143"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6325,7 +6339,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="20">
       <c r="A1" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -6336,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I1" s="46"/>
     </row>
@@ -6392,16 +6406,16 @@
         <v>60</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
@@ -6462,13 +6476,13 @@
         <v>61</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -6477,7 +6491,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
@@ -6501,7 +6515,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="L10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>15</v>
@@ -6664,16 +6678,16 @@
         <v>46</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>214</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -6726,7 +6740,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="L15" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>26</v>
@@ -6911,16 +6925,16 @@
         <v>46</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
@@ -7112,16 +7126,16 @@
         <v>46</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
@@ -7359,16 +7373,16 @@
         <v>46</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -7562,7 +7576,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="L33" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>26</v>
@@ -7606,16 +7620,16 @@
         <v>46</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -7632,7 +7646,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="L35" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M35" s="61" t="s">
         <v>29</v>
@@ -7662,7 +7676,7 @@
         <v>48</v>
       </c>
       <c r="M36" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N36" s="57"/>
       <c r="O36" s="57"/>
@@ -7689,7 +7703,7 @@
         <v>49</v>
       </c>
       <c r="M37" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N37" s="55"/>
       <c r="O37" s="55"/>
@@ -7737,16 +7751,16 @@
         <v>46</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>225</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
@@ -7782,7 +7796,7 @@
         <v>51</v>
       </c>
       <c r="M40" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N40" s="57"/>
       <c r="O40" s="57"/>
@@ -7809,7 +7823,7 @@
         <v>52</v>
       </c>
       <c r="M41" s="63" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N41" s="64"/>
       <c r="O41" s="64"/>
@@ -7884,16 +7898,16 @@
         <v>46</v>
       </c>
       <c r="C44" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="F44" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
@@ -7948,10 +7962,10 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
       <c r="L47" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
@@ -7971,28 +7985,28 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="L48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="20" customHeight="1">
@@ -8003,16 +8017,16 @@
         <v>46</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
@@ -8039,7 +8053,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="L50" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>26</v>
@@ -8074,7 +8088,7 @@
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
       <c r="L51" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>28</v>
@@ -8109,7 +8123,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="L52" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>28</v>
@@ -8144,7 +8158,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="L53" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>28</v>
@@ -8182,16 +8196,16 @@
         <v>47</v>
       </c>
       <c r="E54" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="L54" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>28</v>
@@ -8226,7 +8240,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="L55" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>28</v>
@@ -8261,7 +8275,7 @@
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
       <c r="L56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>28</v>
@@ -8339,16 +8353,16 @@
         <v>47</v>
       </c>
       <c r="E59" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="L59" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>27</v>
@@ -8383,7 +8397,7 @@
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="L60" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>27</v>
@@ -8418,7 +8432,7 @@
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="L61" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>27</v>
@@ -8453,7 +8467,7 @@
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
       <c r="L62" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>34</v>
@@ -8488,7 +8502,7 @@
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="L63" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M63" s="10" t="s">
         <v>34</v>
@@ -8517,25 +8531,25 @@
         <v>59</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="C64" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="E64" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>100</v>
       </c>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
       <c r="I64" s="35"/>
       <c r="L64" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>26</v>
@@ -8581,7 +8595,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="L66" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M66" s="36" t="s">
         <v>29</v>
@@ -8604,7 +8618,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
       <c r="L67" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M67" s="39">
         <v>0</v>
@@ -8627,7 +8641,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="L68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M68" s="39">
         <v>10</v>
@@ -8644,16 +8658,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>62</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F69" s="28" t="s">
         <v>63</v>
@@ -8662,7 +8676,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="L69" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M69" s="39">
         <v>-1</v>
@@ -8685,7 +8699,7 @@
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
       <c r="L70" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M70" s="39">
         <v>11</v>
@@ -8708,10 +8722,10 @@
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="L71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M71" s="39" t="s">
         <v>195</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>196</v>
       </c>
       <c r="N71" s="40"/>
       <c r="O71" s="40"/>
@@ -8731,10 +8745,10 @@
       <c r="H72" s="35"/>
       <c r="I72" s="35"/>
       <c r="L72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M72" s="39" t="s">
         <v>198</v>
-      </c>
-      <c r="M72" s="39" t="s">
-        <v>199</v>
       </c>
       <c r="N72" s="40"/>
       <c r="O72" s="40"/>
@@ -8754,7 +8768,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
       <c r="L73" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M73" s="42">
         <v>1</v>
@@ -8771,19 +8785,19 @@
         <v>59</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E74" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F74" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>299</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
@@ -8838,19 +8852,19 @@
         <v>59</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="C79" s="28" t="s">
         <v>71</v>
       </c>
       <c r="D79" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F79" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
@@ -8905,19 +8919,19 @@
         <v>59</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C84" s="28" t="s">
         <v>65</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
@@ -8972,19 +8986,19 @@
         <v>59</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C89" s="28" t="s">
         <v>66</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
@@ -9039,19 +9053,19 @@
         <v>59</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C94" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
@@ -9106,19 +9120,19 @@
         <v>59</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C99" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D99" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="F99" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>243</v>
       </c>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
@@ -9173,19 +9187,19 @@
         <v>59</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C104" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
@@ -9237,22 +9251,22 @@
     </row>
     <row r="109" spans="1:9" ht="20" customHeight="1">
       <c r="A109" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
@@ -9304,22 +9318,22 @@
     </row>
     <row r="114" spans="1:9" ht="20" customHeight="1">
       <c r="A114" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
@@ -9371,22 +9385,22 @@
     </row>
     <row r="119" spans="1:9" ht="20" customHeight="1">
       <c r="A119" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D119" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E119" s="25" t="s">
-        <v>248</v>
-      </c>
       <c r="F119" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
@@ -9438,22 +9452,22 @@
     </row>
     <row r="124" spans="1:9" ht="20" customHeight="1">
       <c r="A124" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C124" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>175</v>
-      </c>
       <c r="F124" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G124" s="35"/>
       <c r="H124" s="35"/>
@@ -9505,22 +9519,22 @@
     </row>
     <row r="129" spans="1:9" ht="20" customHeight="1">
       <c r="A129" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
@@ -9572,22 +9586,22 @@
     </row>
     <row r="134" spans="1:9" ht="20" customHeight="1">
       <c r="A134" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B134" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F134" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
@@ -9639,22 +9653,22 @@
     </row>
     <row r="139" spans="1:9" ht="20" customHeight="1">
       <c r="A139" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B139" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D139" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="E139" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="E139" s="32" t="s">
+      <c r="F139" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="F139" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
@@ -9706,22 +9720,22 @@
     </row>
     <row r="144" spans="1:9" ht="20" customHeight="1">
       <c r="A144" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B144" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E144" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F144" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="F144" s="28" t="s">
-        <v>254</v>
       </c>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
@@ -9784,22 +9798,22 @@
     </row>
     <row r="150" spans="1:9" ht="20" customHeight="1">
       <c r="A150" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="25" t="s">
         <v>60</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E150" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F150" s="28" t="s">
         <v>255</v>
-      </c>
-      <c r="F150" s="28" t="s">
-        <v>256</v>
       </c>
       <c r="G150" s="35"/>
       <c r="H150" s="35"/>
@@ -9862,22 +9876,22 @@
     </row>
     <row r="156" spans="1:9" ht="20" customHeight="1">
       <c r="A156" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E156" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F156" s="28" t="s">
         <v>257</v>
-      </c>
-      <c r="F156" s="28" t="s">
-        <v>258</v>
       </c>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
@@ -9940,22 +9954,22 @@
     </row>
     <row r="162" spans="1:9" ht="20" customHeight="1">
       <c r="A162" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C162" s="28" t="s">
-        <v>179</v>
-      </c>
       <c r="D162" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E162" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="F162" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="F162" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="G162" s="35"/>
       <c r="H162" s="35"/>
@@ -10018,22 +10032,22 @@
     </row>
     <row r="168" spans="1:9" ht="20" customHeight="1">
       <c r="A168" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B168" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D168" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C168" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="E168" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F168" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="F168" s="28" t="s">
-        <v>267</v>
       </c>
       <c r="G168" s="35"/>
       <c r="H168" s="35"/>
@@ -10096,22 +10110,22 @@
     </row>
     <row r="174" spans="1:9" ht="20" customHeight="1">
       <c r="A174" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D174" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C174" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D174" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="E174" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F174" s="28" t="s">
         <v>268</v>
-      </c>
-      <c r="F174" s="28" t="s">
-        <v>269</v>
       </c>
       <c r="G174" s="35"/>
       <c r="H174" s="35"/>
@@ -10174,22 +10188,22 @@
     </row>
     <row r="180" spans="1:9" ht="20" customHeight="1">
       <c r="A180" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D180" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C180" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="E180" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F180" s="28" t="s">
         <v>270</v>
-      </c>
-      <c r="F180" s="28" t="s">
-        <v>271</v>
       </c>
       <c r="G180" s="35"/>
       <c r="H180" s="35"/>
@@ -10252,22 +10266,22 @@
     </row>
     <row r="186" spans="1:9" ht="20" customHeight="1">
       <c r="A186" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B186" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D186" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D186" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="E186" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="F186" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="F186" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
@@ -10330,22 +10344,22 @@
     </row>
     <row r="192" spans="1:9" ht="20" customHeight="1">
       <c r="A192" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B192" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D192" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="D192" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="E192" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F192" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="F192" s="28" t="s">
-        <v>275</v>
       </c>
       <c r="G192" s="35"/>
       <c r="H192" s="35"/>
@@ -10408,22 +10422,22 @@
     </row>
     <row r="198" spans="1:9" ht="20" customHeight="1">
       <c r="A198" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C198" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D198" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="E198" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F198" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="E198" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="F198" s="28" t="s">
-        <v>281</v>
       </c>
       <c r="G198" s="35"/>
       <c r="H198" s="35"/>
@@ -10486,22 +10500,22 @@
     </row>
     <row r="204" spans="1:9" ht="20" customHeight="1">
       <c r="A204" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D204" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E204" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="E204" s="32" t="s">
+      <c r="F204" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="F204" s="28" t="s">
-        <v>243</v>
       </c>
       <c r="G204" s="35"/>
       <c r="H204" s="35"/>
@@ -10553,22 +10567,22 @@
     </row>
     <row r="209" spans="1:9" ht="20" customHeight="1">
       <c r="A209" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G209" s="35"/>
       <c r="H209" s="35"/>
